--- a/CH-92 Missing value.xlsx
+++ b/CH-92 Missing value.xlsx
@@ -8,15 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{887CC90C-7B74-4EB4-B21A-FF8FB808197E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFD50A2-9D8D-498D-AE63-479D79C68EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Alt1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="XHIE6UXJSq8MV2Ar0xW51Xd084K+jXPOuB+HemXMy+c="/>
     </ext>
@@ -24,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Question</t>
   </si>
@@ -64,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +132,23 @@
       <name val="Corbel"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +165,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -177,8 +235,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -207,8 +267,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Intro_Hd" xfId="2" xr:uid="{939452B0-992F-464A-8BB9-90FACA3DA973}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4E145585-4CFD-461D-8341-A66DB2988954}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -809,7 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5389,4 +5453,4754 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A55F4F-298E-4E58-B86A-AEBC0CE8B1D4}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="2.88671875" customWidth="1"/>
+    <col min="3" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" customWidth="1"/>
+    <col min="17" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.21875" customWidth="1"/>
+    <col min="20" max="26" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>70</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4">
+        <v>70</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4">
+        <v>78</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>32</v>
+      </c>
+      <c r="M4" s="4">
+        <v>36</v>
+      </c>
+      <c r="N4" s="4">
+        <v>78</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>65</v>
+      </c>
+      <c r="E5" s="4">
+        <v>67</v>
+      </c>
+      <c r="F5" s="4">
+        <v>94</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="4">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>65</v>
+      </c>
+      <c r="M5" s="4">
+        <v>67</v>
+      </c>
+      <c r="N5" s="4">
+        <v>94</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="4">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>40</v>
+      </c>
+      <c r="M6" s="5">
+        <v>68</v>
+      </c>
+      <c r="N6" s="4">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>57</v>
+      </c>
+      <c r="E7" s="4">
+        <v>68</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>57</v>
+      </c>
+      <c r="M7" s="4">
+        <v>68</v>
+      </c>
+      <c r="N7" s="5">
+        <v>68</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="4">
+        <v>6</v>
+      </c>
+      <c r="L8" s="5">
+        <v>30</v>
+      </c>
+      <c r="M8" s="4">
+        <v>30</v>
+      </c>
+      <c r="N8" s="4">
+        <v>12</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4">
+        <v>89</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4">
+        <v>7</v>
+      </c>
+      <c r="L9" s="4">
+        <v>11</v>
+      </c>
+      <c r="M9" s="4">
+        <v>12</v>
+      </c>
+      <c r="N9" s="4">
+        <v>89</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4">
+        <v>8</v>
+      </c>
+      <c r="L10" s="4">
+        <v>34</v>
+      </c>
+      <c r="M10" s="5">
+        <v>34</v>
+      </c>
+      <c r="N10" s="4">
+        <v>10</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>78</v>
+      </c>
+      <c r="E11" s="4">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4">
+        <v>9</v>
+      </c>
+      <c r="L11" s="4">
+        <v>78</v>
+      </c>
+      <c r="M11" s="4">
+        <v>50</v>
+      </c>
+      <c r="N11" s="4">
+        <v>10</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
+        <v>94</v>
+      </c>
+      <c r="E12" s="4">
+        <v>84</v>
+      </c>
+      <c r="F12" s="4">
+        <v>82</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4">
+        <v>94</v>
+      </c>
+      <c r="M12" s="4">
+        <v>84</v>
+      </c>
+      <c r="N12" s="4">
+        <v>82</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="C18:F28" ca="1">_xlfn.MAP(
+ C2:F12,
+ _xlfn.LAMBDA(_xlpm.a,
+ OFFSET(
+ _xlpm.a,
+ _xlfn.IFS(_xlpm.a = "D", 1, _xlpm.a = "U", -1, 1, 0),
+ _xlfn.IFS(_xlpm.a = "L", -1, _xlpm.a = "R", 1, 1, 0)
+ )
+ )
+)</f>
+        <v>Row ID</v>
+      </c>
+      <c r="D18" s="7" t="str">
+        <f ca="1"/>
+        <v>X</v>
+      </c>
+      <c r="E18" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="F18" t="str">
+        <f ca="1"/>
+        <v>Z</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C19" s="7">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <f ca="1"/>
+        <v>70</v>
+      </c>
+      <c r="F19" t="str">
+        <f ca="1"/>
+        <v>Z</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C20" s="7">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <f ca="1"/>
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <f ca="1"/>
+        <v>36</v>
+      </c>
+      <c r="F20">
+        <f ca="1"/>
+        <v>78</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="7">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="D21" s="7">
+        <f ca="1"/>
+        <v>65</v>
+      </c>
+      <c r="E21">
+        <f ca="1"/>
+        <v>67</v>
+      </c>
+      <c r="F21">
+        <f ca="1"/>
+        <v>94</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <f ca="1"/>
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <f ca="1"/>
+        <v>68</v>
+      </c>
+      <c r="F22">
+        <f ca="1"/>
+        <v>36</v>
+      </c>
+      <c r="P22" s="8"/>
+      <c r="S22" s="9"/>
+    </row>
+    <row r="23" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="D23" s="7">
+        <f ca="1"/>
+        <v>57</v>
+      </c>
+      <c r="E23">
+        <f ca="1"/>
+        <v>68</v>
+      </c>
+      <c r="F23">
+        <f ca="1"/>
+        <v>68</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="7">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="D24" s="7">
+        <f ca="1"/>
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <f ca="1"/>
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="S24" s="9"/>
+    </row>
+    <row r="25" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="7">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="D25" s="7">
+        <f ca="1"/>
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <f ca="1"/>
+        <v>89</v>
+      </c>
+      <c r="P25" s="8"/>
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="7">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="D26" s="7">
+        <f ca="1"/>
+        <v>34</v>
+      </c>
+      <c r="E26">
+        <f ca="1"/>
+        <v>34</v>
+      </c>
+      <c r="F26">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="P26" s="8"/>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="7">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="D27" s="7">
+        <f ca="1"/>
+        <v>78</v>
+      </c>
+      <c r="E27">
+        <f ca="1"/>
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="P27" s="8"/>
+      <c r="S27" s="9"/>
+    </row>
+    <row r="28" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="D28" s="7">
+        <f ca="1"/>
+        <v>94</v>
+      </c>
+      <c r="E28">
+        <f ca="1"/>
+        <v>84</v>
+      </c>
+      <c r="F28">
+        <f ca="1"/>
+        <v>82</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="P29" s="8"/>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="P30" s="8"/>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="P31" s="9"/>
+      <c r="S31" s="9"/>
+    </row>
+    <row r="32" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="P32" s="9"/>
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="P33" s="9"/>
+      <c r="S33" s="9"/>
+    </row>
+    <row r="34" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="P34" s="9"/>
+      <c r="S34" s="9"/>
+    </row>
+    <row r="35" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="P35" s="9"/>
+      <c r="S35" s="9"/>
+    </row>
+    <row r="36" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="P36" s="9"/>
+      <c r="S36" s="9"/>
+    </row>
+    <row r="37" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="P37" s="9"/>
+      <c r="S37" s="9"/>
+    </row>
+    <row r="38" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="P38" s="9"/>
+      <c r="S38" s="9"/>
+    </row>
+    <row r="39" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="P39" s="9"/>
+      <c r="S39" s="9"/>
+    </row>
+    <row r="40" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="P40" s="9"/>
+      <c r="S40" s="9"/>
+    </row>
+    <row r="41" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="S41" s="9"/>
+    </row>
+    <row r="42" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="S42" s="9"/>
+    </row>
+    <row r="43" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="S43" s="9"/>
+    </row>
+    <row r="44" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="S44" s="9"/>
+    </row>
+    <row r="45" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="S45" s="9"/>
+    </row>
+    <row r="46" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="S46" s="9"/>
+    </row>
+    <row r="47" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="S47" s="9"/>
+    </row>
+    <row r="48" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="S48" s="9"/>
+    </row>
+    <row r="49" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="S49" s="9"/>
+    </row>
+    <row r="50" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="S50" s="9"/>
+    </row>
+    <row r="51" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="S51" s="9"/>
+    </row>
+    <row r="52" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="S52" s="9"/>
+    </row>
+    <row r="53" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="S53" s="9"/>
+    </row>
+    <row r="54" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="S54" s="9"/>
+    </row>
+    <row r="55" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="S55" s="9"/>
+    </row>
+    <row r="56" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="S56" s="9"/>
+    </row>
+    <row r="57" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="S57" s="9"/>
+    </row>
+    <row r="58" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="S58" s="9"/>
+    </row>
+    <row r="59" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="S59" s="9"/>
+    </row>
+    <row r="60" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="S60" s="9"/>
+    </row>
+    <row r="61" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="S61" s="9"/>
+    </row>
+    <row r="62" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="S62" s="9"/>
+    </row>
+    <row r="63" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="S63" s="9"/>
+    </row>
+    <row r="64" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="S64" s="9"/>
+    </row>
+    <row r="65" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="S65" s="9"/>
+    </row>
+    <row r="66" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="S66" s="9"/>
+    </row>
+    <row r="67" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="S67" s="9"/>
+    </row>
+    <row r="68" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="S68" s="9"/>
+    </row>
+    <row r="69" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="S69" s="9"/>
+    </row>
+    <row r="70" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="S70" s="9"/>
+    </row>
+    <row r="71" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="S71" s="9"/>
+    </row>
+    <row r="72" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="S72" s="9"/>
+    </row>
+    <row r="73" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="S73" s="9"/>
+    </row>
+    <row r="74" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="S74" s="9"/>
+    </row>
+    <row r="75" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="S75" s="9"/>
+    </row>
+    <row r="76" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+    </row>
+    <row r="128" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+    </row>
+    <row r="130" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+    </row>
+    <row r="131" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+    </row>
+    <row r="141" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+    </row>
+    <row r="142" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+    </row>
+    <row r="143" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+    </row>
+    <row r="145" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+    </row>
+    <row r="146" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+    </row>
+    <row r="147" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+    </row>
+    <row r="148" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+    </row>
+    <row r="149" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+    </row>
+    <row r="150" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+    </row>
+    <row r="151" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+    </row>
+    <row r="152" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+    </row>
+    <row r="153" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+    </row>
+    <row r="154" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+    </row>
+    <row r="155" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+    </row>
+    <row r="156" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+    </row>
+    <row r="157" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+    </row>
+    <row r="158" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+    </row>
+    <row r="159" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+    </row>
+    <row r="160" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+    </row>
+    <row r="161" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+    </row>
+    <row r="162" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+    </row>
+    <row r="163" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+    </row>
+    <row r="164" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+    </row>
+    <row r="165" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+    </row>
+    <row r="166" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+    </row>
+    <row r="167" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+    </row>
+    <row r="168" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+    </row>
+    <row r="169" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+    </row>
+    <row r="170" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+    </row>
+    <row r="171" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+    </row>
+    <row r="172" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+    </row>
+    <row r="173" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+    </row>
+    <row r="174" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+    </row>
+    <row r="175" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+    </row>
+    <row r="176" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+    </row>
+    <row r="177" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+    </row>
+    <row r="178" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+    </row>
+    <row r="179" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+    </row>
+    <row r="180" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+    </row>
+    <row r="181" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+    </row>
+    <row r="182" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+    </row>
+    <row r="183" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+    </row>
+    <row r="184" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+    </row>
+    <row r="185" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+    </row>
+    <row r="186" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+    </row>
+    <row r="187" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+    </row>
+    <row r="188" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+    </row>
+    <row r="189" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+    </row>
+    <row r="190" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+    </row>
+    <row r="191" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+    </row>
+    <row r="192" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+    </row>
+    <row r="193" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+    </row>
+    <row r="194" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+    </row>
+    <row r="195" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+    </row>
+    <row r="196" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+    </row>
+    <row r="197" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+    </row>
+    <row r="198" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+    </row>
+    <row r="199" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+    </row>
+    <row r="200" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+    </row>
+    <row r="201" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+    </row>
+    <row r="202" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+    </row>
+    <row r="203" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+    </row>
+    <row r="204" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+    </row>
+    <row r="205" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+    </row>
+    <row r="206" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+    </row>
+    <row r="207" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+    </row>
+    <row r="208" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+    </row>
+    <row r="209" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+    </row>
+    <row r="210" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+    </row>
+    <row r="211" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+    </row>
+    <row r="212" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
+    </row>
+    <row r="213" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+    </row>
+    <row r="214" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
+    </row>
+    <row r="215" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+    </row>
+    <row r="216" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+    </row>
+    <row r="217" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
+    </row>
+    <row r="218" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+    </row>
+    <row r="219" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C219" s="7"/>
+      <c r="D219" s="7"/>
+    </row>
+    <row r="220" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
+    </row>
+    <row r="221" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
+    </row>
+    <row r="222" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
+    </row>
+    <row r="223" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C223" s="7"/>
+      <c r="D223" s="7"/>
+    </row>
+    <row r="224" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C224" s="7"/>
+      <c r="D224" s="7"/>
+    </row>
+    <row r="225" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C225" s="7"/>
+      <c r="D225" s="7"/>
+    </row>
+    <row r="226" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C226" s="7"/>
+      <c r="D226" s="7"/>
+    </row>
+    <row r="227" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C227" s="7"/>
+      <c r="D227" s="7"/>
+    </row>
+    <row r="228" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C228" s="7"/>
+      <c r="D228" s="7"/>
+    </row>
+    <row r="229" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C229" s="7"/>
+      <c r="D229" s="7"/>
+    </row>
+    <row r="230" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C230" s="7"/>
+      <c r="D230" s="7"/>
+    </row>
+    <row r="231" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
+    </row>
+    <row r="232" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
+    </row>
+    <row r="233" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+    </row>
+    <row r="234" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C234" s="7"/>
+      <c r="D234" s="7"/>
+    </row>
+    <row r="235" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C235" s="7"/>
+      <c r="D235" s="7"/>
+    </row>
+    <row r="236" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
+    </row>
+    <row r="237" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C237" s="7"/>
+      <c r="D237" s="7"/>
+    </row>
+    <row r="238" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C238" s="7"/>
+      <c r="D238" s="7"/>
+    </row>
+    <row r="239" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C239" s="7"/>
+      <c r="D239" s="7"/>
+    </row>
+    <row r="240" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C240" s="7"/>
+      <c r="D240" s="7"/>
+    </row>
+    <row r="241" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+    </row>
+    <row r="242" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+    </row>
+    <row r="243" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+    </row>
+    <row r="244" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+    </row>
+    <row r="245" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+    </row>
+    <row r="246" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
+    </row>
+    <row r="247" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+    </row>
+    <row r="248" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+    </row>
+    <row r="249" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+    </row>
+    <row r="250" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+    </row>
+    <row r="251" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+    </row>
+    <row r="252" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C252" s="7"/>
+      <c r="D252" s="7"/>
+    </row>
+    <row r="253" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+    </row>
+    <row r="254" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+    </row>
+    <row r="255" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
+    </row>
+    <row r="256" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C256" s="7"/>
+      <c r="D256" s="7"/>
+    </row>
+    <row r="257" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C257" s="7"/>
+      <c r="D257" s="7"/>
+    </row>
+    <row r="258" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C258" s="7"/>
+      <c r="D258" s="7"/>
+    </row>
+    <row r="259" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C259" s="7"/>
+      <c r="D259" s="7"/>
+    </row>
+    <row r="260" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C260" s="7"/>
+      <c r="D260" s="7"/>
+    </row>
+    <row r="261" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C261" s="7"/>
+      <c r="D261" s="7"/>
+    </row>
+    <row r="262" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C262" s="7"/>
+      <c r="D262" s="7"/>
+    </row>
+    <row r="263" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C263" s="7"/>
+      <c r="D263" s="7"/>
+    </row>
+    <row r="264" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C264" s="7"/>
+      <c r="D264" s="7"/>
+    </row>
+    <row r="265" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C265" s="7"/>
+      <c r="D265" s="7"/>
+    </row>
+    <row r="266" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C266" s="7"/>
+      <c r="D266" s="7"/>
+    </row>
+    <row r="267" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C267" s="7"/>
+      <c r="D267" s="7"/>
+    </row>
+    <row r="268" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C268" s="7"/>
+      <c r="D268" s="7"/>
+    </row>
+    <row r="269" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C269" s="7"/>
+      <c r="D269" s="7"/>
+    </row>
+    <row r="270" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C270" s="7"/>
+      <c r="D270" s="7"/>
+    </row>
+    <row r="271" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C271" s="7"/>
+      <c r="D271" s="7"/>
+    </row>
+    <row r="272" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C272" s="7"/>
+      <c r="D272" s="7"/>
+    </row>
+    <row r="273" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C273" s="7"/>
+      <c r="D273" s="7"/>
+    </row>
+    <row r="274" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C274" s="7"/>
+      <c r="D274" s="7"/>
+    </row>
+    <row r="275" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C275" s="7"/>
+      <c r="D275" s="7"/>
+    </row>
+    <row r="276" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C276" s="7"/>
+      <c r="D276" s="7"/>
+    </row>
+    <row r="277" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C277" s="7"/>
+      <c r="D277" s="7"/>
+    </row>
+    <row r="278" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C278" s="7"/>
+      <c r="D278" s="7"/>
+    </row>
+    <row r="279" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C279" s="7"/>
+      <c r="D279" s="7"/>
+    </row>
+    <row r="280" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C280" s="7"/>
+      <c r="D280" s="7"/>
+    </row>
+    <row r="281" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C281" s="7"/>
+      <c r="D281" s="7"/>
+    </row>
+    <row r="282" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C282" s="7"/>
+      <c r="D282" s="7"/>
+    </row>
+    <row r="283" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C283" s="7"/>
+      <c r="D283" s="7"/>
+    </row>
+    <row r="284" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C284" s="7"/>
+      <c r="D284" s="7"/>
+    </row>
+    <row r="285" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C285" s="7"/>
+      <c r="D285" s="7"/>
+    </row>
+    <row r="286" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C286" s="7"/>
+      <c r="D286" s="7"/>
+    </row>
+    <row r="287" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C287" s="7"/>
+      <c r="D287" s="7"/>
+    </row>
+    <row r="288" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C288" s="7"/>
+      <c r="D288" s="7"/>
+    </row>
+    <row r="289" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C289" s="7"/>
+      <c r="D289" s="7"/>
+    </row>
+    <row r="290" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C290" s="7"/>
+      <c r="D290" s="7"/>
+    </row>
+    <row r="291" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C291" s="7"/>
+      <c r="D291" s="7"/>
+    </row>
+    <row r="292" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C292" s="7"/>
+      <c r="D292" s="7"/>
+    </row>
+    <row r="293" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C293" s="7"/>
+      <c r="D293" s="7"/>
+    </row>
+    <row r="294" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C294" s="7"/>
+      <c r="D294" s="7"/>
+    </row>
+    <row r="295" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C295" s="7"/>
+      <c r="D295" s="7"/>
+    </row>
+    <row r="296" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C296" s="7"/>
+      <c r="D296" s="7"/>
+    </row>
+    <row r="297" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C297" s="7"/>
+      <c r="D297" s="7"/>
+    </row>
+    <row r="298" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C298" s="7"/>
+      <c r="D298" s="7"/>
+    </row>
+    <row r="299" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C299" s="7"/>
+      <c r="D299" s="7"/>
+    </row>
+    <row r="300" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C300" s="7"/>
+      <c r="D300" s="7"/>
+    </row>
+    <row r="301" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C301" s="7"/>
+      <c r="D301" s="7"/>
+    </row>
+    <row r="302" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C302" s="7"/>
+      <c r="D302" s="7"/>
+    </row>
+    <row r="303" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C303" s="7"/>
+      <c r="D303" s="7"/>
+    </row>
+    <row r="304" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C304" s="7"/>
+      <c r="D304" s="7"/>
+    </row>
+    <row r="305" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C305" s="7"/>
+      <c r="D305" s="7"/>
+    </row>
+    <row r="306" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C306" s="7"/>
+      <c r="D306" s="7"/>
+    </row>
+    <row r="307" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C307" s="7"/>
+      <c r="D307" s="7"/>
+    </row>
+    <row r="308" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C308" s="7"/>
+      <c r="D308" s="7"/>
+    </row>
+    <row r="309" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C309" s="7"/>
+      <c r="D309" s="7"/>
+    </row>
+    <row r="310" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C310" s="7"/>
+      <c r="D310" s="7"/>
+    </row>
+    <row r="311" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C311" s="7"/>
+      <c r="D311" s="7"/>
+    </row>
+    <row r="312" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C312" s="7"/>
+      <c r="D312" s="7"/>
+    </row>
+    <row r="313" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C313" s="7"/>
+      <c r="D313" s="7"/>
+    </row>
+    <row r="314" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C314" s="7"/>
+      <c r="D314" s="7"/>
+    </row>
+    <row r="315" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C315" s="7"/>
+      <c r="D315" s="7"/>
+    </row>
+    <row r="316" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C316" s="7"/>
+      <c r="D316" s="7"/>
+    </row>
+    <row r="317" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C317" s="7"/>
+      <c r="D317" s="7"/>
+    </row>
+    <row r="318" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C318" s="7"/>
+      <c r="D318" s="7"/>
+    </row>
+    <row r="319" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C319" s="7"/>
+      <c r="D319" s="7"/>
+    </row>
+    <row r="320" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C320" s="7"/>
+      <c r="D320" s="7"/>
+    </row>
+    <row r="321" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C321" s="7"/>
+      <c r="D321" s="7"/>
+    </row>
+    <row r="322" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C322" s="7"/>
+      <c r="D322" s="7"/>
+    </row>
+    <row r="323" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C323" s="7"/>
+      <c r="D323" s="7"/>
+    </row>
+    <row r="324" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C324" s="7"/>
+      <c r="D324" s="7"/>
+    </row>
+    <row r="325" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C325" s="7"/>
+      <c r="D325" s="7"/>
+    </row>
+    <row r="326" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C326" s="7"/>
+      <c r="D326" s="7"/>
+    </row>
+    <row r="327" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C327" s="7"/>
+      <c r="D327" s="7"/>
+    </row>
+    <row r="328" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C328" s="7"/>
+      <c r="D328" s="7"/>
+    </row>
+    <row r="329" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C329" s="7"/>
+      <c r="D329" s="7"/>
+    </row>
+    <row r="330" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C330" s="7"/>
+      <c r="D330" s="7"/>
+    </row>
+    <row r="331" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C331" s="7"/>
+      <c r="D331" s="7"/>
+    </row>
+    <row r="332" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C332" s="7"/>
+      <c r="D332" s="7"/>
+    </row>
+    <row r="333" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C333" s="7"/>
+      <c r="D333" s="7"/>
+    </row>
+    <row r="334" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C334" s="7"/>
+      <c r="D334" s="7"/>
+    </row>
+    <row r="335" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C335" s="7"/>
+      <c r="D335" s="7"/>
+    </row>
+    <row r="336" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C336" s="7"/>
+      <c r="D336" s="7"/>
+    </row>
+    <row r="337" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C337" s="7"/>
+      <c r="D337" s="7"/>
+    </row>
+    <row r="338" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C338" s="7"/>
+      <c r="D338" s="7"/>
+    </row>
+    <row r="339" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C339" s="7"/>
+      <c r="D339" s="7"/>
+    </row>
+    <row r="340" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C340" s="7"/>
+      <c r="D340" s="7"/>
+    </row>
+    <row r="341" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C341" s="7"/>
+      <c r="D341" s="7"/>
+    </row>
+    <row r="342" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C342" s="7"/>
+      <c r="D342" s="7"/>
+    </row>
+    <row r="343" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C343" s="7"/>
+      <c r="D343" s="7"/>
+    </row>
+    <row r="344" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C344" s="7"/>
+      <c r="D344" s="7"/>
+    </row>
+    <row r="345" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C345" s="7"/>
+      <c r="D345" s="7"/>
+    </row>
+    <row r="346" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C346" s="7"/>
+      <c r="D346" s="7"/>
+    </row>
+    <row r="347" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C347" s="7"/>
+      <c r="D347" s="7"/>
+    </row>
+    <row r="348" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C348" s="7"/>
+      <c r="D348" s="7"/>
+    </row>
+    <row r="349" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C349" s="7"/>
+      <c r="D349" s="7"/>
+    </row>
+    <row r="350" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C350" s="7"/>
+      <c r="D350" s="7"/>
+    </row>
+    <row r="351" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C351" s="7"/>
+      <c r="D351" s="7"/>
+    </row>
+    <row r="352" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C352" s="7"/>
+      <c r="D352" s="7"/>
+    </row>
+    <row r="353" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C353" s="7"/>
+      <c r="D353" s="7"/>
+    </row>
+    <row r="354" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C354" s="7"/>
+      <c r="D354" s="7"/>
+    </row>
+    <row r="355" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C355" s="7"/>
+      <c r="D355" s="7"/>
+    </row>
+    <row r="356" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C356" s="7"/>
+      <c r="D356" s="7"/>
+    </row>
+    <row r="357" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C357" s="7"/>
+      <c r="D357" s="7"/>
+    </row>
+    <row r="358" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C358" s="7"/>
+      <c r="D358" s="7"/>
+    </row>
+    <row r="359" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C359" s="7"/>
+      <c r="D359" s="7"/>
+    </row>
+    <row r="360" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C360" s="7"/>
+      <c r="D360" s="7"/>
+    </row>
+    <row r="361" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C361" s="7"/>
+      <c r="D361" s="7"/>
+    </row>
+    <row r="362" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C362" s="7"/>
+      <c r="D362" s="7"/>
+    </row>
+    <row r="363" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C363" s="7"/>
+      <c r="D363" s="7"/>
+    </row>
+    <row r="364" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C364" s="7"/>
+      <c r="D364" s="7"/>
+    </row>
+    <row r="365" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C365" s="7"/>
+      <c r="D365" s="7"/>
+    </row>
+    <row r="366" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C366" s="7"/>
+      <c r="D366" s="7"/>
+    </row>
+    <row r="367" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C367" s="7"/>
+      <c r="D367" s="7"/>
+    </row>
+    <row r="368" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C368" s="7"/>
+      <c r="D368" s="7"/>
+    </row>
+    <row r="369" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C369" s="7"/>
+      <c r="D369" s="7"/>
+    </row>
+    <row r="370" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C370" s="7"/>
+      <c r="D370" s="7"/>
+    </row>
+    <row r="371" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C371" s="7"/>
+      <c r="D371" s="7"/>
+    </row>
+    <row r="372" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C372" s="7"/>
+      <c r="D372" s="7"/>
+    </row>
+    <row r="373" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C373" s="7"/>
+      <c r="D373" s="7"/>
+    </row>
+    <row r="374" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C374" s="7"/>
+      <c r="D374" s="7"/>
+    </row>
+    <row r="375" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C375" s="7"/>
+      <c r="D375" s="7"/>
+    </row>
+    <row r="376" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C376" s="7"/>
+      <c r="D376" s="7"/>
+    </row>
+    <row r="377" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C377" s="7"/>
+      <c r="D377" s="7"/>
+    </row>
+    <row r="378" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C378" s="7"/>
+      <c r="D378" s="7"/>
+    </row>
+    <row r="379" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C379" s="7"/>
+      <c r="D379" s="7"/>
+    </row>
+    <row r="380" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C380" s="7"/>
+      <c r="D380" s="7"/>
+    </row>
+    <row r="381" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C381" s="7"/>
+      <c r="D381" s="7"/>
+    </row>
+    <row r="382" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C382" s="7"/>
+      <c r="D382" s="7"/>
+    </row>
+    <row r="383" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C383" s="7"/>
+      <c r="D383" s="7"/>
+    </row>
+    <row r="384" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C384" s="7"/>
+      <c r="D384" s="7"/>
+    </row>
+    <row r="385" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C385" s="7"/>
+      <c r="D385" s="7"/>
+    </row>
+    <row r="386" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C386" s="7"/>
+      <c r="D386" s="7"/>
+    </row>
+    <row r="387" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C387" s="7"/>
+      <c r="D387" s="7"/>
+    </row>
+    <row r="388" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C388" s="7"/>
+      <c r="D388" s="7"/>
+    </row>
+    <row r="389" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C389" s="7"/>
+      <c r="D389" s="7"/>
+    </row>
+    <row r="390" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C390" s="7"/>
+      <c r="D390" s="7"/>
+    </row>
+    <row r="391" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C391" s="7"/>
+      <c r="D391" s="7"/>
+    </row>
+    <row r="392" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C392" s="7"/>
+      <c r="D392" s="7"/>
+    </row>
+    <row r="393" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C393" s="7"/>
+      <c r="D393" s="7"/>
+    </row>
+    <row r="394" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C394" s="7"/>
+      <c r="D394" s="7"/>
+    </row>
+    <row r="395" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C395" s="7"/>
+      <c r="D395" s="7"/>
+    </row>
+    <row r="396" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C396" s="7"/>
+      <c r="D396" s="7"/>
+    </row>
+    <row r="397" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C397" s="7"/>
+      <c r="D397" s="7"/>
+    </row>
+    <row r="398" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C398" s="7"/>
+      <c r="D398" s="7"/>
+    </row>
+    <row r="399" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C399" s="7"/>
+      <c r="D399" s="7"/>
+    </row>
+    <row r="400" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C400" s="7"/>
+      <c r="D400" s="7"/>
+    </row>
+    <row r="401" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C401" s="7"/>
+      <c r="D401" s="7"/>
+    </row>
+    <row r="402" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C402" s="7"/>
+      <c r="D402" s="7"/>
+    </row>
+    <row r="403" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C403" s="7"/>
+      <c r="D403" s="7"/>
+    </row>
+    <row r="404" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C404" s="7"/>
+      <c r="D404" s="7"/>
+    </row>
+    <row r="405" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C405" s="7"/>
+      <c r="D405" s="7"/>
+    </row>
+    <row r="406" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C406" s="7"/>
+      <c r="D406" s="7"/>
+    </row>
+    <row r="407" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C407" s="7"/>
+      <c r="D407" s="7"/>
+    </row>
+    <row r="408" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C408" s="7"/>
+      <c r="D408" s="7"/>
+    </row>
+    <row r="409" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C409" s="7"/>
+      <c r="D409" s="7"/>
+    </row>
+    <row r="410" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C410" s="7"/>
+      <c r="D410" s="7"/>
+    </row>
+    <row r="411" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C411" s="7"/>
+      <c r="D411" s="7"/>
+    </row>
+    <row r="412" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C412" s="7"/>
+      <c r="D412" s="7"/>
+    </row>
+    <row r="413" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C413" s="7"/>
+      <c r="D413" s="7"/>
+    </row>
+    <row r="414" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C414" s="7"/>
+      <c r="D414" s="7"/>
+    </row>
+    <row r="415" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C415" s="7"/>
+      <c r="D415" s="7"/>
+    </row>
+    <row r="416" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C416" s="7"/>
+      <c r="D416" s="7"/>
+    </row>
+    <row r="417" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C417" s="7"/>
+      <c r="D417" s="7"/>
+    </row>
+    <row r="418" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C418" s="7"/>
+      <c r="D418" s="7"/>
+    </row>
+    <row r="419" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C419" s="7"/>
+      <c r="D419" s="7"/>
+    </row>
+    <row r="420" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C420" s="7"/>
+      <c r="D420" s="7"/>
+    </row>
+    <row r="421" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C421" s="7"/>
+      <c r="D421" s="7"/>
+    </row>
+    <row r="422" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C422" s="7"/>
+      <c r="D422" s="7"/>
+    </row>
+    <row r="423" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C423" s="7"/>
+      <c r="D423" s="7"/>
+    </row>
+    <row r="424" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C424" s="7"/>
+      <c r="D424" s="7"/>
+    </row>
+    <row r="425" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C425" s="7"/>
+      <c r="D425" s="7"/>
+    </row>
+    <row r="426" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C426" s="7"/>
+      <c r="D426" s="7"/>
+    </row>
+    <row r="427" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C427" s="7"/>
+      <c r="D427" s="7"/>
+    </row>
+    <row r="428" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C428" s="7"/>
+      <c r="D428" s="7"/>
+    </row>
+    <row r="429" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C429" s="7"/>
+      <c r="D429" s="7"/>
+    </row>
+    <row r="430" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C430" s="7"/>
+      <c r="D430" s="7"/>
+    </row>
+    <row r="431" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C431" s="7"/>
+      <c r="D431" s="7"/>
+    </row>
+    <row r="432" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C432" s="7"/>
+      <c r="D432" s="7"/>
+    </row>
+    <row r="433" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C433" s="7"/>
+      <c r="D433" s="7"/>
+    </row>
+    <row r="434" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C434" s="7"/>
+      <c r="D434" s="7"/>
+    </row>
+    <row r="435" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C435" s="7"/>
+      <c r="D435" s="7"/>
+    </row>
+    <row r="436" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C436" s="7"/>
+      <c r="D436" s="7"/>
+    </row>
+    <row r="437" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C437" s="7"/>
+      <c r="D437" s="7"/>
+    </row>
+    <row r="438" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C438" s="7"/>
+      <c r="D438" s="7"/>
+    </row>
+    <row r="439" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C439" s="7"/>
+      <c r="D439" s="7"/>
+    </row>
+    <row r="440" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C440" s="7"/>
+      <c r="D440" s="7"/>
+    </row>
+    <row r="441" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C441" s="7"/>
+      <c r="D441" s="7"/>
+    </row>
+    <row r="442" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C442" s="7"/>
+      <c r="D442" s="7"/>
+    </row>
+    <row r="443" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C443" s="7"/>
+      <c r="D443" s="7"/>
+    </row>
+    <row r="444" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C444" s="7"/>
+      <c r="D444" s="7"/>
+    </row>
+    <row r="445" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C445" s="7"/>
+      <c r="D445" s="7"/>
+    </row>
+    <row r="446" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C446" s="7"/>
+      <c r="D446" s="7"/>
+    </row>
+    <row r="447" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C447" s="7"/>
+      <c r="D447" s="7"/>
+    </row>
+    <row r="448" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C448" s="7"/>
+      <c r="D448" s="7"/>
+    </row>
+    <row r="449" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C449" s="7"/>
+      <c r="D449" s="7"/>
+    </row>
+    <row r="450" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C450" s="7"/>
+      <c r="D450" s="7"/>
+    </row>
+    <row r="451" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C451" s="7"/>
+      <c r="D451" s="7"/>
+    </row>
+    <row r="452" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C452" s="7"/>
+      <c r="D452" s="7"/>
+    </row>
+    <row r="453" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C453" s="7"/>
+      <c r="D453" s="7"/>
+    </row>
+    <row r="454" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C454" s="7"/>
+      <c r="D454" s="7"/>
+    </row>
+    <row r="455" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C455" s="7"/>
+      <c r="D455" s="7"/>
+    </row>
+    <row r="456" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C456" s="7"/>
+      <c r="D456" s="7"/>
+    </row>
+    <row r="457" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C457" s="7"/>
+      <c r="D457" s="7"/>
+    </row>
+    <row r="458" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C458" s="7"/>
+      <c r="D458" s="7"/>
+    </row>
+    <row r="459" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C459" s="7"/>
+      <c r="D459" s="7"/>
+    </row>
+    <row r="460" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C460" s="7"/>
+      <c r="D460" s="7"/>
+    </row>
+    <row r="461" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C461" s="7"/>
+      <c r="D461" s="7"/>
+    </row>
+    <row r="462" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C462" s="7"/>
+      <c r="D462" s="7"/>
+    </row>
+    <row r="463" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C463" s="7"/>
+      <c r="D463" s="7"/>
+    </row>
+    <row r="464" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C464" s="7"/>
+      <c r="D464" s="7"/>
+    </row>
+    <row r="465" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C465" s="7"/>
+      <c r="D465" s="7"/>
+    </row>
+    <row r="466" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C466" s="7"/>
+      <c r="D466" s="7"/>
+    </row>
+    <row r="467" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C467" s="7"/>
+      <c r="D467" s="7"/>
+    </row>
+    <row r="468" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C468" s="7"/>
+      <c r="D468" s="7"/>
+    </row>
+    <row r="469" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C469" s="7"/>
+      <c r="D469" s="7"/>
+    </row>
+    <row r="470" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C470" s="7"/>
+      <c r="D470" s="7"/>
+    </row>
+    <row r="471" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C471" s="7"/>
+      <c r="D471" s="7"/>
+    </row>
+    <row r="472" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C472" s="7"/>
+      <c r="D472" s="7"/>
+    </row>
+    <row r="473" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C473" s="7"/>
+      <c r="D473" s="7"/>
+    </row>
+    <row r="474" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C474" s="7"/>
+      <c r="D474" s="7"/>
+    </row>
+    <row r="475" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C475" s="7"/>
+      <c r="D475" s="7"/>
+    </row>
+    <row r="476" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C476" s="7"/>
+      <c r="D476" s="7"/>
+    </row>
+    <row r="477" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C477" s="7"/>
+      <c r="D477" s="7"/>
+    </row>
+    <row r="478" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C478" s="7"/>
+      <c r="D478" s="7"/>
+    </row>
+    <row r="479" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C479" s="7"/>
+      <c r="D479" s="7"/>
+    </row>
+    <row r="480" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C480" s="7"/>
+      <c r="D480" s="7"/>
+    </row>
+    <row r="481" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C481" s="7"/>
+      <c r="D481" s="7"/>
+    </row>
+    <row r="482" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C482" s="7"/>
+      <c r="D482" s="7"/>
+    </row>
+    <row r="483" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C483" s="7"/>
+      <c r="D483" s="7"/>
+    </row>
+    <row r="484" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C484" s="7"/>
+      <c r="D484" s="7"/>
+    </row>
+    <row r="485" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C485" s="7"/>
+      <c r="D485" s="7"/>
+    </row>
+    <row r="486" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C486" s="7"/>
+      <c r="D486" s="7"/>
+    </row>
+    <row r="487" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C487" s="7"/>
+      <c r="D487" s="7"/>
+    </row>
+    <row r="488" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C488" s="7"/>
+      <c r="D488" s="7"/>
+    </row>
+    <row r="489" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C489" s="7"/>
+      <c r="D489" s="7"/>
+    </row>
+    <row r="490" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C490" s="7"/>
+      <c r="D490" s="7"/>
+    </row>
+    <row r="491" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C491" s="7"/>
+      <c r="D491" s="7"/>
+    </row>
+    <row r="492" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C492" s="7"/>
+      <c r="D492" s="7"/>
+    </row>
+    <row r="493" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C493" s="7"/>
+      <c r="D493" s="7"/>
+    </row>
+    <row r="494" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C494" s="7"/>
+      <c r="D494" s="7"/>
+    </row>
+    <row r="495" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C495" s="7"/>
+      <c r="D495" s="7"/>
+    </row>
+    <row r="496" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C496" s="7"/>
+      <c r="D496" s="7"/>
+    </row>
+    <row r="497" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C497" s="7"/>
+      <c r="D497" s="7"/>
+    </row>
+    <row r="498" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C498" s="7"/>
+      <c r="D498" s="7"/>
+    </row>
+    <row r="499" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C499" s="7"/>
+      <c r="D499" s="7"/>
+    </row>
+    <row r="500" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C500" s="7"/>
+      <c r="D500" s="7"/>
+    </row>
+    <row r="501" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C501" s="7"/>
+      <c r="D501" s="7"/>
+    </row>
+    <row r="502" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C502" s="7"/>
+      <c r="D502" s="7"/>
+    </row>
+    <row r="503" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C503" s="7"/>
+      <c r="D503" s="7"/>
+    </row>
+    <row r="504" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C504" s="7"/>
+      <c r="D504" s="7"/>
+    </row>
+    <row r="505" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C505" s="7"/>
+      <c r="D505" s="7"/>
+    </row>
+    <row r="506" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C506" s="7"/>
+      <c r="D506" s="7"/>
+    </row>
+    <row r="507" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C507" s="7"/>
+      <c r="D507" s="7"/>
+    </row>
+    <row r="508" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C508" s="7"/>
+      <c r="D508" s="7"/>
+    </row>
+    <row r="509" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C509" s="7"/>
+      <c r="D509" s="7"/>
+    </row>
+    <row r="510" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C510" s="7"/>
+      <c r="D510" s="7"/>
+    </row>
+    <row r="511" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C511" s="7"/>
+      <c r="D511" s="7"/>
+    </row>
+    <row r="512" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C512" s="7"/>
+      <c r="D512" s="7"/>
+    </row>
+    <row r="513" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C513" s="7"/>
+      <c r="D513" s="7"/>
+    </row>
+    <row r="514" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C514" s="7"/>
+      <c r="D514" s="7"/>
+    </row>
+    <row r="515" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C515" s="7"/>
+      <c r="D515" s="7"/>
+    </row>
+    <row r="516" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C516" s="7"/>
+      <c r="D516" s="7"/>
+    </row>
+    <row r="517" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C517" s="7"/>
+      <c r="D517" s="7"/>
+    </row>
+    <row r="518" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C518" s="7"/>
+      <c r="D518" s="7"/>
+    </row>
+    <row r="519" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C519" s="7"/>
+      <c r="D519" s="7"/>
+    </row>
+    <row r="520" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C520" s="7"/>
+      <c r="D520" s="7"/>
+    </row>
+    <row r="521" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C521" s="7"/>
+      <c r="D521" s="7"/>
+    </row>
+    <row r="522" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C522" s="7"/>
+      <c r="D522" s="7"/>
+    </row>
+    <row r="523" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C523" s="7"/>
+      <c r="D523" s="7"/>
+    </row>
+    <row r="524" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C524" s="7"/>
+      <c r="D524" s="7"/>
+    </row>
+    <row r="525" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C525" s="7"/>
+      <c r="D525" s="7"/>
+    </row>
+    <row r="526" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C526" s="7"/>
+      <c r="D526" s="7"/>
+    </row>
+    <row r="527" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C527" s="7"/>
+      <c r="D527" s="7"/>
+    </row>
+    <row r="528" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C528" s="7"/>
+      <c r="D528" s="7"/>
+    </row>
+    <row r="529" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C529" s="7"/>
+      <c r="D529" s="7"/>
+    </row>
+    <row r="530" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C530" s="7"/>
+      <c r="D530" s="7"/>
+    </row>
+    <row r="531" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C531" s="7"/>
+      <c r="D531" s="7"/>
+    </row>
+    <row r="532" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C532" s="7"/>
+      <c r="D532" s="7"/>
+    </row>
+    <row r="533" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C533" s="7"/>
+      <c r="D533" s="7"/>
+    </row>
+    <row r="534" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C534" s="7"/>
+      <c r="D534" s="7"/>
+    </row>
+    <row r="535" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C535" s="7"/>
+      <c r="D535" s="7"/>
+    </row>
+    <row r="536" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C536" s="7"/>
+      <c r="D536" s="7"/>
+    </row>
+    <row r="537" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C537" s="7"/>
+      <c r="D537" s="7"/>
+    </row>
+    <row r="538" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C538" s="7"/>
+      <c r="D538" s="7"/>
+    </row>
+    <row r="539" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C539" s="7"/>
+      <c r="D539" s="7"/>
+    </row>
+    <row r="540" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C540" s="7"/>
+      <c r="D540" s="7"/>
+    </row>
+    <row r="541" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C541" s="7"/>
+      <c r="D541" s="7"/>
+    </row>
+    <row r="542" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C542" s="7"/>
+      <c r="D542" s="7"/>
+    </row>
+    <row r="543" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C543" s="7"/>
+      <c r="D543" s="7"/>
+    </row>
+    <row r="544" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C544" s="7"/>
+      <c r="D544" s="7"/>
+    </row>
+    <row r="545" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C545" s="7"/>
+      <c r="D545" s="7"/>
+    </row>
+    <row r="546" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C546" s="7"/>
+      <c r="D546" s="7"/>
+    </row>
+    <row r="547" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C547" s="7"/>
+      <c r="D547" s="7"/>
+    </row>
+    <row r="548" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C548" s="7"/>
+      <c r="D548" s="7"/>
+    </row>
+    <row r="549" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C549" s="7"/>
+      <c r="D549" s="7"/>
+    </row>
+    <row r="550" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C550" s="7"/>
+      <c r="D550" s="7"/>
+    </row>
+    <row r="551" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C551" s="7"/>
+      <c r="D551" s="7"/>
+    </row>
+    <row r="552" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C552" s="7"/>
+      <c r="D552" s="7"/>
+    </row>
+    <row r="553" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C553" s="7"/>
+      <c r="D553" s="7"/>
+    </row>
+    <row r="554" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C554" s="7"/>
+      <c r="D554" s="7"/>
+    </row>
+    <row r="555" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C555" s="7"/>
+      <c r="D555" s="7"/>
+    </row>
+    <row r="556" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C556" s="7"/>
+      <c r="D556" s="7"/>
+    </row>
+    <row r="557" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C557" s="7"/>
+      <c r="D557" s="7"/>
+    </row>
+    <row r="558" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C558" s="7"/>
+      <c r="D558" s="7"/>
+    </row>
+    <row r="559" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C559" s="7"/>
+      <c r="D559" s="7"/>
+    </row>
+    <row r="560" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C560" s="7"/>
+      <c r="D560" s="7"/>
+    </row>
+    <row r="561" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C561" s="7"/>
+      <c r="D561" s="7"/>
+    </row>
+    <row r="562" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C562" s="7"/>
+      <c r="D562" s="7"/>
+    </row>
+    <row r="563" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C563" s="7"/>
+      <c r="D563" s="7"/>
+    </row>
+    <row r="564" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C564" s="7"/>
+      <c r="D564" s="7"/>
+    </row>
+    <row r="565" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C565" s="7"/>
+      <c r="D565" s="7"/>
+    </row>
+    <row r="566" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C566" s="7"/>
+      <c r="D566" s="7"/>
+    </row>
+    <row r="567" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C567" s="7"/>
+      <c r="D567" s="7"/>
+    </row>
+    <row r="568" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C568" s="7"/>
+      <c r="D568" s="7"/>
+    </row>
+    <row r="569" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C569" s="7"/>
+      <c r="D569" s="7"/>
+    </row>
+    <row r="570" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C570" s="7"/>
+      <c r="D570" s="7"/>
+    </row>
+    <row r="571" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C571" s="7"/>
+      <c r="D571" s="7"/>
+    </row>
+    <row r="572" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C572" s="7"/>
+      <c r="D572" s="7"/>
+    </row>
+    <row r="573" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C573" s="7"/>
+      <c r="D573" s="7"/>
+    </row>
+    <row r="574" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C574" s="7"/>
+      <c r="D574" s="7"/>
+    </row>
+    <row r="575" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C575" s="7"/>
+      <c r="D575" s="7"/>
+    </row>
+    <row r="576" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C576" s="7"/>
+      <c r="D576" s="7"/>
+    </row>
+    <row r="577" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C577" s="7"/>
+      <c r="D577" s="7"/>
+    </row>
+    <row r="578" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C578" s="7"/>
+      <c r="D578" s="7"/>
+    </row>
+    <row r="579" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C579" s="7"/>
+      <c r="D579" s="7"/>
+    </row>
+    <row r="580" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C580" s="7"/>
+      <c r="D580" s="7"/>
+    </row>
+    <row r="581" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C581" s="7"/>
+      <c r="D581" s="7"/>
+    </row>
+    <row r="582" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C582" s="7"/>
+      <c r="D582" s="7"/>
+    </row>
+    <row r="583" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C583" s="7"/>
+      <c r="D583" s="7"/>
+    </row>
+    <row r="584" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C584" s="7"/>
+      <c r="D584" s="7"/>
+    </row>
+    <row r="585" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C585" s="7"/>
+      <c r="D585" s="7"/>
+    </row>
+    <row r="586" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C586" s="7"/>
+      <c r="D586" s="7"/>
+    </row>
+    <row r="587" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C587" s="7"/>
+      <c r="D587" s="7"/>
+    </row>
+    <row r="588" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C588" s="7"/>
+      <c r="D588" s="7"/>
+    </row>
+    <row r="589" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C589" s="7"/>
+      <c r="D589" s="7"/>
+    </row>
+    <row r="590" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C590" s="7"/>
+      <c r="D590" s="7"/>
+    </row>
+    <row r="591" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C591" s="7"/>
+      <c r="D591" s="7"/>
+    </row>
+    <row r="592" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C592" s="7"/>
+      <c r="D592" s="7"/>
+    </row>
+    <row r="593" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C593" s="7"/>
+      <c r="D593" s="7"/>
+    </row>
+    <row r="594" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C594" s="7"/>
+      <c r="D594" s="7"/>
+    </row>
+    <row r="595" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C595" s="7"/>
+      <c r="D595" s="7"/>
+    </row>
+    <row r="596" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C596" s="7"/>
+      <c r="D596" s="7"/>
+    </row>
+    <row r="597" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C597" s="7"/>
+      <c r="D597" s="7"/>
+    </row>
+    <row r="598" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C598" s="7"/>
+      <c r="D598" s="7"/>
+    </row>
+    <row r="599" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C599" s="7"/>
+      <c r="D599" s="7"/>
+    </row>
+    <row r="600" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C600" s="7"/>
+      <c r="D600" s="7"/>
+    </row>
+    <row r="601" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C601" s="7"/>
+      <c r="D601" s="7"/>
+    </row>
+    <row r="602" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C602" s="7"/>
+      <c r="D602" s="7"/>
+    </row>
+    <row r="603" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C603" s="7"/>
+      <c r="D603" s="7"/>
+    </row>
+    <row r="604" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C604" s="7"/>
+      <c r="D604" s="7"/>
+    </row>
+    <row r="605" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C605" s="7"/>
+      <c r="D605" s="7"/>
+    </row>
+    <row r="606" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C606" s="7"/>
+      <c r="D606" s="7"/>
+    </row>
+    <row r="607" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C607" s="7"/>
+      <c r="D607" s="7"/>
+    </row>
+    <row r="608" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C608" s="7"/>
+      <c r="D608" s="7"/>
+    </row>
+    <row r="609" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C609" s="7"/>
+      <c r="D609" s="7"/>
+    </row>
+    <row r="610" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C610" s="7"/>
+      <c r="D610" s="7"/>
+    </row>
+    <row r="611" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C611" s="7"/>
+      <c r="D611" s="7"/>
+    </row>
+    <row r="612" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C612" s="7"/>
+      <c r="D612" s="7"/>
+    </row>
+    <row r="613" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C613" s="7"/>
+      <c r="D613" s="7"/>
+    </row>
+    <row r="614" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C614" s="7"/>
+      <c r="D614" s="7"/>
+    </row>
+    <row r="615" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C615" s="7"/>
+      <c r="D615" s="7"/>
+    </row>
+    <row r="616" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C616" s="7"/>
+      <c r="D616" s="7"/>
+    </row>
+    <row r="617" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C617" s="7"/>
+      <c r="D617" s="7"/>
+    </row>
+    <row r="618" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C618" s="7"/>
+      <c r="D618" s="7"/>
+    </row>
+    <row r="619" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C619" s="7"/>
+      <c r="D619" s="7"/>
+    </row>
+    <row r="620" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C620" s="7"/>
+      <c r="D620" s="7"/>
+    </row>
+    <row r="621" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C621" s="7"/>
+      <c r="D621" s="7"/>
+    </row>
+    <row r="622" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C622" s="7"/>
+      <c r="D622" s="7"/>
+    </row>
+    <row r="623" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C623" s="7"/>
+      <c r="D623" s="7"/>
+    </row>
+    <row r="624" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C624" s="7"/>
+      <c r="D624" s="7"/>
+    </row>
+    <row r="625" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C625" s="7"/>
+      <c r="D625" s="7"/>
+    </row>
+    <row r="626" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C626" s="7"/>
+      <c r="D626" s="7"/>
+    </row>
+    <row r="627" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C627" s="7"/>
+      <c r="D627" s="7"/>
+    </row>
+    <row r="628" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C628" s="7"/>
+      <c r="D628" s="7"/>
+    </row>
+    <row r="629" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C629" s="7"/>
+      <c r="D629" s="7"/>
+    </row>
+    <row r="630" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C630" s="7"/>
+      <c r="D630" s="7"/>
+    </row>
+    <row r="631" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C631" s="7"/>
+      <c r="D631" s="7"/>
+    </row>
+    <row r="632" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C632" s="7"/>
+      <c r="D632" s="7"/>
+    </row>
+    <row r="633" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C633" s="7"/>
+      <c r="D633" s="7"/>
+    </row>
+    <row r="634" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C634" s="7"/>
+      <c r="D634" s="7"/>
+    </row>
+    <row r="635" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C635" s="7"/>
+      <c r="D635" s="7"/>
+    </row>
+    <row r="636" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C636" s="7"/>
+      <c r="D636" s="7"/>
+    </row>
+    <row r="637" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C637" s="7"/>
+      <c r="D637" s="7"/>
+    </row>
+    <row r="638" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C638" s="7"/>
+      <c r="D638" s="7"/>
+    </row>
+    <row r="639" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C639" s="7"/>
+      <c r="D639" s="7"/>
+    </row>
+    <row r="640" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C640" s="7"/>
+      <c r="D640" s="7"/>
+    </row>
+    <row r="641" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C641" s="7"/>
+      <c r="D641" s="7"/>
+    </row>
+    <row r="642" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C642" s="7"/>
+      <c r="D642" s="7"/>
+    </row>
+    <row r="643" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C643" s="7"/>
+      <c r="D643" s="7"/>
+    </row>
+    <row r="644" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C644" s="7"/>
+      <c r="D644" s="7"/>
+    </row>
+    <row r="645" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C645" s="7"/>
+      <c r="D645" s="7"/>
+    </row>
+    <row r="646" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C646" s="7"/>
+      <c r="D646" s="7"/>
+    </row>
+    <row r="647" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C647" s="7"/>
+      <c r="D647" s="7"/>
+    </row>
+    <row r="648" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C648" s="7"/>
+      <c r="D648" s="7"/>
+    </row>
+    <row r="649" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C649" s="7"/>
+      <c r="D649" s="7"/>
+    </row>
+    <row r="650" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C650" s="7"/>
+      <c r="D650" s="7"/>
+    </row>
+    <row r="651" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C651" s="7"/>
+      <c r="D651" s="7"/>
+    </row>
+    <row r="652" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C652" s="7"/>
+      <c r="D652" s="7"/>
+    </row>
+    <row r="653" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C653" s="7"/>
+      <c r="D653" s="7"/>
+    </row>
+    <row r="654" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C654" s="7"/>
+      <c r="D654" s="7"/>
+    </row>
+    <row r="655" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C655" s="7"/>
+      <c r="D655" s="7"/>
+    </row>
+    <row r="656" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C656" s="7"/>
+      <c r="D656" s="7"/>
+    </row>
+    <row r="657" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C657" s="7"/>
+      <c r="D657" s="7"/>
+    </row>
+    <row r="658" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C658" s="7"/>
+      <c r="D658" s="7"/>
+    </row>
+    <row r="659" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C659" s="7"/>
+      <c r="D659" s="7"/>
+    </row>
+    <row r="660" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C660" s="7"/>
+      <c r="D660" s="7"/>
+    </row>
+    <row r="661" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C661" s="7"/>
+      <c r="D661" s="7"/>
+    </row>
+    <row r="662" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C662" s="7"/>
+      <c r="D662" s="7"/>
+    </row>
+    <row r="663" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C663" s="7"/>
+      <c r="D663" s="7"/>
+    </row>
+    <row r="664" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C664" s="7"/>
+      <c r="D664" s="7"/>
+    </row>
+    <row r="665" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C665" s="7"/>
+      <c r="D665" s="7"/>
+    </row>
+    <row r="666" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C666" s="7"/>
+      <c r="D666" s="7"/>
+    </row>
+    <row r="667" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C667" s="7"/>
+      <c r="D667" s="7"/>
+    </row>
+    <row r="668" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C668" s="7"/>
+      <c r="D668" s="7"/>
+    </row>
+    <row r="669" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C669" s="7"/>
+      <c r="D669" s="7"/>
+    </row>
+    <row r="670" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C670" s="7"/>
+      <c r="D670" s="7"/>
+    </row>
+    <row r="671" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C671" s="7"/>
+      <c r="D671" s="7"/>
+    </row>
+    <row r="672" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C672" s="7"/>
+      <c r="D672" s="7"/>
+    </row>
+    <row r="673" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C673" s="7"/>
+      <c r="D673" s="7"/>
+    </row>
+    <row r="674" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C674" s="7"/>
+      <c r="D674" s="7"/>
+    </row>
+    <row r="675" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C675" s="7"/>
+      <c r="D675" s="7"/>
+    </row>
+    <row r="676" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C676" s="7"/>
+      <c r="D676" s="7"/>
+    </row>
+    <row r="677" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C677" s="7"/>
+      <c r="D677" s="7"/>
+    </row>
+    <row r="678" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C678" s="7"/>
+      <c r="D678" s="7"/>
+    </row>
+    <row r="679" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C679" s="7"/>
+      <c r="D679" s="7"/>
+    </row>
+    <row r="680" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C680" s="7"/>
+      <c r="D680" s="7"/>
+    </row>
+    <row r="681" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C681" s="7"/>
+      <c r="D681" s="7"/>
+    </row>
+    <row r="682" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C682" s="7"/>
+      <c r="D682" s="7"/>
+    </row>
+    <row r="683" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C683" s="7"/>
+      <c r="D683" s="7"/>
+    </row>
+    <row r="684" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C684" s="7"/>
+      <c r="D684" s="7"/>
+    </row>
+    <row r="685" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C685" s="7"/>
+      <c r="D685" s="7"/>
+    </row>
+    <row r="686" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C686" s="7"/>
+      <c r="D686" s="7"/>
+    </row>
+    <row r="687" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C687" s="7"/>
+      <c r="D687" s="7"/>
+    </row>
+    <row r="688" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C688" s="7"/>
+      <c r="D688" s="7"/>
+    </row>
+    <row r="689" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C689" s="7"/>
+      <c r="D689" s="7"/>
+    </row>
+    <row r="690" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C690" s="7"/>
+      <c r="D690" s="7"/>
+    </row>
+    <row r="691" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C691" s="7"/>
+      <c r="D691" s="7"/>
+    </row>
+    <row r="692" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C692" s="7"/>
+      <c r="D692" s="7"/>
+    </row>
+    <row r="693" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C693" s="7"/>
+      <c r="D693" s="7"/>
+    </row>
+    <row r="694" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C694" s="7"/>
+      <c r="D694" s="7"/>
+    </row>
+    <row r="695" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C695" s="7"/>
+      <c r="D695" s="7"/>
+    </row>
+    <row r="696" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C696" s="7"/>
+      <c r="D696" s="7"/>
+    </row>
+    <row r="697" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C697" s="7"/>
+      <c r="D697" s="7"/>
+    </row>
+    <row r="698" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C698" s="7"/>
+      <c r="D698" s="7"/>
+    </row>
+    <row r="699" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C699" s="7"/>
+      <c r="D699" s="7"/>
+    </row>
+    <row r="700" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C700" s="7"/>
+      <c r="D700" s="7"/>
+    </row>
+    <row r="701" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C701" s="7"/>
+      <c r="D701" s="7"/>
+    </row>
+    <row r="702" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C702" s="7"/>
+      <c r="D702" s="7"/>
+    </row>
+    <row r="703" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C703" s="7"/>
+      <c r="D703" s="7"/>
+    </row>
+    <row r="704" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C704" s="7"/>
+      <c r="D704" s="7"/>
+    </row>
+    <row r="705" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C705" s="7"/>
+      <c r="D705" s="7"/>
+    </row>
+    <row r="706" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C706" s="7"/>
+      <c r="D706" s="7"/>
+    </row>
+    <row r="707" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C707" s="7"/>
+      <c r="D707" s="7"/>
+    </row>
+    <row r="708" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C708" s="7"/>
+      <c r="D708" s="7"/>
+    </row>
+    <row r="709" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C709" s="7"/>
+      <c r="D709" s="7"/>
+    </row>
+    <row r="710" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C710" s="7"/>
+      <c r="D710" s="7"/>
+    </row>
+    <row r="711" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C711" s="7"/>
+      <c r="D711" s="7"/>
+    </row>
+    <row r="712" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C712" s="7"/>
+      <c r="D712" s="7"/>
+    </row>
+    <row r="713" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C713" s="7"/>
+      <c r="D713" s="7"/>
+    </row>
+    <row r="714" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C714" s="7"/>
+      <c r="D714" s="7"/>
+    </row>
+    <row r="715" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C715" s="7"/>
+      <c r="D715" s="7"/>
+    </row>
+    <row r="716" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C716" s="7"/>
+      <c r="D716" s="7"/>
+    </row>
+    <row r="717" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C717" s="7"/>
+      <c r="D717" s="7"/>
+    </row>
+    <row r="718" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C718" s="7"/>
+      <c r="D718" s="7"/>
+    </row>
+    <row r="719" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C719" s="7"/>
+      <c r="D719" s="7"/>
+    </row>
+    <row r="720" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C720" s="7"/>
+      <c r="D720" s="7"/>
+    </row>
+    <row r="721" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C721" s="7"/>
+      <c r="D721" s="7"/>
+    </row>
+    <row r="722" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C722" s="7"/>
+      <c r="D722" s="7"/>
+    </row>
+    <row r="723" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C723" s="7"/>
+      <c r="D723" s="7"/>
+    </row>
+    <row r="724" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C724" s="7"/>
+      <c r="D724" s="7"/>
+    </row>
+    <row r="725" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C725" s="7"/>
+      <c r="D725" s="7"/>
+    </row>
+    <row r="726" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C726" s="7"/>
+      <c r="D726" s="7"/>
+    </row>
+    <row r="727" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C727" s="7"/>
+      <c r="D727" s="7"/>
+    </row>
+    <row r="728" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C728" s="7"/>
+      <c r="D728" s="7"/>
+    </row>
+    <row r="729" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C729" s="7"/>
+      <c r="D729" s="7"/>
+    </row>
+    <row r="730" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C730" s="7"/>
+      <c r="D730" s="7"/>
+    </row>
+    <row r="731" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C731" s="7"/>
+      <c r="D731" s="7"/>
+    </row>
+    <row r="732" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C732" s="7"/>
+      <c r="D732" s="7"/>
+    </row>
+    <row r="733" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C733" s="7"/>
+      <c r="D733" s="7"/>
+    </row>
+    <row r="734" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C734" s="7"/>
+      <c r="D734" s="7"/>
+    </row>
+    <row r="735" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C735" s="7"/>
+      <c r="D735" s="7"/>
+    </row>
+    <row r="736" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C736" s="7"/>
+      <c r="D736" s="7"/>
+    </row>
+    <row r="737" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C737" s="7"/>
+      <c r="D737" s="7"/>
+    </row>
+    <row r="738" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C738" s="7"/>
+      <c r="D738" s="7"/>
+    </row>
+    <row r="739" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C739" s="7"/>
+      <c r="D739" s="7"/>
+    </row>
+    <row r="740" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C740" s="7"/>
+      <c r="D740" s="7"/>
+    </row>
+    <row r="741" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C741" s="7"/>
+      <c r="D741" s="7"/>
+    </row>
+    <row r="742" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C742" s="7"/>
+      <c r="D742" s="7"/>
+    </row>
+    <row r="743" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C743" s="7"/>
+      <c r="D743" s="7"/>
+    </row>
+    <row r="744" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C744" s="7"/>
+      <c r="D744" s="7"/>
+    </row>
+    <row r="745" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C745" s="7"/>
+      <c r="D745" s="7"/>
+    </row>
+    <row r="746" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C746" s="7"/>
+      <c r="D746" s="7"/>
+    </row>
+    <row r="747" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C747" s="7"/>
+      <c r="D747" s="7"/>
+    </row>
+    <row r="748" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C748" s="7"/>
+      <c r="D748" s="7"/>
+    </row>
+    <row r="749" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C749" s="7"/>
+      <c r="D749" s="7"/>
+    </row>
+    <row r="750" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C750" s="7"/>
+      <c r="D750" s="7"/>
+    </row>
+    <row r="751" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C751" s="7"/>
+      <c r="D751" s="7"/>
+    </row>
+    <row r="752" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C752" s="7"/>
+      <c r="D752" s="7"/>
+    </row>
+    <row r="753" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C753" s="7"/>
+      <c r="D753" s="7"/>
+    </row>
+    <row r="754" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C754" s="7"/>
+      <c r="D754" s="7"/>
+    </row>
+    <row r="755" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C755" s="7"/>
+      <c r="D755" s="7"/>
+    </row>
+    <row r="756" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C756" s="7"/>
+      <c r="D756" s="7"/>
+    </row>
+    <row r="757" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C757" s="7"/>
+      <c r="D757" s="7"/>
+    </row>
+    <row r="758" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C758" s="7"/>
+      <c r="D758" s="7"/>
+    </row>
+    <row r="759" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C759" s="7"/>
+      <c r="D759" s="7"/>
+    </row>
+    <row r="760" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C760" s="7"/>
+      <c r="D760" s="7"/>
+    </row>
+    <row r="761" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C761" s="7"/>
+      <c r="D761" s="7"/>
+    </row>
+    <row r="762" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C762" s="7"/>
+      <c r="D762" s="7"/>
+    </row>
+    <row r="763" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C763" s="7"/>
+      <c r="D763" s="7"/>
+    </row>
+    <row r="764" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C764" s="7"/>
+      <c r="D764" s="7"/>
+    </row>
+    <row r="765" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C765" s="7"/>
+      <c r="D765" s="7"/>
+    </row>
+    <row r="766" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C766" s="7"/>
+      <c r="D766" s="7"/>
+    </row>
+    <row r="767" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C767" s="7"/>
+      <c r="D767" s="7"/>
+    </row>
+    <row r="768" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C768" s="7"/>
+      <c r="D768" s="7"/>
+    </row>
+    <row r="769" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C769" s="7"/>
+      <c r="D769" s="7"/>
+    </row>
+    <row r="770" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C770" s="7"/>
+      <c r="D770" s="7"/>
+    </row>
+    <row r="771" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C771" s="7"/>
+      <c r="D771" s="7"/>
+    </row>
+    <row r="772" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C772" s="7"/>
+      <c r="D772" s="7"/>
+    </row>
+    <row r="773" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C773" s="7"/>
+      <c r="D773" s="7"/>
+    </row>
+    <row r="774" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C774" s="7"/>
+      <c r="D774" s="7"/>
+    </row>
+    <row r="775" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C775" s="7"/>
+      <c r="D775" s="7"/>
+    </row>
+    <row r="776" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C776" s="7"/>
+      <c r="D776" s="7"/>
+    </row>
+    <row r="777" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C777" s="7"/>
+      <c r="D777" s="7"/>
+    </row>
+    <row r="778" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C778" s="7"/>
+      <c r="D778" s="7"/>
+    </row>
+    <row r="779" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C779" s="7"/>
+      <c r="D779" s="7"/>
+    </row>
+    <row r="780" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C780" s="7"/>
+      <c r="D780" s="7"/>
+    </row>
+    <row r="781" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C781" s="7"/>
+      <c r="D781" s="7"/>
+    </row>
+    <row r="782" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C782" s="7"/>
+      <c r="D782" s="7"/>
+    </row>
+    <row r="783" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C783" s="7"/>
+      <c r="D783" s="7"/>
+    </row>
+    <row r="784" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C784" s="7"/>
+      <c r="D784" s="7"/>
+    </row>
+    <row r="785" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C785" s="7"/>
+      <c r="D785" s="7"/>
+    </row>
+    <row r="786" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C786" s="7"/>
+      <c r="D786" s="7"/>
+    </row>
+    <row r="787" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C787" s="7"/>
+      <c r="D787" s="7"/>
+    </row>
+    <row r="788" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C788" s="7"/>
+      <c r="D788" s="7"/>
+    </row>
+    <row r="789" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C789" s="7"/>
+      <c r="D789" s="7"/>
+    </row>
+    <row r="790" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C790" s="7"/>
+      <c r="D790" s="7"/>
+    </row>
+    <row r="791" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C791" s="7"/>
+      <c r="D791" s="7"/>
+    </row>
+    <row r="792" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C792" s="7"/>
+      <c r="D792" s="7"/>
+    </row>
+    <row r="793" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C793" s="7"/>
+      <c r="D793" s="7"/>
+    </row>
+    <row r="794" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C794" s="7"/>
+      <c r="D794" s="7"/>
+    </row>
+    <row r="795" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C795" s="7"/>
+      <c r="D795" s="7"/>
+    </row>
+    <row r="796" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C796" s="7"/>
+      <c r="D796" s="7"/>
+    </row>
+    <row r="797" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C797" s="7"/>
+      <c r="D797" s="7"/>
+    </row>
+    <row r="798" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C798" s="7"/>
+      <c r="D798" s="7"/>
+    </row>
+    <row r="799" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C799" s="7"/>
+      <c r="D799" s="7"/>
+    </row>
+    <row r="800" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C800" s="7"/>
+      <c r="D800" s="7"/>
+    </row>
+    <row r="801" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C801" s="7"/>
+      <c r="D801" s="7"/>
+    </row>
+    <row r="802" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C802" s="7"/>
+      <c r="D802" s="7"/>
+    </row>
+    <row r="803" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C803" s="7"/>
+      <c r="D803" s="7"/>
+    </row>
+    <row r="804" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C804" s="7"/>
+      <c r="D804" s="7"/>
+    </row>
+    <row r="805" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C805" s="7"/>
+      <c r="D805" s="7"/>
+    </row>
+    <row r="806" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C806" s="7"/>
+      <c r="D806" s="7"/>
+    </row>
+    <row r="807" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C807" s="7"/>
+      <c r="D807" s="7"/>
+    </row>
+    <row r="808" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C808" s="7"/>
+      <c r="D808" s="7"/>
+    </row>
+    <row r="809" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C809" s="7"/>
+      <c r="D809" s="7"/>
+    </row>
+    <row r="810" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C810" s="7"/>
+      <c r="D810" s="7"/>
+    </row>
+    <row r="811" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C811" s="7"/>
+      <c r="D811" s="7"/>
+    </row>
+    <row r="812" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C812" s="7"/>
+      <c r="D812" s="7"/>
+    </row>
+    <row r="813" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C813" s="7"/>
+      <c r="D813" s="7"/>
+    </row>
+    <row r="814" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C814" s="7"/>
+      <c r="D814" s="7"/>
+    </row>
+    <row r="815" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C815" s="7"/>
+      <c r="D815" s="7"/>
+    </row>
+    <row r="816" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C816" s="7"/>
+      <c r="D816" s="7"/>
+    </row>
+    <row r="817" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C817" s="7"/>
+      <c r="D817" s="7"/>
+    </row>
+    <row r="818" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C818" s="7"/>
+      <c r="D818" s="7"/>
+    </row>
+    <row r="819" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C819" s="7"/>
+      <c r="D819" s="7"/>
+    </row>
+    <row r="820" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C820" s="7"/>
+      <c r="D820" s="7"/>
+    </row>
+    <row r="821" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C821" s="7"/>
+      <c r="D821" s="7"/>
+    </row>
+    <row r="822" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C822" s="7"/>
+      <c r="D822" s="7"/>
+    </row>
+    <row r="823" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C823" s="7"/>
+      <c r="D823" s="7"/>
+    </row>
+    <row r="824" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C824" s="7"/>
+      <c r="D824" s="7"/>
+    </row>
+    <row r="825" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C825" s="7"/>
+      <c r="D825" s="7"/>
+    </row>
+    <row r="826" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C826" s="7"/>
+      <c r="D826" s="7"/>
+    </row>
+    <row r="827" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C827" s="7"/>
+      <c r="D827" s="7"/>
+    </row>
+    <row r="828" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C828" s="7"/>
+      <c r="D828" s="7"/>
+    </row>
+    <row r="829" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C829" s="7"/>
+      <c r="D829" s="7"/>
+    </row>
+    <row r="830" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C830" s="7"/>
+      <c r="D830" s="7"/>
+    </row>
+    <row r="831" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C831" s="7"/>
+      <c r="D831" s="7"/>
+    </row>
+    <row r="832" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C832" s="7"/>
+      <c r="D832" s="7"/>
+    </row>
+    <row r="833" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C833" s="7"/>
+      <c r="D833" s="7"/>
+    </row>
+    <row r="834" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C834" s="7"/>
+      <c r="D834" s="7"/>
+    </row>
+    <row r="835" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C835" s="7"/>
+      <c r="D835" s="7"/>
+    </row>
+    <row r="836" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C836" s="7"/>
+      <c r="D836" s="7"/>
+    </row>
+    <row r="837" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C837" s="7"/>
+      <c r="D837" s="7"/>
+    </row>
+    <row r="838" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C838" s="7"/>
+      <c r="D838" s="7"/>
+    </row>
+    <row r="839" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C839" s="7"/>
+      <c r="D839" s="7"/>
+    </row>
+    <row r="840" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C840" s="7"/>
+      <c r="D840" s="7"/>
+    </row>
+    <row r="841" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C841" s="7"/>
+      <c r="D841" s="7"/>
+    </row>
+    <row r="842" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C842" s="7"/>
+      <c r="D842" s="7"/>
+    </row>
+    <row r="843" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C843" s="7"/>
+      <c r="D843" s="7"/>
+    </row>
+    <row r="844" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C844" s="7"/>
+      <c r="D844" s="7"/>
+    </row>
+    <row r="845" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C845" s="7"/>
+      <c r="D845" s="7"/>
+    </row>
+    <row r="846" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C846" s="7"/>
+      <c r="D846" s="7"/>
+    </row>
+    <row r="847" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C847" s="7"/>
+      <c r="D847" s="7"/>
+    </row>
+    <row r="848" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C848" s="7"/>
+      <c r="D848" s="7"/>
+    </row>
+    <row r="849" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C849" s="7"/>
+      <c r="D849" s="7"/>
+    </row>
+    <row r="850" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C850" s="7"/>
+      <c r="D850" s="7"/>
+    </row>
+    <row r="851" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C851" s="7"/>
+      <c r="D851" s="7"/>
+    </row>
+    <row r="852" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C852" s="7"/>
+      <c r="D852" s="7"/>
+    </row>
+    <row r="853" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C853" s="7"/>
+      <c r="D853" s="7"/>
+    </row>
+    <row r="854" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C854" s="7"/>
+      <c r="D854" s="7"/>
+    </row>
+    <row r="855" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C855" s="7"/>
+      <c r="D855" s="7"/>
+    </row>
+    <row r="856" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C856" s="7"/>
+      <c r="D856" s="7"/>
+    </row>
+    <row r="857" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C857" s="7"/>
+      <c r="D857" s="7"/>
+    </row>
+    <row r="858" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C858" s="7"/>
+      <c r="D858" s="7"/>
+    </row>
+    <row r="859" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C859" s="7"/>
+      <c r="D859" s="7"/>
+    </row>
+    <row r="860" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C860" s="7"/>
+      <c r="D860" s="7"/>
+    </row>
+    <row r="861" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C861" s="7"/>
+      <c r="D861" s="7"/>
+    </row>
+    <row r="862" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C862" s="7"/>
+      <c r="D862" s="7"/>
+    </row>
+    <row r="863" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C863" s="7"/>
+      <c r="D863" s="7"/>
+    </row>
+    <row r="864" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C864" s="7"/>
+      <c r="D864" s="7"/>
+    </row>
+    <row r="865" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C865" s="7"/>
+      <c r="D865" s="7"/>
+    </row>
+    <row r="866" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C866" s="7"/>
+      <c r="D866" s="7"/>
+    </row>
+    <row r="867" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C867" s="7"/>
+      <c r="D867" s="7"/>
+    </row>
+    <row r="868" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C868" s="7"/>
+      <c r="D868" s="7"/>
+    </row>
+    <row r="869" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C869" s="7"/>
+      <c r="D869" s="7"/>
+    </row>
+    <row r="870" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C870" s="7"/>
+      <c r="D870" s="7"/>
+    </row>
+    <row r="871" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C871" s="7"/>
+      <c r="D871" s="7"/>
+    </row>
+    <row r="872" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C872" s="7"/>
+      <c r="D872" s="7"/>
+    </row>
+    <row r="873" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C873" s="7"/>
+      <c r="D873" s="7"/>
+    </row>
+    <row r="874" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C874" s="7"/>
+      <c r="D874" s="7"/>
+    </row>
+    <row r="875" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C875" s="7"/>
+      <c r="D875" s="7"/>
+    </row>
+    <row r="876" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C876" s="7"/>
+      <c r="D876" s="7"/>
+    </row>
+    <row r="877" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C877" s="7"/>
+      <c r="D877" s="7"/>
+    </row>
+    <row r="878" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C878" s="7"/>
+      <c r="D878" s="7"/>
+    </row>
+    <row r="879" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C879" s="7"/>
+      <c r="D879" s="7"/>
+    </row>
+    <row r="880" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C880" s="7"/>
+      <c r="D880" s="7"/>
+    </row>
+    <row r="881" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C881" s="7"/>
+      <c r="D881" s="7"/>
+    </row>
+    <row r="882" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C882" s="7"/>
+      <c r="D882" s="7"/>
+    </row>
+    <row r="883" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C883" s="7"/>
+      <c r="D883" s="7"/>
+    </row>
+    <row r="884" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C884" s="7"/>
+      <c r="D884" s="7"/>
+    </row>
+    <row r="885" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C885" s="7"/>
+      <c r="D885" s="7"/>
+    </row>
+    <row r="886" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C886" s="7"/>
+      <c r="D886" s="7"/>
+    </row>
+    <row r="887" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C887" s="7"/>
+      <c r="D887" s="7"/>
+    </row>
+    <row r="888" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C888" s="7"/>
+      <c r="D888" s="7"/>
+    </row>
+    <row r="889" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C889" s="7"/>
+      <c r="D889" s="7"/>
+    </row>
+    <row r="890" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C890" s="7"/>
+      <c r="D890" s="7"/>
+    </row>
+    <row r="891" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C891" s="7"/>
+      <c r="D891" s="7"/>
+    </row>
+    <row r="892" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C892" s="7"/>
+      <c r="D892" s="7"/>
+    </row>
+    <row r="893" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C893" s="7"/>
+      <c r="D893" s="7"/>
+    </row>
+    <row r="894" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C894" s="7"/>
+      <c r="D894" s="7"/>
+    </row>
+    <row r="895" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C895" s="7"/>
+      <c r="D895" s="7"/>
+    </row>
+    <row r="896" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C896" s="7"/>
+      <c r="D896" s="7"/>
+    </row>
+    <row r="897" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C897" s="7"/>
+      <c r="D897" s="7"/>
+    </row>
+    <row r="898" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C898" s="7"/>
+      <c r="D898" s="7"/>
+    </row>
+    <row r="899" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C899" s="7"/>
+      <c r="D899" s="7"/>
+    </row>
+    <row r="900" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C900" s="7"/>
+      <c r="D900" s="7"/>
+    </row>
+    <row r="901" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C901" s="7"/>
+      <c r="D901" s="7"/>
+    </row>
+    <row r="902" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C902" s="7"/>
+      <c r="D902" s="7"/>
+    </row>
+    <row r="903" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C903" s="7"/>
+      <c r="D903" s="7"/>
+    </row>
+    <row r="904" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C904" s="7"/>
+      <c r="D904" s="7"/>
+    </row>
+    <row r="905" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C905" s="7"/>
+      <c r="D905" s="7"/>
+    </row>
+    <row r="906" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C906" s="7"/>
+      <c r="D906" s="7"/>
+    </row>
+    <row r="907" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C907" s="7"/>
+      <c r="D907" s="7"/>
+    </row>
+    <row r="908" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C908" s="7"/>
+      <c r="D908" s="7"/>
+    </row>
+    <row r="909" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C909" s="7"/>
+      <c r="D909" s="7"/>
+    </row>
+    <row r="910" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C910" s="7"/>
+      <c r="D910" s="7"/>
+    </row>
+    <row r="911" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C911" s="7"/>
+      <c r="D911" s="7"/>
+    </row>
+    <row r="912" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C912" s="7"/>
+      <c r="D912" s="7"/>
+    </row>
+    <row r="913" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C913" s="7"/>
+      <c r="D913" s="7"/>
+    </row>
+    <row r="914" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C914" s="7"/>
+      <c r="D914" s="7"/>
+    </row>
+    <row r="915" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C915" s="7"/>
+      <c r="D915" s="7"/>
+    </row>
+    <row r="916" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C916" s="7"/>
+      <c r="D916" s="7"/>
+    </row>
+    <row r="917" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C917" s="7"/>
+      <c r="D917" s="7"/>
+    </row>
+    <row r="918" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C918" s="7"/>
+      <c r="D918" s="7"/>
+    </row>
+    <row r="919" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C919" s="7"/>
+      <c r="D919" s="7"/>
+    </row>
+    <row r="920" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C920" s="7"/>
+      <c r="D920" s="7"/>
+    </row>
+    <row r="921" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C921" s="7"/>
+      <c r="D921" s="7"/>
+    </row>
+    <row r="922" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C922" s="7"/>
+      <c r="D922" s="7"/>
+    </row>
+    <row r="923" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C923" s="7"/>
+      <c r="D923" s="7"/>
+    </row>
+    <row r="924" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C924" s="7"/>
+      <c r="D924" s="7"/>
+    </row>
+    <row r="925" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C925" s="7"/>
+      <c r="D925" s="7"/>
+    </row>
+    <row r="926" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C926" s="7"/>
+      <c r="D926" s="7"/>
+    </row>
+    <row r="927" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C927" s="7"/>
+      <c r="D927" s="7"/>
+    </row>
+    <row r="928" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C928" s="7"/>
+      <c r="D928" s="7"/>
+    </row>
+    <row r="929" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C929" s="7"/>
+      <c r="D929" s="7"/>
+    </row>
+    <row r="930" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C930" s="7"/>
+      <c r="D930" s="7"/>
+    </row>
+    <row r="931" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C931" s="7"/>
+      <c r="D931" s="7"/>
+    </row>
+    <row r="932" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C932" s="7"/>
+      <c r="D932" s="7"/>
+    </row>
+    <row r="933" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C933" s="7"/>
+      <c r="D933" s="7"/>
+    </row>
+    <row r="934" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C934" s="7"/>
+      <c r="D934" s="7"/>
+    </row>
+    <row r="935" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C935" s="7"/>
+      <c r="D935" s="7"/>
+    </row>
+    <row r="936" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C936" s="7"/>
+      <c r="D936" s="7"/>
+    </row>
+    <row r="937" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C937" s="7"/>
+      <c r="D937" s="7"/>
+    </row>
+    <row r="938" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C938" s="7"/>
+      <c r="D938" s="7"/>
+    </row>
+    <row r="939" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C939" s="7"/>
+      <c r="D939" s="7"/>
+    </row>
+    <row r="940" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C940" s="7"/>
+      <c r="D940" s="7"/>
+    </row>
+    <row r="941" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C941" s="7"/>
+      <c r="D941" s="7"/>
+    </row>
+    <row r="942" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C942" s="7"/>
+      <c r="D942" s="7"/>
+    </row>
+    <row r="943" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C943" s="7"/>
+      <c r="D943" s="7"/>
+    </row>
+    <row r="944" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C944" s="7"/>
+      <c r="D944" s="7"/>
+    </row>
+    <row r="945" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C945" s="7"/>
+      <c r="D945" s="7"/>
+    </row>
+    <row r="946" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C946" s="7"/>
+      <c r="D946" s="7"/>
+    </row>
+    <row r="947" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C947" s="7"/>
+      <c r="D947" s="7"/>
+    </row>
+    <row r="948" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C948" s="7"/>
+      <c r="D948" s="7"/>
+    </row>
+    <row r="949" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C949" s="7"/>
+      <c r="D949" s="7"/>
+    </row>
+    <row r="950" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C950" s="7"/>
+      <c r="D950" s="7"/>
+    </row>
+    <row r="951" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C951" s="7"/>
+      <c r="D951" s="7"/>
+    </row>
+    <row r="952" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C952" s="7"/>
+      <c r="D952" s="7"/>
+    </row>
+    <row r="953" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C953" s="7"/>
+      <c r="D953" s="7"/>
+    </row>
+    <row r="954" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C954" s="7"/>
+      <c r="D954" s="7"/>
+    </row>
+    <row r="955" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C955" s="7"/>
+      <c r="D955" s="7"/>
+    </row>
+    <row r="956" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C956" s="7"/>
+      <c r="D956" s="7"/>
+    </row>
+    <row r="957" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C957" s="7"/>
+      <c r="D957" s="7"/>
+    </row>
+    <row r="958" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C958" s="7"/>
+      <c r="D958" s="7"/>
+    </row>
+    <row r="959" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C959" s="7"/>
+      <c r="D959" s="7"/>
+    </row>
+    <row r="960" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C960" s="7"/>
+      <c r="D960" s="7"/>
+    </row>
+    <row r="961" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C961" s="7"/>
+      <c r="D961" s="7"/>
+    </row>
+    <row r="962" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C962" s="7"/>
+      <c r="D962" s="7"/>
+    </row>
+    <row r="963" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C963" s="7"/>
+      <c r="D963" s="7"/>
+    </row>
+    <row r="964" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C964" s="7"/>
+      <c r="D964" s="7"/>
+    </row>
+    <row r="965" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C965" s="7"/>
+      <c r="D965" s="7"/>
+    </row>
+    <row r="966" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C966" s="7"/>
+      <c r="D966" s="7"/>
+    </row>
+    <row r="967" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C967" s="7"/>
+      <c r="D967" s="7"/>
+    </row>
+    <row r="968" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C968" s="7"/>
+      <c r="D968" s="7"/>
+    </row>
+    <row r="969" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C969" s="7"/>
+      <c r="D969" s="7"/>
+    </row>
+    <row r="970" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C970" s="7"/>
+      <c r="D970" s="7"/>
+    </row>
+    <row r="971" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C971" s="7"/>
+      <c r="D971" s="7"/>
+    </row>
+    <row r="972" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C972" s="7"/>
+      <c r="D972" s="7"/>
+    </row>
+    <row r="973" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C973" s="7"/>
+      <c r="D973" s="7"/>
+    </row>
+    <row r="974" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C974" s="7"/>
+      <c r="D974" s="7"/>
+    </row>
+    <row r="975" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C975" s="7"/>
+      <c r="D975" s="7"/>
+    </row>
+    <row r="976" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C976" s="7"/>
+      <c r="D976" s="7"/>
+    </row>
+    <row r="977" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C977" s="7"/>
+      <c r="D977" s="7"/>
+    </row>
+    <row r="978" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C978" s="7"/>
+      <c r="D978" s="7"/>
+    </row>
+    <row r="979" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C979" s="7"/>
+      <c r="D979" s="7"/>
+    </row>
+    <row r="980" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C980" s="7"/>
+      <c r="D980" s="7"/>
+    </row>
+    <row r="981" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C981" s="7"/>
+      <c r="D981" s="7"/>
+    </row>
+    <row r="982" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C982" s="7"/>
+      <c r="D982" s="7"/>
+    </row>
+    <row r="983" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C983" s="7"/>
+      <c r="D983" s="7"/>
+    </row>
+    <row r="984" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C984" s="7"/>
+      <c r="D984" s="7"/>
+    </row>
+    <row r="985" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C985" s="7"/>
+      <c r="D985" s="7"/>
+    </row>
+    <row r="986" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C986" s="7"/>
+      <c r="D986" s="7"/>
+    </row>
+    <row r="987" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C987" s="7"/>
+      <c r="D987" s="7"/>
+    </row>
+    <row r="988" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C988" s="7"/>
+      <c r="D988" s="7"/>
+    </row>
+    <row r="989" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C989" s="7"/>
+      <c r="D989" s="7"/>
+    </row>
+    <row r="990" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C990" s="7"/>
+      <c r="D990" s="7"/>
+    </row>
+    <row r="991" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C991" s="7"/>
+      <c r="D991" s="7"/>
+    </row>
+    <row r="992" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C992" s="7"/>
+      <c r="D992" s="7"/>
+    </row>
+    <row r="993" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C993" s="7"/>
+      <c r="D993" s="7"/>
+    </row>
+    <row r="994" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C994" s="7"/>
+      <c r="D994" s="7"/>
+    </row>
+    <row r="995" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C995" s="7"/>
+      <c r="D995" s="7"/>
+    </row>
+    <row r="996" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C996" s="7"/>
+      <c r="D996" s="7"/>
+    </row>
+    <row r="997" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C997" s="7"/>
+      <c r="D997" s="7"/>
+    </row>
+    <row r="998" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C998" s="7"/>
+      <c r="D998" s="7"/>
+    </row>
+    <row r="999" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C999" s="7"/>
+      <c r="D999" s="7"/>
+    </row>
+    <row r="1000" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1000" s="7"/>
+      <c r="D1000" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/CH-92 Missing value.xlsx
+++ b/CH-92 Missing value.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFD50A2-9D8D-498D-AE63-479D79C68EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3FEEAE-AB81-433D-ACB6-2AC7DD51555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt1" sheetId="3" r:id="rId2"/>
+    <sheet name="Alt2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
   <si>
     <t>Question</t>
   </si>
@@ -5459,8 +5460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A55F4F-298E-4E58-B86A-AEBC0CE8B1D4}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10203,4 +10204,4693 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B20DF2-D6AE-4C50-8C31-0D261CADE6DE}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="2.88671875" customWidth="1"/>
+    <col min="3" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" customWidth="1"/>
+    <col min="17" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.21875" customWidth="1"/>
+    <col min="20" max="26" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>70</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4">
+        <v>70</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4">
+        <v>78</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>32</v>
+      </c>
+      <c r="M4" s="4">
+        <v>36</v>
+      </c>
+      <c r="N4" s="4">
+        <v>78</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>65</v>
+      </c>
+      <c r="E5" s="4">
+        <v>67</v>
+      </c>
+      <c r="F5" s="4">
+        <v>94</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="4">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>65</v>
+      </c>
+      <c r="M5" s="4">
+        <v>67</v>
+      </c>
+      <c r="N5" s="4">
+        <v>94</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="4">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>40</v>
+      </c>
+      <c r="M6" s="5">
+        <v>68</v>
+      </c>
+      <c r="N6" s="4">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>57</v>
+      </c>
+      <c r="E7" s="4">
+        <v>68</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>57</v>
+      </c>
+      <c r="M7" s="4">
+        <v>68</v>
+      </c>
+      <c r="N7" s="5">
+        <v>68</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="4">
+        <v>6</v>
+      </c>
+      <c r="L8" s="5">
+        <v>30</v>
+      </c>
+      <c r="M8" s="4">
+        <v>30</v>
+      </c>
+      <c r="N8" s="4">
+        <v>12</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4">
+        <v>89</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4">
+        <v>7</v>
+      </c>
+      <c r="L9" s="4">
+        <v>11</v>
+      </c>
+      <c r="M9" s="4">
+        <v>12</v>
+      </c>
+      <c r="N9" s="4">
+        <v>89</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4">
+        <v>8</v>
+      </c>
+      <c r="L10" s="4">
+        <v>34</v>
+      </c>
+      <c r="M10" s="5">
+        <v>34</v>
+      </c>
+      <c r="N10" s="4">
+        <v>10</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>78</v>
+      </c>
+      <c r="E11" s="4">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4">
+        <v>9</v>
+      </c>
+      <c r="L11" s="4">
+        <v>78</v>
+      </c>
+      <c r="M11" s="4">
+        <v>50</v>
+      </c>
+      <c r="N11" s="4">
+        <v>10</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
+        <v>94</v>
+      </c>
+      <c r="E12" s="4">
+        <v>84</v>
+      </c>
+      <c r="F12" s="4">
+        <v>82</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4">
+        <v>94</v>
+      </c>
+      <c r="M12" s="4">
+        <v>84</v>
+      </c>
+      <c r="N12" s="4">
+        <v>82</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" cm="1">
+        <f t="array" ref="C16:F25">_xlfn.SWITCH(C3:F12,
+"u",C2:F11,"d",C4:F12,"r",D3:G12,"l",B3:E12,C3:F12)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Z</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>78</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>65</v>
+      </c>
+      <c r="E18">
+        <v>67</v>
+      </c>
+      <c r="F18">
+        <v>94</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C19" s="7">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>68</v>
+      </c>
+      <c r="F19">
+        <v>36</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C20" s="7">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7">
+        <v>57</v>
+      </c>
+      <c r="E20">
+        <v>68</v>
+      </c>
+      <c r="F20">
+        <v>68</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="7">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>89</v>
+      </c>
+      <c r="P22" s="8"/>
+      <c r="S22" s="9"/>
+    </row>
+    <row r="23" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7">
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <v>34</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="7">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7">
+        <v>78</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="S24" s="9"/>
+    </row>
+    <row r="25" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="7">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7">
+        <v>94</v>
+      </c>
+      <c r="E25">
+        <v>84</v>
+      </c>
+      <c r="F25">
+        <v>82</v>
+      </c>
+      <c r="P25" s="8"/>
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="P26" s="8"/>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="P27" s="8"/>
+      <c r="S27" s="9"/>
+    </row>
+    <row r="28" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="P28" s="8"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="P29" s="8"/>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="P30" s="8"/>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="P31" s="9"/>
+      <c r="S31" s="9"/>
+    </row>
+    <row r="32" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="P32" s="9"/>
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="P33" s="9"/>
+      <c r="S33" s="9"/>
+    </row>
+    <row r="34" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="P34" s="9"/>
+      <c r="S34" s="9"/>
+    </row>
+    <row r="35" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="P35" s="9"/>
+      <c r="S35" s="9"/>
+    </row>
+    <row r="36" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="P36" s="9"/>
+      <c r="S36" s="9"/>
+    </row>
+    <row r="37" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="P37" s="9"/>
+      <c r="S37" s="9"/>
+    </row>
+    <row r="38" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="P38" s="9"/>
+      <c r="S38" s="9"/>
+    </row>
+    <row r="39" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="P39" s="9"/>
+      <c r="S39" s="9"/>
+    </row>
+    <row r="40" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="P40" s="9"/>
+      <c r="S40" s="9"/>
+    </row>
+    <row r="41" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="S41" s="9"/>
+    </row>
+    <row r="42" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="S42" s="9"/>
+    </row>
+    <row r="43" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="S43" s="9"/>
+    </row>
+    <row r="44" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="S44" s="9"/>
+    </row>
+    <row r="45" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="S45" s="9"/>
+    </row>
+    <row r="46" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="S46" s="9"/>
+    </row>
+    <row r="47" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="S47" s="9"/>
+    </row>
+    <row r="48" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="S48" s="9"/>
+    </row>
+    <row r="49" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="S49" s="9"/>
+    </row>
+    <row r="50" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="S50" s="9"/>
+    </row>
+    <row r="51" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="S51" s="9"/>
+    </row>
+    <row r="52" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="S52" s="9"/>
+    </row>
+    <row r="53" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="S53" s="9"/>
+    </row>
+    <row r="54" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="S54" s="9"/>
+    </row>
+    <row r="55" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="S55" s="9"/>
+    </row>
+    <row r="56" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="S56" s="9"/>
+    </row>
+    <row r="57" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="S57" s="9"/>
+    </row>
+    <row r="58" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="S58" s="9"/>
+    </row>
+    <row r="59" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="S59" s="9"/>
+    </row>
+    <row r="60" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="S60" s="9"/>
+    </row>
+    <row r="61" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="S61" s="9"/>
+    </row>
+    <row r="62" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="S62" s="9"/>
+    </row>
+    <row r="63" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="S63" s="9"/>
+    </row>
+    <row r="64" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="S64" s="9"/>
+    </row>
+    <row r="65" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="S65" s="9"/>
+    </row>
+    <row r="66" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="S66" s="9"/>
+    </row>
+    <row r="67" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="S67" s="9"/>
+    </row>
+    <row r="68" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="S68" s="9"/>
+    </row>
+    <row r="69" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="S69" s="9"/>
+    </row>
+    <row r="70" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="S70" s="9"/>
+    </row>
+    <row r="71" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="S71" s="9"/>
+    </row>
+    <row r="72" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="S72" s="9"/>
+    </row>
+    <row r="73" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="S73" s="9"/>
+    </row>
+    <row r="74" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="S74" s="9"/>
+    </row>
+    <row r="75" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="S75" s="9"/>
+    </row>
+    <row r="76" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+    </row>
+    <row r="128" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+    </row>
+    <row r="130" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+    </row>
+    <row r="131" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+    </row>
+    <row r="141" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+    </row>
+    <row r="142" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+    </row>
+    <row r="143" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+    </row>
+    <row r="145" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+    </row>
+    <row r="146" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+    </row>
+    <row r="147" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+    </row>
+    <row r="148" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+    </row>
+    <row r="149" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+    </row>
+    <row r="150" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+    </row>
+    <row r="151" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+    </row>
+    <row r="152" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+    </row>
+    <row r="153" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+    </row>
+    <row r="154" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+    </row>
+    <row r="155" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+    </row>
+    <row r="156" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+    </row>
+    <row r="157" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+    </row>
+    <row r="158" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+    </row>
+    <row r="159" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+    </row>
+    <row r="160" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+    </row>
+    <row r="161" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+    </row>
+    <row r="162" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+    </row>
+    <row r="163" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+    </row>
+    <row r="164" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+    </row>
+    <row r="165" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+    </row>
+    <row r="166" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+    </row>
+    <row r="167" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+    </row>
+    <row r="168" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+    </row>
+    <row r="169" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+    </row>
+    <row r="170" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+    </row>
+    <row r="171" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+    </row>
+    <row r="172" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+    </row>
+    <row r="173" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+    </row>
+    <row r="174" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+    </row>
+    <row r="175" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+    </row>
+    <row r="176" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+    </row>
+    <row r="177" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+    </row>
+    <row r="178" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+    </row>
+    <row r="179" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+    </row>
+    <row r="180" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+    </row>
+    <row r="181" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+    </row>
+    <row r="182" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+    </row>
+    <row r="183" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+    </row>
+    <row r="184" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+    </row>
+    <row r="185" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+    </row>
+    <row r="186" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+    </row>
+    <row r="187" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+    </row>
+    <row r="188" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+    </row>
+    <row r="189" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+    </row>
+    <row r="190" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+    </row>
+    <row r="191" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+    </row>
+    <row r="192" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+    </row>
+    <row r="193" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+    </row>
+    <row r="194" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+    </row>
+    <row r="195" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+    </row>
+    <row r="196" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+    </row>
+    <row r="197" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+    </row>
+    <row r="198" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+    </row>
+    <row r="199" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+    </row>
+    <row r="200" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+    </row>
+    <row r="201" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+    </row>
+    <row r="202" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+    </row>
+    <row r="203" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+    </row>
+    <row r="204" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+    </row>
+    <row r="205" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+    </row>
+    <row r="206" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+    </row>
+    <row r="207" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+    </row>
+    <row r="208" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+    </row>
+    <row r="209" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+    </row>
+    <row r="210" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+    </row>
+    <row r="211" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+    </row>
+    <row r="212" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
+    </row>
+    <row r="213" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+    </row>
+    <row r="214" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
+    </row>
+    <row r="215" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+    </row>
+    <row r="216" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+    </row>
+    <row r="217" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
+    </row>
+    <row r="218" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+    </row>
+    <row r="219" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C219" s="7"/>
+      <c r="D219" s="7"/>
+    </row>
+    <row r="220" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
+    </row>
+    <row r="221" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
+    </row>
+    <row r="222" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
+    </row>
+    <row r="223" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C223" s="7"/>
+      <c r="D223" s="7"/>
+    </row>
+    <row r="224" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C224" s="7"/>
+      <c r="D224" s="7"/>
+    </row>
+    <row r="225" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C225" s="7"/>
+      <c r="D225" s="7"/>
+    </row>
+    <row r="226" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C226" s="7"/>
+      <c r="D226" s="7"/>
+    </row>
+    <row r="227" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C227" s="7"/>
+      <c r="D227" s="7"/>
+    </row>
+    <row r="228" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C228" s="7"/>
+      <c r="D228" s="7"/>
+    </row>
+    <row r="229" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C229" s="7"/>
+      <c r="D229" s="7"/>
+    </row>
+    <row r="230" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C230" s="7"/>
+      <c r="D230" s="7"/>
+    </row>
+    <row r="231" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
+    </row>
+    <row r="232" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
+    </row>
+    <row r="233" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+    </row>
+    <row r="234" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C234" s="7"/>
+      <c r="D234" s="7"/>
+    </row>
+    <row r="235" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C235" s="7"/>
+      <c r="D235" s="7"/>
+    </row>
+    <row r="236" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
+    </row>
+    <row r="237" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C237" s="7"/>
+      <c r="D237" s="7"/>
+    </row>
+    <row r="238" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C238" s="7"/>
+      <c r="D238" s="7"/>
+    </row>
+    <row r="239" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C239" s="7"/>
+      <c r="D239" s="7"/>
+    </row>
+    <row r="240" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C240" s="7"/>
+      <c r="D240" s="7"/>
+    </row>
+    <row r="241" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+    </row>
+    <row r="242" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+    </row>
+    <row r="243" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+    </row>
+    <row r="244" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+    </row>
+    <row r="245" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+    </row>
+    <row r="246" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
+    </row>
+    <row r="247" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+    </row>
+    <row r="248" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+    </row>
+    <row r="249" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+    </row>
+    <row r="250" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+    </row>
+    <row r="251" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+    </row>
+    <row r="252" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C252" s="7"/>
+      <c r="D252" s="7"/>
+    </row>
+    <row r="253" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+    </row>
+    <row r="254" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+    </row>
+    <row r="255" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
+    </row>
+    <row r="256" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C256" s="7"/>
+      <c r="D256" s="7"/>
+    </row>
+    <row r="257" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C257" s="7"/>
+      <c r="D257" s="7"/>
+    </row>
+    <row r="258" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C258" s="7"/>
+      <c r="D258" s="7"/>
+    </row>
+    <row r="259" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C259" s="7"/>
+      <c r="D259" s="7"/>
+    </row>
+    <row r="260" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C260" s="7"/>
+      <c r="D260" s="7"/>
+    </row>
+    <row r="261" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C261" s="7"/>
+      <c r="D261" s="7"/>
+    </row>
+    <row r="262" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C262" s="7"/>
+      <c r="D262" s="7"/>
+    </row>
+    <row r="263" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C263" s="7"/>
+      <c r="D263" s="7"/>
+    </row>
+    <row r="264" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C264" s="7"/>
+      <c r="D264" s="7"/>
+    </row>
+    <row r="265" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C265" s="7"/>
+      <c r="D265" s="7"/>
+    </row>
+    <row r="266" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C266" s="7"/>
+      <c r="D266" s="7"/>
+    </row>
+    <row r="267" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C267" s="7"/>
+      <c r="D267" s="7"/>
+    </row>
+    <row r="268" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C268" s="7"/>
+      <c r="D268" s="7"/>
+    </row>
+    <row r="269" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C269" s="7"/>
+      <c r="D269" s="7"/>
+    </row>
+    <row r="270" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C270" s="7"/>
+      <c r="D270" s="7"/>
+    </row>
+    <row r="271" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C271" s="7"/>
+      <c r="D271" s="7"/>
+    </row>
+    <row r="272" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C272" s="7"/>
+      <c r="D272" s="7"/>
+    </row>
+    <row r="273" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C273" s="7"/>
+      <c r="D273" s="7"/>
+    </row>
+    <row r="274" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C274" s="7"/>
+      <c r="D274" s="7"/>
+    </row>
+    <row r="275" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C275" s="7"/>
+      <c r="D275" s="7"/>
+    </row>
+    <row r="276" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C276" s="7"/>
+      <c r="D276" s="7"/>
+    </row>
+    <row r="277" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C277" s="7"/>
+      <c r="D277" s="7"/>
+    </row>
+    <row r="278" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C278" s="7"/>
+      <c r="D278" s="7"/>
+    </row>
+    <row r="279" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C279" s="7"/>
+      <c r="D279" s="7"/>
+    </row>
+    <row r="280" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C280" s="7"/>
+      <c r="D280" s="7"/>
+    </row>
+    <row r="281" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C281" s="7"/>
+      <c r="D281" s="7"/>
+    </row>
+    <row r="282" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C282" s="7"/>
+      <c r="D282" s="7"/>
+    </row>
+    <row r="283" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C283" s="7"/>
+      <c r="D283" s="7"/>
+    </row>
+    <row r="284" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C284" s="7"/>
+      <c r="D284" s="7"/>
+    </row>
+    <row r="285" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C285" s="7"/>
+      <c r="D285" s="7"/>
+    </row>
+    <row r="286" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C286" s="7"/>
+      <c r="D286" s="7"/>
+    </row>
+    <row r="287" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C287" s="7"/>
+      <c r="D287" s="7"/>
+    </row>
+    <row r="288" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C288" s="7"/>
+      <c r="D288" s="7"/>
+    </row>
+    <row r="289" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C289" s="7"/>
+      <c r="D289" s="7"/>
+    </row>
+    <row r="290" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C290" s="7"/>
+      <c r="D290" s="7"/>
+    </row>
+    <row r="291" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C291" s="7"/>
+      <c r="D291" s="7"/>
+    </row>
+    <row r="292" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C292" s="7"/>
+      <c r="D292" s="7"/>
+    </row>
+    <row r="293" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C293" s="7"/>
+      <c r="D293" s="7"/>
+    </row>
+    <row r="294" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C294" s="7"/>
+      <c r="D294" s="7"/>
+    </row>
+    <row r="295" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C295" s="7"/>
+      <c r="D295" s="7"/>
+    </row>
+    <row r="296" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C296" s="7"/>
+      <c r="D296" s="7"/>
+    </row>
+    <row r="297" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C297" s="7"/>
+      <c r="D297" s="7"/>
+    </row>
+    <row r="298" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C298" s="7"/>
+      <c r="D298" s="7"/>
+    </row>
+    <row r="299" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C299" s="7"/>
+      <c r="D299" s="7"/>
+    </row>
+    <row r="300" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C300" s="7"/>
+      <c r="D300" s="7"/>
+    </row>
+    <row r="301" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C301" s="7"/>
+      <c r="D301" s="7"/>
+    </row>
+    <row r="302" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C302" s="7"/>
+      <c r="D302" s="7"/>
+    </row>
+    <row r="303" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C303" s="7"/>
+      <c r="D303" s="7"/>
+    </row>
+    <row r="304" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C304" s="7"/>
+      <c r="D304" s="7"/>
+    </row>
+    <row r="305" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C305" s="7"/>
+      <c r="D305" s="7"/>
+    </row>
+    <row r="306" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C306" s="7"/>
+      <c r="D306" s="7"/>
+    </row>
+    <row r="307" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C307" s="7"/>
+      <c r="D307" s="7"/>
+    </row>
+    <row r="308" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C308" s="7"/>
+      <c r="D308" s="7"/>
+    </row>
+    <row r="309" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C309" s="7"/>
+      <c r="D309" s="7"/>
+    </row>
+    <row r="310" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C310" s="7"/>
+      <c r="D310" s="7"/>
+    </row>
+    <row r="311" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C311" s="7"/>
+      <c r="D311" s="7"/>
+    </row>
+    <row r="312" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C312" s="7"/>
+      <c r="D312" s="7"/>
+    </row>
+    <row r="313" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C313" s="7"/>
+      <c r="D313" s="7"/>
+    </row>
+    <row r="314" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C314" s="7"/>
+      <c r="D314" s="7"/>
+    </row>
+    <row r="315" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C315" s="7"/>
+      <c r="D315" s="7"/>
+    </row>
+    <row r="316" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C316" s="7"/>
+      <c r="D316" s="7"/>
+    </row>
+    <row r="317" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C317" s="7"/>
+      <c r="D317" s="7"/>
+    </row>
+    <row r="318" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C318" s="7"/>
+      <c r="D318" s="7"/>
+    </row>
+    <row r="319" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C319" s="7"/>
+      <c r="D319" s="7"/>
+    </row>
+    <row r="320" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C320" s="7"/>
+      <c r="D320" s="7"/>
+    </row>
+    <row r="321" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C321" s="7"/>
+      <c r="D321" s="7"/>
+    </row>
+    <row r="322" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C322" s="7"/>
+      <c r="D322" s="7"/>
+    </row>
+    <row r="323" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C323" s="7"/>
+      <c r="D323" s="7"/>
+    </row>
+    <row r="324" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C324" s="7"/>
+      <c r="D324" s="7"/>
+    </row>
+    <row r="325" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C325" s="7"/>
+      <c r="D325" s="7"/>
+    </row>
+    <row r="326" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C326" s="7"/>
+      <c r="D326" s="7"/>
+    </row>
+    <row r="327" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C327" s="7"/>
+      <c r="D327" s="7"/>
+    </row>
+    <row r="328" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C328" s="7"/>
+      <c r="D328" s="7"/>
+    </row>
+    <row r="329" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C329" s="7"/>
+      <c r="D329" s="7"/>
+    </row>
+    <row r="330" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C330" s="7"/>
+      <c r="D330" s="7"/>
+    </row>
+    <row r="331" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C331" s="7"/>
+      <c r="D331" s="7"/>
+    </row>
+    <row r="332" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C332" s="7"/>
+      <c r="D332" s="7"/>
+    </row>
+    <row r="333" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C333" s="7"/>
+      <c r="D333" s="7"/>
+    </row>
+    <row r="334" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C334" s="7"/>
+      <c r="D334" s="7"/>
+    </row>
+    <row r="335" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C335" s="7"/>
+      <c r="D335" s="7"/>
+    </row>
+    <row r="336" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C336" s="7"/>
+      <c r="D336" s="7"/>
+    </row>
+    <row r="337" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C337" s="7"/>
+      <c r="D337" s="7"/>
+    </row>
+    <row r="338" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C338" s="7"/>
+      <c r="D338" s="7"/>
+    </row>
+    <row r="339" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C339" s="7"/>
+      <c r="D339" s="7"/>
+    </row>
+    <row r="340" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C340" s="7"/>
+      <c r="D340" s="7"/>
+    </row>
+    <row r="341" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C341" s="7"/>
+      <c r="D341" s="7"/>
+    </row>
+    <row r="342" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C342" s="7"/>
+      <c r="D342" s="7"/>
+    </row>
+    <row r="343" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C343" s="7"/>
+      <c r="D343" s="7"/>
+    </row>
+    <row r="344" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C344" s="7"/>
+      <c r="D344" s="7"/>
+    </row>
+    <row r="345" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C345" s="7"/>
+      <c r="D345" s="7"/>
+    </row>
+    <row r="346" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C346" s="7"/>
+      <c r="D346" s="7"/>
+    </row>
+    <row r="347" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C347" s="7"/>
+      <c r="D347" s="7"/>
+    </row>
+    <row r="348" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C348" s="7"/>
+      <c r="D348" s="7"/>
+    </row>
+    <row r="349" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C349" s="7"/>
+      <c r="D349" s="7"/>
+    </row>
+    <row r="350" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C350" s="7"/>
+      <c r="D350" s="7"/>
+    </row>
+    <row r="351" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C351" s="7"/>
+      <c r="D351" s="7"/>
+    </row>
+    <row r="352" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C352" s="7"/>
+      <c r="D352" s="7"/>
+    </row>
+    <row r="353" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C353" s="7"/>
+      <c r="D353" s="7"/>
+    </row>
+    <row r="354" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C354" s="7"/>
+      <c r="D354" s="7"/>
+    </row>
+    <row r="355" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C355" s="7"/>
+      <c r="D355" s="7"/>
+    </row>
+    <row r="356" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C356" s="7"/>
+      <c r="D356" s="7"/>
+    </row>
+    <row r="357" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C357" s="7"/>
+      <c r="D357" s="7"/>
+    </row>
+    <row r="358" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C358" s="7"/>
+      <c r="D358" s="7"/>
+    </row>
+    <row r="359" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C359" s="7"/>
+      <c r="D359" s="7"/>
+    </row>
+    <row r="360" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C360" s="7"/>
+      <c r="D360" s="7"/>
+    </row>
+    <row r="361" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C361" s="7"/>
+      <c r="D361" s="7"/>
+    </row>
+    <row r="362" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C362" s="7"/>
+      <c r="D362" s="7"/>
+    </row>
+    <row r="363" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C363" s="7"/>
+      <c r="D363" s="7"/>
+    </row>
+    <row r="364" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C364" s="7"/>
+      <c r="D364" s="7"/>
+    </row>
+    <row r="365" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C365" s="7"/>
+      <c r="D365" s="7"/>
+    </row>
+    <row r="366" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C366" s="7"/>
+      <c r="D366" s="7"/>
+    </row>
+    <row r="367" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C367" s="7"/>
+      <c r="D367" s="7"/>
+    </row>
+    <row r="368" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C368" s="7"/>
+      <c r="D368" s="7"/>
+    </row>
+    <row r="369" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C369" s="7"/>
+      <c r="D369" s="7"/>
+    </row>
+    <row r="370" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C370" s="7"/>
+      <c r="D370" s="7"/>
+    </row>
+    <row r="371" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C371" s="7"/>
+      <c r="D371" s="7"/>
+    </row>
+    <row r="372" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C372" s="7"/>
+      <c r="D372" s="7"/>
+    </row>
+    <row r="373" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C373" s="7"/>
+      <c r="D373" s="7"/>
+    </row>
+    <row r="374" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C374" s="7"/>
+      <c r="D374" s="7"/>
+    </row>
+    <row r="375" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C375" s="7"/>
+      <c r="D375" s="7"/>
+    </row>
+    <row r="376" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C376" s="7"/>
+      <c r="D376" s="7"/>
+    </row>
+    <row r="377" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C377" s="7"/>
+      <c r="D377" s="7"/>
+    </row>
+    <row r="378" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C378" s="7"/>
+      <c r="D378" s="7"/>
+    </row>
+    <row r="379" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C379" s="7"/>
+      <c r="D379" s="7"/>
+    </row>
+    <row r="380" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C380" s="7"/>
+      <c r="D380" s="7"/>
+    </row>
+    <row r="381" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C381" s="7"/>
+      <c r="D381" s="7"/>
+    </row>
+    <row r="382" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C382" s="7"/>
+      <c r="D382" s="7"/>
+    </row>
+    <row r="383" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C383" s="7"/>
+      <c r="D383" s="7"/>
+    </row>
+    <row r="384" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C384" s="7"/>
+      <c r="D384" s="7"/>
+    </row>
+    <row r="385" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C385" s="7"/>
+      <c r="D385" s="7"/>
+    </row>
+    <row r="386" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C386" s="7"/>
+      <c r="D386" s="7"/>
+    </row>
+    <row r="387" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C387" s="7"/>
+      <c r="D387" s="7"/>
+    </row>
+    <row r="388" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C388" s="7"/>
+      <c r="D388" s="7"/>
+    </row>
+    <row r="389" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C389" s="7"/>
+      <c r="D389" s="7"/>
+    </row>
+    <row r="390" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C390" s="7"/>
+      <c r="D390" s="7"/>
+    </row>
+    <row r="391" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C391" s="7"/>
+      <c r="D391" s="7"/>
+    </row>
+    <row r="392" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C392" s="7"/>
+      <c r="D392" s="7"/>
+    </row>
+    <row r="393" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C393" s="7"/>
+      <c r="D393" s="7"/>
+    </row>
+    <row r="394" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C394" s="7"/>
+      <c r="D394" s="7"/>
+    </row>
+    <row r="395" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C395" s="7"/>
+      <c r="D395" s="7"/>
+    </row>
+    <row r="396" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C396" s="7"/>
+      <c r="D396" s="7"/>
+    </row>
+    <row r="397" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C397" s="7"/>
+      <c r="D397" s="7"/>
+    </row>
+    <row r="398" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C398" s="7"/>
+      <c r="D398" s="7"/>
+    </row>
+    <row r="399" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C399" s="7"/>
+      <c r="D399" s="7"/>
+    </row>
+    <row r="400" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C400" s="7"/>
+      <c r="D400" s="7"/>
+    </row>
+    <row r="401" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C401" s="7"/>
+      <c r="D401" s="7"/>
+    </row>
+    <row r="402" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C402" s="7"/>
+      <c r="D402" s="7"/>
+    </row>
+    <row r="403" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C403" s="7"/>
+      <c r="D403" s="7"/>
+    </row>
+    <row r="404" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C404" s="7"/>
+      <c r="D404" s="7"/>
+    </row>
+    <row r="405" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C405" s="7"/>
+      <c r="D405" s="7"/>
+    </row>
+    <row r="406" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C406" s="7"/>
+      <c r="D406" s="7"/>
+    </row>
+    <row r="407" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C407" s="7"/>
+      <c r="D407" s="7"/>
+    </row>
+    <row r="408" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C408" s="7"/>
+      <c r="D408" s="7"/>
+    </row>
+    <row r="409" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C409" s="7"/>
+      <c r="D409" s="7"/>
+    </row>
+    <row r="410" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C410" s="7"/>
+      <c r="D410" s="7"/>
+    </row>
+    <row r="411" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C411" s="7"/>
+      <c r="D411" s="7"/>
+    </row>
+    <row r="412" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C412" s="7"/>
+      <c r="D412" s="7"/>
+    </row>
+    <row r="413" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C413" s="7"/>
+      <c r="D413" s="7"/>
+    </row>
+    <row r="414" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C414" s="7"/>
+      <c r="D414" s="7"/>
+    </row>
+    <row r="415" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C415" s="7"/>
+      <c r="D415" s="7"/>
+    </row>
+    <row r="416" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C416" s="7"/>
+      <c r="D416" s="7"/>
+    </row>
+    <row r="417" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C417" s="7"/>
+      <c r="D417" s="7"/>
+    </row>
+    <row r="418" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C418" s="7"/>
+      <c r="D418" s="7"/>
+    </row>
+    <row r="419" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C419" s="7"/>
+      <c r="D419" s="7"/>
+    </row>
+    <row r="420" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C420" s="7"/>
+      <c r="D420" s="7"/>
+    </row>
+    <row r="421" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C421" s="7"/>
+      <c r="D421" s="7"/>
+    </row>
+    <row r="422" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C422" s="7"/>
+      <c r="D422" s="7"/>
+    </row>
+    <row r="423" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C423" s="7"/>
+      <c r="D423" s="7"/>
+    </row>
+    <row r="424" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C424" s="7"/>
+      <c r="D424" s="7"/>
+    </row>
+    <row r="425" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C425" s="7"/>
+      <c r="D425" s="7"/>
+    </row>
+    <row r="426" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C426" s="7"/>
+      <c r="D426" s="7"/>
+    </row>
+    <row r="427" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C427" s="7"/>
+      <c r="D427" s="7"/>
+    </row>
+    <row r="428" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C428" s="7"/>
+      <c r="D428" s="7"/>
+    </row>
+    <row r="429" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C429" s="7"/>
+      <c r="D429" s="7"/>
+    </row>
+    <row r="430" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C430" s="7"/>
+      <c r="D430" s="7"/>
+    </row>
+    <row r="431" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C431" s="7"/>
+      <c r="D431" s="7"/>
+    </row>
+    <row r="432" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C432" s="7"/>
+      <c r="D432" s="7"/>
+    </row>
+    <row r="433" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C433" s="7"/>
+      <c r="D433" s="7"/>
+    </row>
+    <row r="434" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C434" s="7"/>
+      <c r="D434" s="7"/>
+    </row>
+    <row r="435" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C435" s="7"/>
+      <c r="D435" s="7"/>
+    </row>
+    <row r="436" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C436" s="7"/>
+      <c r="D436" s="7"/>
+    </row>
+    <row r="437" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C437" s="7"/>
+      <c r="D437" s="7"/>
+    </row>
+    <row r="438" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C438" s="7"/>
+      <c r="D438" s="7"/>
+    </row>
+    <row r="439" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C439" s="7"/>
+      <c r="D439" s="7"/>
+    </row>
+    <row r="440" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C440" s="7"/>
+      <c r="D440" s="7"/>
+    </row>
+    <row r="441" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C441" s="7"/>
+      <c r="D441" s="7"/>
+    </row>
+    <row r="442" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C442" s="7"/>
+      <c r="D442" s="7"/>
+    </row>
+    <row r="443" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C443" s="7"/>
+      <c r="D443" s="7"/>
+    </row>
+    <row r="444" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C444" s="7"/>
+      <c r="D444" s="7"/>
+    </row>
+    <row r="445" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C445" s="7"/>
+      <c r="D445" s="7"/>
+    </row>
+    <row r="446" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C446" s="7"/>
+      <c r="D446" s="7"/>
+    </row>
+    <row r="447" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C447" s="7"/>
+      <c r="D447" s="7"/>
+    </row>
+    <row r="448" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C448" s="7"/>
+      <c r="D448" s="7"/>
+    </row>
+    <row r="449" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C449" s="7"/>
+      <c r="D449" s="7"/>
+    </row>
+    <row r="450" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C450" s="7"/>
+      <c r="D450" s="7"/>
+    </row>
+    <row r="451" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C451" s="7"/>
+      <c r="D451" s="7"/>
+    </row>
+    <row r="452" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C452" s="7"/>
+      <c r="D452" s="7"/>
+    </row>
+    <row r="453" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C453" s="7"/>
+      <c r="D453" s="7"/>
+    </row>
+    <row r="454" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C454" s="7"/>
+      <c r="D454" s="7"/>
+    </row>
+    <row r="455" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C455" s="7"/>
+      <c r="D455" s="7"/>
+    </row>
+    <row r="456" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C456" s="7"/>
+      <c r="D456" s="7"/>
+    </row>
+    <row r="457" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C457" s="7"/>
+      <c r="D457" s="7"/>
+    </row>
+    <row r="458" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C458" s="7"/>
+      <c r="D458" s="7"/>
+    </row>
+    <row r="459" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C459" s="7"/>
+      <c r="D459" s="7"/>
+    </row>
+    <row r="460" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C460" s="7"/>
+      <c r="D460" s="7"/>
+    </row>
+    <row r="461" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C461" s="7"/>
+      <c r="D461" s="7"/>
+    </row>
+    <row r="462" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C462" s="7"/>
+      <c r="D462" s="7"/>
+    </row>
+    <row r="463" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C463" s="7"/>
+      <c r="D463" s="7"/>
+    </row>
+    <row r="464" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C464" s="7"/>
+      <c r="D464" s="7"/>
+    </row>
+    <row r="465" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C465" s="7"/>
+      <c r="D465" s="7"/>
+    </row>
+    <row r="466" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C466" s="7"/>
+      <c r="D466" s="7"/>
+    </row>
+    <row r="467" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C467" s="7"/>
+      <c r="D467" s="7"/>
+    </row>
+    <row r="468" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C468" s="7"/>
+      <c r="D468" s="7"/>
+    </row>
+    <row r="469" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C469" s="7"/>
+      <c r="D469" s="7"/>
+    </row>
+    <row r="470" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C470" s="7"/>
+      <c r="D470" s="7"/>
+    </row>
+    <row r="471" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C471" s="7"/>
+      <c r="D471" s="7"/>
+    </row>
+    <row r="472" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C472" s="7"/>
+      <c r="D472" s="7"/>
+    </row>
+    <row r="473" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C473" s="7"/>
+      <c r="D473" s="7"/>
+    </row>
+    <row r="474" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C474" s="7"/>
+      <c r="D474" s="7"/>
+    </row>
+    <row r="475" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C475" s="7"/>
+      <c r="D475" s="7"/>
+    </row>
+    <row r="476" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C476" s="7"/>
+      <c r="D476" s="7"/>
+    </row>
+    <row r="477" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C477" s="7"/>
+      <c r="D477" s="7"/>
+    </row>
+    <row r="478" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C478" s="7"/>
+      <c r="D478" s="7"/>
+    </row>
+    <row r="479" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C479" s="7"/>
+      <c r="D479" s="7"/>
+    </row>
+    <row r="480" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C480" s="7"/>
+      <c r="D480" s="7"/>
+    </row>
+    <row r="481" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C481" s="7"/>
+      <c r="D481" s="7"/>
+    </row>
+    <row r="482" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C482" s="7"/>
+      <c r="D482" s="7"/>
+    </row>
+    <row r="483" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C483" s="7"/>
+      <c r="D483" s="7"/>
+    </row>
+    <row r="484" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C484" s="7"/>
+      <c r="D484" s="7"/>
+    </row>
+    <row r="485" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C485" s="7"/>
+      <c r="D485" s="7"/>
+    </row>
+    <row r="486" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C486" s="7"/>
+      <c r="D486" s="7"/>
+    </row>
+    <row r="487" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C487" s="7"/>
+      <c r="D487" s="7"/>
+    </row>
+    <row r="488" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C488" s="7"/>
+      <c r="D488" s="7"/>
+    </row>
+    <row r="489" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C489" s="7"/>
+      <c r="D489" s="7"/>
+    </row>
+    <row r="490" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C490" s="7"/>
+      <c r="D490" s="7"/>
+    </row>
+    <row r="491" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C491" s="7"/>
+      <c r="D491" s="7"/>
+    </row>
+    <row r="492" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C492" s="7"/>
+      <c r="D492" s="7"/>
+    </row>
+    <row r="493" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C493" s="7"/>
+      <c r="D493" s="7"/>
+    </row>
+    <row r="494" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C494" s="7"/>
+      <c r="D494" s="7"/>
+    </row>
+    <row r="495" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C495" s="7"/>
+      <c r="D495" s="7"/>
+    </row>
+    <row r="496" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C496" s="7"/>
+      <c r="D496" s="7"/>
+    </row>
+    <row r="497" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C497" s="7"/>
+      <c r="D497" s="7"/>
+    </row>
+    <row r="498" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C498" s="7"/>
+      <c r="D498" s="7"/>
+    </row>
+    <row r="499" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C499" s="7"/>
+      <c r="D499" s="7"/>
+    </row>
+    <row r="500" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C500" s="7"/>
+      <c r="D500" s="7"/>
+    </row>
+    <row r="501" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C501" s="7"/>
+      <c r="D501" s="7"/>
+    </row>
+    <row r="502" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C502" s="7"/>
+      <c r="D502" s="7"/>
+    </row>
+    <row r="503" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C503" s="7"/>
+      <c r="D503" s="7"/>
+    </row>
+    <row r="504" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C504" s="7"/>
+      <c r="D504" s="7"/>
+    </row>
+    <row r="505" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C505" s="7"/>
+      <c r="D505" s="7"/>
+    </row>
+    <row r="506" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C506" s="7"/>
+      <c r="D506" s="7"/>
+    </row>
+    <row r="507" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C507" s="7"/>
+      <c r="D507" s="7"/>
+    </row>
+    <row r="508" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C508" s="7"/>
+      <c r="D508" s="7"/>
+    </row>
+    <row r="509" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C509" s="7"/>
+      <c r="D509" s="7"/>
+    </row>
+    <row r="510" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C510" s="7"/>
+      <c r="D510" s="7"/>
+    </row>
+    <row r="511" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C511" s="7"/>
+      <c r="D511" s="7"/>
+    </row>
+    <row r="512" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C512" s="7"/>
+      <c r="D512" s="7"/>
+    </row>
+    <row r="513" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C513" s="7"/>
+      <c r="D513" s="7"/>
+    </row>
+    <row r="514" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C514" s="7"/>
+      <c r="D514" s="7"/>
+    </row>
+    <row r="515" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C515" s="7"/>
+      <c r="D515" s="7"/>
+    </row>
+    <row r="516" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C516" s="7"/>
+      <c r="D516" s="7"/>
+    </row>
+    <row r="517" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C517" s="7"/>
+      <c r="D517" s="7"/>
+    </row>
+    <row r="518" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C518" s="7"/>
+      <c r="D518" s="7"/>
+    </row>
+    <row r="519" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C519" s="7"/>
+      <c r="D519" s="7"/>
+    </row>
+    <row r="520" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C520" s="7"/>
+      <c r="D520" s="7"/>
+    </row>
+    <row r="521" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C521" s="7"/>
+      <c r="D521" s="7"/>
+    </row>
+    <row r="522" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C522" s="7"/>
+      <c r="D522" s="7"/>
+    </row>
+    <row r="523" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C523" s="7"/>
+      <c r="D523" s="7"/>
+    </row>
+    <row r="524" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C524" s="7"/>
+      <c r="D524" s="7"/>
+    </row>
+    <row r="525" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C525" s="7"/>
+      <c r="D525" s="7"/>
+    </row>
+    <row r="526" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C526" s="7"/>
+      <c r="D526" s="7"/>
+    </row>
+    <row r="527" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C527" s="7"/>
+      <c r="D527" s="7"/>
+    </row>
+    <row r="528" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C528" s="7"/>
+      <c r="D528" s="7"/>
+    </row>
+    <row r="529" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C529" s="7"/>
+      <c r="D529" s="7"/>
+    </row>
+    <row r="530" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C530" s="7"/>
+      <c r="D530" s="7"/>
+    </row>
+    <row r="531" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C531" s="7"/>
+      <c r="D531" s="7"/>
+    </row>
+    <row r="532" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C532" s="7"/>
+      <c r="D532" s="7"/>
+    </row>
+    <row r="533" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C533" s="7"/>
+      <c r="D533" s="7"/>
+    </row>
+    <row r="534" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C534" s="7"/>
+      <c r="D534" s="7"/>
+    </row>
+    <row r="535" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C535" s="7"/>
+      <c r="D535" s="7"/>
+    </row>
+    <row r="536" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C536" s="7"/>
+      <c r="D536" s="7"/>
+    </row>
+    <row r="537" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C537" s="7"/>
+      <c r="D537" s="7"/>
+    </row>
+    <row r="538" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C538" s="7"/>
+      <c r="D538" s="7"/>
+    </row>
+    <row r="539" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C539" s="7"/>
+      <c r="D539" s="7"/>
+    </row>
+    <row r="540" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C540" s="7"/>
+      <c r="D540" s="7"/>
+    </row>
+    <row r="541" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C541" s="7"/>
+      <c r="D541" s="7"/>
+    </row>
+    <row r="542" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C542" s="7"/>
+      <c r="D542" s="7"/>
+    </row>
+    <row r="543" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C543" s="7"/>
+      <c r="D543" s="7"/>
+    </row>
+    <row r="544" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C544" s="7"/>
+      <c r="D544" s="7"/>
+    </row>
+    <row r="545" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C545" s="7"/>
+      <c r="D545" s="7"/>
+    </row>
+    <row r="546" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C546" s="7"/>
+      <c r="D546" s="7"/>
+    </row>
+    <row r="547" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C547" s="7"/>
+      <c r="D547" s="7"/>
+    </row>
+    <row r="548" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C548" s="7"/>
+      <c r="D548" s="7"/>
+    </row>
+    <row r="549" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C549" s="7"/>
+      <c r="D549" s="7"/>
+    </row>
+    <row r="550" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C550" s="7"/>
+      <c r="D550" s="7"/>
+    </row>
+    <row r="551" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C551" s="7"/>
+      <c r="D551" s="7"/>
+    </row>
+    <row r="552" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C552" s="7"/>
+      <c r="D552" s="7"/>
+    </row>
+    <row r="553" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C553" s="7"/>
+      <c r="D553" s="7"/>
+    </row>
+    <row r="554" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C554" s="7"/>
+      <c r="D554" s="7"/>
+    </row>
+    <row r="555" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C555" s="7"/>
+      <c r="D555" s="7"/>
+    </row>
+    <row r="556" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C556" s="7"/>
+      <c r="D556" s="7"/>
+    </row>
+    <row r="557" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C557" s="7"/>
+      <c r="D557" s="7"/>
+    </row>
+    <row r="558" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C558" s="7"/>
+      <c r="D558" s="7"/>
+    </row>
+    <row r="559" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C559" s="7"/>
+      <c r="D559" s="7"/>
+    </row>
+    <row r="560" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C560" s="7"/>
+      <c r="D560" s="7"/>
+    </row>
+    <row r="561" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C561" s="7"/>
+      <c r="D561" s="7"/>
+    </row>
+    <row r="562" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C562" s="7"/>
+      <c r="D562" s="7"/>
+    </row>
+    <row r="563" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C563" s="7"/>
+      <c r="D563" s="7"/>
+    </row>
+    <row r="564" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C564" s="7"/>
+      <c r="D564" s="7"/>
+    </row>
+    <row r="565" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C565" s="7"/>
+      <c r="D565" s="7"/>
+    </row>
+    <row r="566" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C566" s="7"/>
+      <c r="D566" s="7"/>
+    </row>
+    <row r="567" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C567" s="7"/>
+      <c r="D567" s="7"/>
+    </row>
+    <row r="568" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C568" s="7"/>
+      <c r="D568" s="7"/>
+    </row>
+    <row r="569" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C569" s="7"/>
+      <c r="D569" s="7"/>
+    </row>
+    <row r="570" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C570" s="7"/>
+      <c r="D570" s="7"/>
+    </row>
+    <row r="571" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C571" s="7"/>
+      <c r="D571" s="7"/>
+    </row>
+    <row r="572" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C572" s="7"/>
+      <c r="D572" s="7"/>
+    </row>
+    <row r="573" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C573" s="7"/>
+      <c r="D573" s="7"/>
+    </row>
+    <row r="574" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C574" s="7"/>
+      <c r="D574" s="7"/>
+    </row>
+    <row r="575" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C575" s="7"/>
+      <c r="D575" s="7"/>
+    </row>
+    <row r="576" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C576" s="7"/>
+      <c r="D576" s="7"/>
+    </row>
+    <row r="577" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C577" s="7"/>
+      <c r="D577" s="7"/>
+    </row>
+    <row r="578" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C578" s="7"/>
+      <c r="D578" s="7"/>
+    </row>
+    <row r="579" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C579" s="7"/>
+      <c r="D579" s="7"/>
+    </row>
+    <row r="580" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C580" s="7"/>
+      <c r="D580" s="7"/>
+    </row>
+    <row r="581" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C581" s="7"/>
+      <c r="D581" s="7"/>
+    </row>
+    <row r="582" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C582" s="7"/>
+      <c r="D582" s="7"/>
+    </row>
+    <row r="583" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C583" s="7"/>
+      <c r="D583" s="7"/>
+    </row>
+    <row r="584" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C584" s="7"/>
+      <c r="D584" s="7"/>
+    </row>
+    <row r="585" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C585" s="7"/>
+      <c r="D585" s="7"/>
+    </row>
+    <row r="586" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C586" s="7"/>
+      <c r="D586" s="7"/>
+    </row>
+    <row r="587" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C587" s="7"/>
+      <c r="D587" s="7"/>
+    </row>
+    <row r="588" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C588" s="7"/>
+      <c r="D588" s="7"/>
+    </row>
+    <row r="589" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C589" s="7"/>
+      <c r="D589" s="7"/>
+    </row>
+    <row r="590" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C590" s="7"/>
+      <c r="D590" s="7"/>
+    </row>
+    <row r="591" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C591" s="7"/>
+      <c r="D591" s="7"/>
+    </row>
+    <row r="592" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C592" s="7"/>
+      <c r="D592" s="7"/>
+    </row>
+    <row r="593" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C593" s="7"/>
+      <c r="D593" s="7"/>
+    </row>
+    <row r="594" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C594" s="7"/>
+      <c r="D594" s="7"/>
+    </row>
+    <row r="595" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C595" s="7"/>
+      <c r="D595" s="7"/>
+    </row>
+    <row r="596" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C596" s="7"/>
+      <c r="D596" s="7"/>
+    </row>
+    <row r="597" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C597" s="7"/>
+      <c r="D597" s="7"/>
+    </row>
+    <row r="598" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C598" s="7"/>
+      <c r="D598" s="7"/>
+    </row>
+    <row r="599" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C599" s="7"/>
+      <c r="D599" s="7"/>
+    </row>
+    <row r="600" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C600" s="7"/>
+      <c r="D600" s="7"/>
+    </row>
+    <row r="601" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C601" s="7"/>
+      <c r="D601" s="7"/>
+    </row>
+    <row r="602" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C602" s="7"/>
+      <c r="D602" s="7"/>
+    </row>
+    <row r="603" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C603" s="7"/>
+      <c r="D603" s="7"/>
+    </row>
+    <row r="604" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C604" s="7"/>
+      <c r="D604" s="7"/>
+    </row>
+    <row r="605" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C605" s="7"/>
+      <c r="D605" s="7"/>
+    </row>
+    <row r="606" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C606" s="7"/>
+      <c r="D606" s="7"/>
+    </row>
+    <row r="607" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C607" s="7"/>
+      <c r="D607" s="7"/>
+    </row>
+    <row r="608" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C608" s="7"/>
+      <c r="D608" s="7"/>
+    </row>
+    <row r="609" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C609" s="7"/>
+      <c r="D609" s="7"/>
+    </row>
+    <row r="610" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C610" s="7"/>
+      <c r="D610" s="7"/>
+    </row>
+    <row r="611" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C611" s="7"/>
+      <c r="D611" s="7"/>
+    </row>
+    <row r="612" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C612" s="7"/>
+      <c r="D612" s="7"/>
+    </row>
+    <row r="613" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C613" s="7"/>
+      <c r="D613" s="7"/>
+    </row>
+    <row r="614" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C614" s="7"/>
+      <c r="D614" s="7"/>
+    </row>
+    <row r="615" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C615" s="7"/>
+      <c r="D615" s="7"/>
+    </row>
+    <row r="616" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C616" s="7"/>
+      <c r="D616" s="7"/>
+    </row>
+    <row r="617" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C617" s="7"/>
+      <c r="D617" s="7"/>
+    </row>
+    <row r="618" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C618" s="7"/>
+      <c r="D618" s="7"/>
+    </row>
+    <row r="619" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C619" s="7"/>
+      <c r="D619" s="7"/>
+    </row>
+    <row r="620" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C620" s="7"/>
+      <c r="D620" s="7"/>
+    </row>
+    <row r="621" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C621" s="7"/>
+      <c r="D621" s="7"/>
+    </row>
+    <row r="622" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C622" s="7"/>
+      <c r="D622" s="7"/>
+    </row>
+    <row r="623" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C623" s="7"/>
+      <c r="D623" s="7"/>
+    </row>
+    <row r="624" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C624" s="7"/>
+      <c r="D624" s="7"/>
+    </row>
+    <row r="625" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C625" s="7"/>
+      <c r="D625" s="7"/>
+    </row>
+    <row r="626" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C626" s="7"/>
+      <c r="D626" s="7"/>
+    </row>
+    <row r="627" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C627" s="7"/>
+      <c r="D627" s="7"/>
+    </row>
+    <row r="628" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C628" s="7"/>
+      <c r="D628" s="7"/>
+    </row>
+    <row r="629" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C629" s="7"/>
+      <c r="D629" s="7"/>
+    </row>
+    <row r="630" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C630" s="7"/>
+      <c r="D630" s="7"/>
+    </row>
+    <row r="631" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C631" s="7"/>
+      <c r="D631" s="7"/>
+    </row>
+    <row r="632" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C632" s="7"/>
+      <c r="D632" s="7"/>
+    </row>
+    <row r="633" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C633" s="7"/>
+      <c r="D633" s="7"/>
+    </row>
+    <row r="634" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C634" s="7"/>
+      <c r="D634" s="7"/>
+    </row>
+    <row r="635" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C635" s="7"/>
+      <c r="D635" s="7"/>
+    </row>
+    <row r="636" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C636" s="7"/>
+      <c r="D636" s="7"/>
+    </row>
+    <row r="637" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C637" s="7"/>
+      <c r="D637" s="7"/>
+    </row>
+    <row r="638" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C638" s="7"/>
+      <c r="D638" s="7"/>
+    </row>
+    <row r="639" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C639" s="7"/>
+      <c r="D639" s="7"/>
+    </row>
+    <row r="640" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C640" s="7"/>
+      <c r="D640" s="7"/>
+    </row>
+    <row r="641" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C641" s="7"/>
+      <c r="D641" s="7"/>
+    </row>
+    <row r="642" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C642" s="7"/>
+      <c r="D642" s="7"/>
+    </row>
+    <row r="643" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C643" s="7"/>
+      <c r="D643" s="7"/>
+    </row>
+    <row r="644" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C644" s="7"/>
+      <c r="D644" s="7"/>
+    </row>
+    <row r="645" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C645" s="7"/>
+      <c r="D645" s="7"/>
+    </row>
+    <row r="646" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C646" s="7"/>
+      <c r="D646" s="7"/>
+    </row>
+    <row r="647" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C647" s="7"/>
+      <c r="D647" s="7"/>
+    </row>
+    <row r="648" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C648" s="7"/>
+      <c r="D648" s="7"/>
+    </row>
+    <row r="649" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C649" s="7"/>
+      <c r="D649" s="7"/>
+    </row>
+    <row r="650" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C650" s="7"/>
+      <c r="D650" s="7"/>
+    </row>
+    <row r="651" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C651" s="7"/>
+      <c r="D651" s="7"/>
+    </row>
+    <row r="652" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C652" s="7"/>
+      <c r="D652" s="7"/>
+    </row>
+    <row r="653" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C653" s="7"/>
+      <c r="D653" s="7"/>
+    </row>
+    <row r="654" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C654" s="7"/>
+      <c r="D654" s="7"/>
+    </row>
+    <row r="655" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C655" s="7"/>
+      <c r="D655" s="7"/>
+    </row>
+    <row r="656" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C656" s="7"/>
+      <c r="D656" s="7"/>
+    </row>
+    <row r="657" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C657" s="7"/>
+      <c r="D657" s="7"/>
+    </row>
+    <row r="658" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C658" s="7"/>
+      <c r="D658" s="7"/>
+    </row>
+    <row r="659" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C659" s="7"/>
+      <c r="D659" s="7"/>
+    </row>
+    <row r="660" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C660" s="7"/>
+      <c r="D660" s="7"/>
+    </row>
+    <row r="661" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C661" s="7"/>
+      <c r="D661" s="7"/>
+    </row>
+    <row r="662" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C662" s="7"/>
+      <c r="D662" s="7"/>
+    </row>
+    <row r="663" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C663" s="7"/>
+      <c r="D663" s="7"/>
+    </row>
+    <row r="664" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C664" s="7"/>
+      <c r="D664" s="7"/>
+    </row>
+    <row r="665" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C665" s="7"/>
+      <c r="D665" s="7"/>
+    </row>
+    <row r="666" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C666" s="7"/>
+      <c r="D666" s="7"/>
+    </row>
+    <row r="667" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C667" s="7"/>
+      <c r="D667" s="7"/>
+    </row>
+    <row r="668" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C668" s="7"/>
+      <c r="D668" s="7"/>
+    </row>
+    <row r="669" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C669" s="7"/>
+      <c r="D669" s="7"/>
+    </row>
+    <row r="670" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C670" s="7"/>
+      <c r="D670" s="7"/>
+    </row>
+    <row r="671" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C671" s="7"/>
+      <c r="D671" s="7"/>
+    </row>
+    <row r="672" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C672" s="7"/>
+      <c r="D672" s="7"/>
+    </row>
+    <row r="673" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C673" s="7"/>
+      <c r="D673" s="7"/>
+    </row>
+    <row r="674" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C674" s="7"/>
+      <c r="D674" s="7"/>
+    </row>
+    <row r="675" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C675" s="7"/>
+      <c r="D675" s="7"/>
+    </row>
+    <row r="676" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C676" s="7"/>
+      <c r="D676" s="7"/>
+    </row>
+    <row r="677" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C677" s="7"/>
+      <c r="D677" s="7"/>
+    </row>
+    <row r="678" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C678" s="7"/>
+      <c r="D678" s="7"/>
+    </row>
+    <row r="679" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C679" s="7"/>
+      <c r="D679" s="7"/>
+    </row>
+    <row r="680" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C680" s="7"/>
+      <c r="D680" s="7"/>
+    </row>
+    <row r="681" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C681" s="7"/>
+      <c r="D681" s="7"/>
+    </row>
+    <row r="682" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C682" s="7"/>
+      <c r="D682" s="7"/>
+    </row>
+    <row r="683" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C683" s="7"/>
+      <c r="D683" s="7"/>
+    </row>
+    <row r="684" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C684" s="7"/>
+      <c r="D684" s="7"/>
+    </row>
+    <row r="685" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C685" s="7"/>
+      <c r="D685" s="7"/>
+    </row>
+    <row r="686" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C686" s="7"/>
+      <c r="D686" s="7"/>
+    </row>
+    <row r="687" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C687" s="7"/>
+      <c r="D687" s="7"/>
+    </row>
+    <row r="688" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C688" s="7"/>
+      <c r="D688" s="7"/>
+    </row>
+    <row r="689" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C689" s="7"/>
+      <c r="D689" s="7"/>
+    </row>
+    <row r="690" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C690" s="7"/>
+      <c r="D690" s="7"/>
+    </row>
+    <row r="691" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C691" s="7"/>
+      <c r="D691" s="7"/>
+    </row>
+    <row r="692" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C692" s="7"/>
+      <c r="D692" s="7"/>
+    </row>
+    <row r="693" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C693" s="7"/>
+      <c r="D693" s="7"/>
+    </row>
+    <row r="694" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C694" s="7"/>
+      <c r="D694" s="7"/>
+    </row>
+    <row r="695" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C695" s="7"/>
+      <c r="D695" s="7"/>
+    </row>
+    <row r="696" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C696" s="7"/>
+      <c r="D696" s="7"/>
+    </row>
+    <row r="697" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C697" s="7"/>
+      <c r="D697" s="7"/>
+    </row>
+    <row r="698" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C698" s="7"/>
+      <c r="D698" s="7"/>
+    </row>
+    <row r="699" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C699" s="7"/>
+      <c r="D699" s="7"/>
+    </row>
+    <row r="700" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C700" s="7"/>
+      <c r="D700" s="7"/>
+    </row>
+    <row r="701" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C701" s="7"/>
+      <c r="D701" s="7"/>
+    </row>
+    <row r="702" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C702" s="7"/>
+      <c r="D702" s="7"/>
+    </row>
+    <row r="703" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C703" s="7"/>
+      <c r="D703" s="7"/>
+    </row>
+    <row r="704" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C704" s="7"/>
+      <c r="D704" s="7"/>
+    </row>
+    <row r="705" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C705" s="7"/>
+      <c r="D705" s="7"/>
+    </row>
+    <row r="706" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C706" s="7"/>
+      <c r="D706" s="7"/>
+    </row>
+    <row r="707" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C707" s="7"/>
+      <c r="D707" s="7"/>
+    </row>
+    <row r="708" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C708" s="7"/>
+      <c r="D708" s="7"/>
+    </row>
+    <row r="709" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C709" s="7"/>
+      <c r="D709" s="7"/>
+    </row>
+    <row r="710" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C710" s="7"/>
+      <c r="D710" s="7"/>
+    </row>
+    <row r="711" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C711" s="7"/>
+      <c r="D711" s="7"/>
+    </row>
+    <row r="712" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C712" s="7"/>
+      <c r="D712" s="7"/>
+    </row>
+    <row r="713" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C713" s="7"/>
+      <c r="D713" s="7"/>
+    </row>
+    <row r="714" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C714" s="7"/>
+      <c r="D714" s="7"/>
+    </row>
+    <row r="715" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C715" s="7"/>
+      <c r="D715" s="7"/>
+    </row>
+    <row r="716" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C716" s="7"/>
+      <c r="D716" s="7"/>
+    </row>
+    <row r="717" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C717" s="7"/>
+      <c r="D717" s="7"/>
+    </row>
+    <row r="718" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C718" s="7"/>
+      <c r="D718" s="7"/>
+    </row>
+    <row r="719" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C719" s="7"/>
+      <c r="D719" s="7"/>
+    </row>
+    <row r="720" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C720" s="7"/>
+      <c r="D720" s="7"/>
+    </row>
+    <row r="721" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C721" s="7"/>
+      <c r="D721" s="7"/>
+    </row>
+    <row r="722" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C722" s="7"/>
+      <c r="D722" s="7"/>
+    </row>
+    <row r="723" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C723" s="7"/>
+      <c r="D723" s="7"/>
+    </row>
+    <row r="724" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C724" s="7"/>
+      <c r="D724" s="7"/>
+    </row>
+    <row r="725" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C725" s="7"/>
+      <c r="D725" s="7"/>
+    </row>
+    <row r="726" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C726" s="7"/>
+      <c r="D726" s="7"/>
+    </row>
+    <row r="727" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C727" s="7"/>
+      <c r="D727" s="7"/>
+    </row>
+    <row r="728" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C728" s="7"/>
+      <c r="D728" s="7"/>
+    </row>
+    <row r="729" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C729" s="7"/>
+      <c r="D729" s="7"/>
+    </row>
+    <row r="730" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C730" s="7"/>
+      <c r="D730" s="7"/>
+    </row>
+    <row r="731" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C731" s="7"/>
+      <c r="D731" s="7"/>
+    </row>
+    <row r="732" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C732" s="7"/>
+      <c r="D732" s="7"/>
+    </row>
+    <row r="733" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C733" s="7"/>
+      <c r="D733" s="7"/>
+    </row>
+    <row r="734" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C734" s="7"/>
+      <c r="D734" s="7"/>
+    </row>
+    <row r="735" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C735" s="7"/>
+      <c r="D735" s="7"/>
+    </row>
+    <row r="736" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C736" s="7"/>
+      <c r="D736" s="7"/>
+    </row>
+    <row r="737" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C737" s="7"/>
+      <c r="D737" s="7"/>
+    </row>
+    <row r="738" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C738" s="7"/>
+      <c r="D738" s="7"/>
+    </row>
+    <row r="739" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C739" s="7"/>
+      <c r="D739" s="7"/>
+    </row>
+    <row r="740" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C740" s="7"/>
+      <c r="D740" s="7"/>
+    </row>
+    <row r="741" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C741" s="7"/>
+      <c r="D741" s="7"/>
+    </row>
+    <row r="742" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C742" s="7"/>
+      <c r="D742" s="7"/>
+    </row>
+    <row r="743" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C743" s="7"/>
+      <c r="D743" s="7"/>
+    </row>
+    <row r="744" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C744" s="7"/>
+      <c r="D744" s="7"/>
+    </row>
+    <row r="745" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C745" s="7"/>
+      <c r="D745" s="7"/>
+    </row>
+    <row r="746" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C746" s="7"/>
+      <c r="D746" s="7"/>
+    </row>
+    <row r="747" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C747" s="7"/>
+      <c r="D747" s="7"/>
+    </row>
+    <row r="748" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C748" s="7"/>
+      <c r="D748" s="7"/>
+    </row>
+    <row r="749" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C749" s="7"/>
+      <c r="D749" s="7"/>
+    </row>
+    <row r="750" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C750" s="7"/>
+      <c r="D750" s="7"/>
+    </row>
+    <row r="751" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C751" s="7"/>
+      <c r="D751" s="7"/>
+    </row>
+    <row r="752" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C752" s="7"/>
+      <c r="D752" s="7"/>
+    </row>
+    <row r="753" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C753" s="7"/>
+      <c r="D753" s="7"/>
+    </row>
+    <row r="754" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C754" s="7"/>
+      <c r="D754" s="7"/>
+    </row>
+    <row r="755" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C755" s="7"/>
+      <c r="D755" s="7"/>
+    </row>
+    <row r="756" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C756" s="7"/>
+      <c r="D756" s="7"/>
+    </row>
+    <row r="757" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C757" s="7"/>
+      <c r="D757" s="7"/>
+    </row>
+    <row r="758" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C758" s="7"/>
+      <c r="D758" s="7"/>
+    </row>
+    <row r="759" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C759" s="7"/>
+      <c r="D759" s="7"/>
+    </row>
+    <row r="760" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C760" s="7"/>
+      <c r="D760" s="7"/>
+    </row>
+    <row r="761" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C761" s="7"/>
+      <c r="D761" s="7"/>
+    </row>
+    <row r="762" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C762" s="7"/>
+      <c r="D762" s="7"/>
+    </row>
+    <row r="763" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C763" s="7"/>
+      <c r="D763" s="7"/>
+    </row>
+    <row r="764" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C764" s="7"/>
+      <c r="D764" s="7"/>
+    </row>
+    <row r="765" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C765" s="7"/>
+      <c r="D765" s="7"/>
+    </row>
+    <row r="766" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C766" s="7"/>
+      <c r="D766" s="7"/>
+    </row>
+    <row r="767" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C767" s="7"/>
+      <c r="D767" s="7"/>
+    </row>
+    <row r="768" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C768" s="7"/>
+      <c r="D768" s="7"/>
+    </row>
+    <row r="769" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C769" s="7"/>
+      <c r="D769" s="7"/>
+    </row>
+    <row r="770" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C770" s="7"/>
+      <c r="D770" s="7"/>
+    </row>
+    <row r="771" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C771" s="7"/>
+      <c r="D771" s="7"/>
+    </row>
+    <row r="772" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C772" s="7"/>
+      <c r="D772" s="7"/>
+    </row>
+    <row r="773" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C773" s="7"/>
+      <c r="D773" s="7"/>
+    </row>
+    <row r="774" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C774" s="7"/>
+      <c r="D774" s="7"/>
+    </row>
+    <row r="775" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C775" s="7"/>
+      <c r="D775" s="7"/>
+    </row>
+    <row r="776" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C776" s="7"/>
+      <c r="D776" s="7"/>
+    </row>
+    <row r="777" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C777" s="7"/>
+      <c r="D777" s="7"/>
+    </row>
+    <row r="778" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C778" s="7"/>
+      <c r="D778" s="7"/>
+    </row>
+    <row r="779" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C779" s="7"/>
+      <c r="D779" s="7"/>
+    </row>
+    <row r="780" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C780" s="7"/>
+      <c r="D780" s="7"/>
+    </row>
+    <row r="781" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C781" s="7"/>
+      <c r="D781" s="7"/>
+    </row>
+    <row r="782" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C782" s="7"/>
+      <c r="D782" s="7"/>
+    </row>
+    <row r="783" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C783" s="7"/>
+      <c r="D783" s="7"/>
+    </row>
+    <row r="784" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C784" s="7"/>
+      <c r="D784" s="7"/>
+    </row>
+    <row r="785" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C785" s="7"/>
+      <c r="D785" s="7"/>
+    </row>
+    <row r="786" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C786" s="7"/>
+      <c r="D786" s="7"/>
+    </row>
+    <row r="787" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C787" s="7"/>
+      <c r="D787" s="7"/>
+    </row>
+    <row r="788" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C788" s="7"/>
+      <c r="D788" s="7"/>
+    </row>
+    <row r="789" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C789" s="7"/>
+      <c r="D789" s="7"/>
+    </row>
+    <row r="790" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C790" s="7"/>
+      <c r="D790" s="7"/>
+    </row>
+    <row r="791" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C791" s="7"/>
+      <c r="D791" s="7"/>
+    </row>
+    <row r="792" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C792" s="7"/>
+      <c r="D792" s="7"/>
+    </row>
+    <row r="793" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C793" s="7"/>
+      <c r="D793" s="7"/>
+    </row>
+    <row r="794" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C794" s="7"/>
+      <c r="D794" s="7"/>
+    </row>
+    <row r="795" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C795" s="7"/>
+      <c r="D795" s="7"/>
+    </row>
+    <row r="796" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C796" s="7"/>
+      <c r="D796" s="7"/>
+    </row>
+    <row r="797" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C797" s="7"/>
+      <c r="D797" s="7"/>
+    </row>
+    <row r="798" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C798" s="7"/>
+      <c r="D798" s="7"/>
+    </row>
+    <row r="799" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C799" s="7"/>
+      <c r="D799" s="7"/>
+    </row>
+    <row r="800" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C800" s="7"/>
+      <c r="D800" s="7"/>
+    </row>
+    <row r="801" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C801" s="7"/>
+      <c r="D801" s="7"/>
+    </row>
+    <row r="802" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C802" s="7"/>
+      <c r="D802" s="7"/>
+    </row>
+    <row r="803" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C803" s="7"/>
+      <c r="D803" s="7"/>
+    </row>
+    <row r="804" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C804" s="7"/>
+      <c r="D804" s="7"/>
+    </row>
+    <row r="805" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C805" s="7"/>
+      <c r="D805" s="7"/>
+    </row>
+    <row r="806" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C806" s="7"/>
+      <c r="D806" s="7"/>
+    </row>
+    <row r="807" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C807" s="7"/>
+      <c r="D807" s="7"/>
+    </row>
+    <row r="808" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C808" s="7"/>
+      <c r="D808" s="7"/>
+    </row>
+    <row r="809" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C809" s="7"/>
+      <c r="D809" s="7"/>
+    </row>
+    <row r="810" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C810" s="7"/>
+      <c r="D810" s="7"/>
+    </row>
+    <row r="811" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C811" s="7"/>
+      <c r="D811" s="7"/>
+    </row>
+    <row r="812" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C812" s="7"/>
+      <c r="D812" s="7"/>
+    </row>
+    <row r="813" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C813" s="7"/>
+      <c r="D813" s="7"/>
+    </row>
+    <row r="814" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C814" s="7"/>
+      <c r="D814" s="7"/>
+    </row>
+    <row r="815" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C815" s="7"/>
+      <c r="D815" s="7"/>
+    </row>
+    <row r="816" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C816" s="7"/>
+      <c r="D816" s="7"/>
+    </row>
+    <row r="817" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C817" s="7"/>
+      <c r="D817" s="7"/>
+    </row>
+    <row r="818" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C818" s="7"/>
+      <c r="D818" s="7"/>
+    </row>
+    <row r="819" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C819" s="7"/>
+      <c r="D819" s="7"/>
+    </row>
+    <row r="820" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C820" s="7"/>
+      <c r="D820" s="7"/>
+    </row>
+    <row r="821" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C821" s="7"/>
+      <c r="D821" s="7"/>
+    </row>
+    <row r="822" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C822" s="7"/>
+      <c r="D822" s="7"/>
+    </row>
+    <row r="823" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C823" s="7"/>
+      <c r="D823" s="7"/>
+    </row>
+    <row r="824" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C824" s="7"/>
+      <c r="D824" s="7"/>
+    </row>
+    <row r="825" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C825" s="7"/>
+      <c r="D825" s="7"/>
+    </row>
+    <row r="826" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C826" s="7"/>
+      <c r="D826" s="7"/>
+    </row>
+    <row r="827" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C827" s="7"/>
+      <c r="D827" s="7"/>
+    </row>
+    <row r="828" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C828" s="7"/>
+      <c r="D828" s="7"/>
+    </row>
+    <row r="829" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C829" s="7"/>
+      <c r="D829" s="7"/>
+    </row>
+    <row r="830" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C830" s="7"/>
+      <c r="D830" s="7"/>
+    </row>
+    <row r="831" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C831" s="7"/>
+      <c r="D831" s="7"/>
+    </row>
+    <row r="832" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C832" s="7"/>
+      <c r="D832" s="7"/>
+    </row>
+    <row r="833" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C833" s="7"/>
+      <c r="D833" s="7"/>
+    </row>
+    <row r="834" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C834" s="7"/>
+      <c r="D834" s="7"/>
+    </row>
+    <row r="835" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C835" s="7"/>
+      <c r="D835" s="7"/>
+    </row>
+    <row r="836" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C836" s="7"/>
+      <c r="D836" s="7"/>
+    </row>
+    <row r="837" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C837" s="7"/>
+      <c r="D837" s="7"/>
+    </row>
+    <row r="838" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C838" s="7"/>
+      <c r="D838" s="7"/>
+    </row>
+    <row r="839" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C839" s="7"/>
+      <c r="D839" s="7"/>
+    </row>
+    <row r="840" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C840" s="7"/>
+      <c r="D840" s="7"/>
+    </row>
+    <row r="841" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C841" s="7"/>
+      <c r="D841" s="7"/>
+    </row>
+    <row r="842" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C842" s="7"/>
+      <c r="D842" s="7"/>
+    </row>
+    <row r="843" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C843" s="7"/>
+      <c r="D843" s="7"/>
+    </row>
+    <row r="844" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C844" s="7"/>
+      <c r="D844" s="7"/>
+    </row>
+    <row r="845" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C845" s="7"/>
+      <c r="D845" s="7"/>
+    </row>
+    <row r="846" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C846" s="7"/>
+      <c r="D846" s="7"/>
+    </row>
+    <row r="847" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C847" s="7"/>
+      <c r="D847" s="7"/>
+    </row>
+    <row r="848" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C848" s="7"/>
+      <c r="D848" s="7"/>
+    </row>
+    <row r="849" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C849" s="7"/>
+      <c r="D849" s="7"/>
+    </row>
+    <row r="850" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C850" s="7"/>
+      <c r="D850" s="7"/>
+    </row>
+    <row r="851" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C851" s="7"/>
+      <c r="D851" s="7"/>
+    </row>
+    <row r="852" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C852" s="7"/>
+      <c r="D852" s="7"/>
+    </row>
+    <row r="853" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C853" s="7"/>
+      <c r="D853" s="7"/>
+    </row>
+    <row r="854" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C854" s="7"/>
+      <c r="D854" s="7"/>
+    </row>
+    <row r="855" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C855" s="7"/>
+      <c r="D855" s="7"/>
+    </row>
+    <row r="856" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C856" s="7"/>
+      <c r="D856" s="7"/>
+    </row>
+    <row r="857" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C857" s="7"/>
+      <c r="D857" s="7"/>
+    </row>
+    <row r="858" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C858" s="7"/>
+      <c r="D858" s="7"/>
+    </row>
+    <row r="859" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C859" s="7"/>
+      <c r="D859" s="7"/>
+    </row>
+    <row r="860" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C860" s="7"/>
+      <c r="D860" s="7"/>
+    </row>
+    <row r="861" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C861" s="7"/>
+      <c r="D861" s="7"/>
+    </row>
+    <row r="862" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C862" s="7"/>
+      <c r="D862" s="7"/>
+    </row>
+    <row r="863" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C863" s="7"/>
+      <c r="D863" s="7"/>
+    </row>
+    <row r="864" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C864" s="7"/>
+      <c r="D864" s="7"/>
+    </row>
+    <row r="865" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C865" s="7"/>
+      <c r="D865" s="7"/>
+    </row>
+    <row r="866" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C866" s="7"/>
+      <c r="D866" s="7"/>
+    </row>
+    <row r="867" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C867" s="7"/>
+      <c r="D867" s="7"/>
+    </row>
+    <row r="868" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C868" s="7"/>
+      <c r="D868" s="7"/>
+    </row>
+    <row r="869" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C869" s="7"/>
+      <c r="D869" s="7"/>
+    </row>
+    <row r="870" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C870" s="7"/>
+      <c r="D870" s="7"/>
+    </row>
+    <row r="871" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C871" s="7"/>
+      <c r="D871" s="7"/>
+    </row>
+    <row r="872" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C872" s="7"/>
+      <c r="D872" s="7"/>
+    </row>
+    <row r="873" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C873" s="7"/>
+      <c r="D873" s="7"/>
+    </row>
+    <row r="874" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C874" s="7"/>
+      <c r="D874" s="7"/>
+    </row>
+    <row r="875" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C875" s="7"/>
+      <c r="D875" s="7"/>
+    </row>
+    <row r="876" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C876" s="7"/>
+      <c r="D876" s="7"/>
+    </row>
+    <row r="877" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C877" s="7"/>
+      <c r="D877" s="7"/>
+    </row>
+    <row r="878" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C878" s="7"/>
+      <c r="D878" s="7"/>
+    </row>
+    <row r="879" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C879" s="7"/>
+      <c r="D879" s="7"/>
+    </row>
+    <row r="880" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C880" s="7"/>
+      <c r="D880" s="7"/>
+    </row>
+    <row r="881" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C881" s="7"/>
+      <c r="D881" s="7"/>
+    </row>
+    <row r="882" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C882" s="7"/>
+      <c r="D882" s="7"/>
+    </row>
+    <row r="883" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C883" s="7"/>
+      <c r="D883" s="7"/>
+    </row>
+    <row r="884" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C884" s="7"/>
+      <c r="D884" s="7"/>
+    </row>
+    <row r="885" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C885" s="7"/>
+      <c r="D885" s="7"/>
+    </row>
+    <row r="886" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C886" s="7"/>
+      <c r="D886" s="7"/>
+    </row>
+    <row r="887" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C887" s="7"/>
+      <c r="D887" s="7"/>
+    </row>
+    <row r="888" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C888" s="7"/>
+      <c r="D888" s="7"/>
+    </row>
+    <row r="889" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C889" s="7"/>
+      <c r="D889" s="7"/>
+    </row>
+    <row r="890" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C890" s="7"/>
+      <c r="D890" s="7"/>
+    </row>
+    <row r="891" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C891" s="7"/>
+      <c r="D891" s="7"/>
+    </row>
+    <row r="892" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C892" s="7"/>
+      <c r="D892" s="7"/>
+    </row>
+    <row r="893" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C893" s="7"/>
+      <c r="D893" s="7"/>
+    </row>
+    <row r="894" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C894" s="7"/>
+      <c r="D894" s="7"/>
+    </row>
+    <row r="895" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C895" s="7"/>
+      <c r="D895" s="7"/>
+    </row>
+    <row r="896" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C896" s="7"/>
+      <c r="D896" s="7"/>
+    </row>
+    <row r="897" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C897" s="7"/>
+      <c r="D897" s="7"/>
+    </row>
+    <row r="898" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C898" s="7"/>
+      <c r="D898" s="7"/>
+    </row>
+    <row r="899" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C899" s="7"/>
+      <c r="D899" s="7"/>
+    </row>
+    <row r="900" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C900" s="7"/>
+      <c r="D900" s="7"/>
+    </row>
+    <row r="901" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C901" s="7"/>
+      <c r="D901" s="7"/>
+    </row>
+    <row r="902" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C902" s="7"/>
+      <c r="D902" s="7"/>
+    </row>
+    <row r="903" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C903" s="7"/>
+      <c r="D903" s="7"/>
+    </row>
+    <row r="904" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C904" s="7"/>
+      <c r="D904" s="7"/>
+    </row>
+    <row r="905" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C905" s="7"/>
+      <c r="D905" s="7"/>
+    </row>
+    <row r="906" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C906" s="7"/>
+      <c r="D906" s="7"/>
+    </row>
+    <row r="907" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C907" s="7"/>
+      <c r="D907" s="7"/>
+    </row>
+    <row r="908" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C908" s="7"/>
+      <c r="D908" s="7"/>
+    </row>
+    <row r="909" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C909" s="7"/>
+      <c r="D909" s="7"/>
+    </row>
+    <row r="910" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C910" s="7"/>
+      <c r="D910" s="7"/>
+    </row>
+    <row r="911" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C911" s="7"/>
+      <c r="D911" s="7"/>
+    </row>
+    <row r="912" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C912" s="7"/>
+      <c r="D912" s="7"/>
+    </row>
+    <row r="913" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C913" s="7"/>
+      <c r="D913" s="7"/>
+    </row>
+    <row r="914" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C914" s="7"/>
+      <c r="D914" s="7"/>
+    </row>
+    <row r="915" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C915" s="7"/>
+      <c r="D915" s="7"/>
+    </row>
+    <row r="916" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C916" s="7"/>
+      <c r="D916" s="7"/>
+    </row>
+    <row r="917" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C917" s="7"/>
+      <c r="D917" s="7"/>
+    </row>
+    <row r="918" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C918" s="7"/>
+      <c r="D918" s="7"/>
+    </row>
+    <row r="919" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C919" s="7"/>
+      <c r="D919" s="7"/>
+    </row>
+    <row r="920" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C920" s="7"/>
+      <c r="D920" s="7"/>
+    </row>
+    <row r="921" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C921" s="7"/>
+      <c r="D921" s="7"/>
+    </row>
+    <row r="922" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C922" s="7"/>
+      <c r="D922" s="7"/>
+    </row>
+    <row r="923" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C923" s="7"/>
+      <c r="D923" s="7"/>
+    </row>
+    <row r="924" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C924" s="7"/>
+      <c r="D924" s="7"/>
+    </row>
+    <row r="925" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C925" s="7"/>
+      <c r="D925" s="7"/>
+    </row>
+    <row r="926" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C926" s="7"/>
+      <c r="D926" s="7"/>
+    </row>
+    <row r="927" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C927" s="7"/>
+      <c r="D927" s="7"/>
+    </row>
+    <row r="928" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C928" s="7"/>
+      <c r="D928" s="7"/>
+    </row>
+    <row r="929" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C929" s="7"/>
+      <c r="D929" s="7"/>
+    </row>
+    <row r="930" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C930" s="7"/>
+      <c r="D930" s="7"/>
+    </row>
+    <row r="931" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C931" s="7"/>
+      <c r="D931" s="7"/>
+    </row>
+    <row r="932" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C932" s="7"/>
+      <c r="D932" s="7"/>
+    </row>
+    <row r="933" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C933" s="7"/>
+      <c r="D933" s="7"/>
+    </row>
+    <row r="934" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C934" s="7"/>
+      <c r="D934" s="7"/>
+    </row>
+    <row r="935" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C935" s="7"/>
+      <c r="D935" s="7"/>
+    </row>
+    <row r="936" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C936" s="7"/>
+      <c r="D936" s="7"/>
+    </row>
+    <row r="937" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C937" s="7"/>
+      <c r="D937" s="7"/>
+    </row>
+    <row r="938" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C938" s="7"/>
+      <c r="D938" s="7"/>
+    </row>
+    <row r="939" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C939" s="7"/>
+      <c r="D939" s="7"/>
+    </row>
+    <row r="940" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C940" s="7"/>
+      <c r="D940" s="7"/>
+    </row>
+    <row r="941" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C941" s="7"/>
+      <c r="D941" s="7"/>
+    </row>
+    <row r="942" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C942" s="7"/>
+      <c r="D942" s="7"/>
+    </row>
+    <row r="943" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C943" s="7"/>
+      <c r="D943" s="7"/>
+    </row>
+    <row r="944" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C944" s="7"/>
+      <c r="D944" s="7"/>
+    </row>
+    <row r="945" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C945" s="7"/>
+      <c r="D945" s="7"/>
+    </row>
+    <row r="946" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C946" s="7"/>
+      <c r="D946" s="7"/>
+    </row>
+    <row r="947" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C947" s="7"/>
+      <c r="D947" s="7"/>
+    </row>
+    <row r="948" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C948" s="7"/>
+      <c r="D948" s="7"/>
+    </row>
+    <row r="949" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C949" s="7"/>
+      <c r="D949" s="7"/>
+    </row>
+    <row r="950" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C950" s="7"/>
+      <c r="D950" s="7"/>
+    </row>
+    <row r="951" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C951" s="7"/>
+      <c r="D951" s="7"/>
+    </row>
+    <row r="952" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C952" s="7"/>
+      <c r="D952" s="7"/>
+    </row>
+    <row r="953" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C953" s="7"/>
+      <c r="D953" s="7"/>
+    </row>
+    <row r="954" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C954" s="7"/>
+      <c r="D954" s="7"/>
+    </row>
+    <row r="955" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C955" s="7"/>
+      <c r="D955" s="7"/>
+    </row>
+    <row r="956" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C956" s="7"/>
+      <c r="D956" s="7"/>
+    </row>
+    <row r="957" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C957" s="7"/>
+      <c r="D957" s="7"/>
+    </row>
+    <row r="958" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C958" s="7"/>
+      <c r="D958" s="7"/>
+    </row>
+    <row r="959" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C959" s="7"/>
+      <c r="D959" s="7"/>
+    </row>
+    <row r="960" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C960" s="7"/>
+      <c r="D960" s="7"/>
+    </row>
+    <row r="961" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C961" s="7"/>
+      <c r="D961" s="7"/>
+    </row>
+    <row r="962" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C962" s="7"/>
+      <c r="D962" s="7"/>
+    </row>
+    <row r="963" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C963" s="7"/>
+      <c r="D963" s="7"/>
+    </row>
+    <row r="964" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C964" s="7"/>
+      <c r="D964" s="7"/>
+    </row>
+    <row r="965" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C965" s="7"/>
+      <c r="D965" s="7"/>
+    </row>
+    <row r="966" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C966" s="7"/>
+      <c r="D966" s="7"/>
+    </row>
+    <row r="967" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C967" s="7"/>
+      <c r="D967" s="7"/>
+    </row>
+    <row r="968" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C968" s="7"/>
+      <c r="D968" s="7"/>
+    </row>
+    <row r="969" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C969" s="7"/>
+      <c r="D969" s="7"/>
+    </row>
+    <row r="970" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C970" s="7"/>
+      <c r="D970" s="7"/>
+    </row>
+    <row r="971" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C971" s="7"/>
+      <c r="D971" s="7"/>
+    </row>
+    <row r="972" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C972" s="7"/>
+      <c r="D972" s="7"/>
+    </row>
+    <row r="973" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C973" s="7"/>
+      <c r="D973" s="7"/>
+    </row>
+    <row r="974" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C974" s="7"/>
+      <c r="D974" s="7"/>
+    </row>
+    <row r="975" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C975" s="7"/>
+      <c r="D975" s="7"/>
+    </row>
+    <row r="976" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C976" s="7"/>
+      <c r="D976" s="7"/>
+    </row>
+    <row r="977" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C977" s="7"/>
+      <c r="D977" s="7"/>
+    </row>
+    <row r="978" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C978" s="7"/>
+      <c r="D978" s="7"/>
+    </row>
+    <row r="979" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C979" s="7"/>
+      <c r="D979" s="7"/>
+    </row>
+    <row r="980" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C980" s="7"/>
+      <c r="D980" s="7"/>
+    </row>
+    <row r="981" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C981" s="7"/>
+      <c r="D981" s="7"/>
+    </row>
+    <row r="982" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C982" s="7"/>
+      <c r="D982" s="7"/>
+    </row>
+    <row r="983" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C983" s="7"/>
+      <c r="D983" s="7"/>
+    </row>
+    <row r="984" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C984" s="7"/>
+      <c r="D984" s="7"/>
+    </row>
+    <row r="985" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C985" s="7"/>
+      <c r="D985" s="7"/>
+    </row>
+    <row r="986" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C986" s="7"/>
+      <c r="D986" s="7"/>
+    </row>
+    <row r="987" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C987" s="7"/>
+      <c r="D987" s="7"/>
+    </row>
+    <row r="988" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C988" s="7"/>
+      <c r="D988" s="7"/>
+    </row>
+    <row r="989" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C989" s="7"/>
+      <c r="D989" s="7"/>
+    </row>
+    <row r="990" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C990" s="7"/>
+      <c r="D990" s="7"/>
+    </row>
+    <row r="991" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C991" s="7"/>
+      <c r="D991" s="7"/>
+    </row>
+    <row r="992" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C992" s="7"/>
+      <c r="D992" s="7"/>
+    </row>
+    <row r="993" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C993" s="7"/>
+      <c r="D993" s="7"/>
+    </row>
+    <row r="994" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C994" s="7"/>
+      <c r="D994" s="7"/>
+    </row>
+    <row r="995" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C995" s="7"/>
+      <c r="D995" s="7"/>
+    </row>
+    <row r="996" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C996" s="7"/>
+      <c r="D996" s="7"/>
+    </row>
+    <row r="997" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C997" s="7"/>
+      <c r="D997" s="7"/>
+    </row>
+    <row r="998" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C998" s="7"/>
+      <c r="D998" s="7"/>
+    </row>
+    <row r="999" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C999" s="7"/>
+      <c r="D999" s="7"/>
+    </row>
+    <row r="1000" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1000" s="7"/>
+      <c r="D1000" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/CH-92 Missing value.xlsx
+++ b/CH-92 Missing value.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3FEEAE-AB81-433D-ACB6-2AC7DD51555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4FCCF9-D00B-431D-8CAC-CF1AF3C524E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt1" sheetId="3" r:id="rId2"/>
     <sheet name="Alt2" sheetId="4" r:id="rId3"/>
+    <sheet name="EDA" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="11">
   <si>
     <t>Question</t>
   </si>
@@ -93,6 +94,9 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>I like the offset approach for its obvious approach.</t>
   </si>
 </sst>
 </file>
@@ -241,7 +245,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -267,6 +271,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Intro_Hd" xfId="2" xr:uid="{939452B0-992F-464A-8BB9-90FACA3DA973}"/>
@@ -873,7 +880,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5461,7 +5468,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10210,8 +10217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B20DF2-D6AE-4C50-8C31-0D261CADE6DE}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I19:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14893,4 +14900,4930 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04079D5C-BDC8-4765-B8EC-A1D20E64C238}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="2.88671875" customWidth="1"/>
+    <col min="3" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" customWidth="1"/>
+    <col min="17" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.21875" customWidth="1"/>
+    <col min="20" max="26" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>70</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4">
+        <v>70</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4">
+        <v>78</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>32</v>
+      </c>
+      <c r="M4" s="4">
+        <v>36</v>
+      </c>
+      <c r="N4" s="4">
+        <v>78</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>65</v>
+      </c>
+      <c r="E5" s="4">
+        <v>67</v>
+      </c>
+      <c r="F5" s="4">
+        <v>94</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="4">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>65</v>
+      </c>
+      <c r="M5" s="4">
+        <v>67</v>
+      </c>
+      <c r="N5" s="4">
+        <v>94</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="4">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>40</v>
+      </c>
+      <c r="M6" s="5">
+        <v>68</v>
+      </c>
+      <c r="N6" s="4">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>57</v>
+      </c>
+      <c r="E7" s="4">
+        <v>68</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>57</v>
+      </c>
+      <c r="M7" s="4">
+        <v>68</v>
+      </c>
+      <c r="N7" s="5">
+        <v>68</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="4">
+        <v>6</v>
+      </c>
+      <c r="L8" s="5">
+        <v>30</v>
+      </c>
+      <c r="M8" s="4">
+        <v>30</v>
+      </c>
+      <c r="N8" s="4">
+        <v>12</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4">
+        <v>89</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4">
+        <v>7</v>
+      </c>
+      <c r="L9" s="4">
+        <v>11</v>
+      </c>
+      <c r="M9" s="4">
+        <v>12</v>
+      </c>
+      <c r="N9" s="4">
+        <v>89</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4">
+        <v>8</v>
+      </c>
+      <c r="L10" s="4">
+        <v>34</v>
+      </c>
+      <c r="M10" s="5">
+        <v>34</v>
+      </c>
+      <c r="N10" s="4">
+        <v>10</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>78</v>
+      </c>
+      <c r="E11" s="4">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4">
+        <v>9</v>
+      </c>
+      <c r="L11" s="4">
+        <v>78</v>
+      </c>
+      <c r="M11" s="4">
+        <v>50</v>
+      </c>
+      <c r="N11" s="4">
+        <v>10</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
+        <v>94</v>
+      </c>
+      <c r="E12" s="4">
+        <v>84</v>
+      </c>
+      <c r="F12" s="4">
+        <v>82</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4">
+        <v>94</v>
+      </c>
+      <c r="M12" s="4">
+        <v>84</v>
+      </c>
+      <c r="N12" s="4">
+        <v>82</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="str" cm="1">
+        <f t="array" aca="1" ref="C18:F28" ca="1">_xlfn.VSTACK(K2:N2,_xlfn.MAP(
+C3:F12,
+_xlfn.LAMBDA(_xlpm.v,  _xlfn.LET(_xlpm.r, _xlfn.SWITCH(TRUE,_xlpm.v="U",-1,_xlpm.v="D",1,0),
+               _xlpm.c, _xlfn.SWITCH(TRUE,_xlpm.v="L",-1,_xlpm.v="R",1,0),
+               _xlpm.z, OFFSET(_xlpm.v,_xlpm.r,_xlpm.c),
+               _xlpm.z)
+      )
+))</f>
+        <v>Row ID</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f ca="1"/>
+        <v>X</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f ca="1"/>
+        <v>Z</v>
+      </c>
+      <c r="H18" t="b" cm="1">
+        <f t="array" aca="1" ref="H18:K28" ca="1">_xlfn.ANCHORARRAY(C18)=K2:N12</f>
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C19" s="4">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="E19" s="4">
+        <f ca="1"/>
+        <v>70</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f ca="1"/>
+        <v>Z</v>
+      </c>
+      <c r="H19" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C20" s="4">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <f ca="1"/>
+        <v>32</v>
+      </c>
+      <c r="E20" s="4">
+        <f ca="1"/>
+        <v>36</v>
+      </c>
+      <c r="F20" s="4">
+        <f ca="1"/>
+        <v>78</v>
+      </c>
+      <c r="H20" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="4">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="D21" s="4">
+        <f ca="1"/>
+        <v>65</v>
+      </c>
+      <c r="E21" s="4">
+        <f ca="1"/>
+        <v>67</v>
+      </c>
+      <c r="F21" s="4">
+        <f ca="1"/>
+        <v>94</v>
+      </c>
+      <c r="H21" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="4">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="D22" s="4">
+        <f ca="1"/>
+        <v>40</v>
+      </c>
+      <c r="E22" s="5">
+        <f ca="1"/>
+        <v>68</v>
+      </c>
+      <c r="F22" s="4">
+        <f ca="1"/>
+        <v>36</v>
+      </c>
+      <c r="H22" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="8"/>
+      <c r="S22" s="9"/>
+    </row>
+    <row r="23" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="4">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
+        <f ca="1"/>
+        <v>57</v>
+      </c>
+      <c r="E23" s="4">
+        <f ca="1"/>
+        <v>68</v>
+      </c>
+      <c r="F23" s="5">
+        <f ca="1"/>
+        <v>68</v>
+      </c>
+      <c r="H23" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="4">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="D24" s="5">
+        <f ca="1"/>
+        <v>30</v>
+      </c>
+      <c r="E24" s="4">
+        <f ca="1"/>
+        <v>30</v>
+      </c>
+      <c r="F24" s="4">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="H24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="S24" s="9"/>
+    </row>
+    <row r="25" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="4">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="D25" s="4">
+        <f ca="1"/>
+        <v>11</v>
+      </c>
+      <c r="E25" s="4">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="F25" s="4">
+        <f ca="1"/>
+        <v>89</v>
+      </c>
+      <c r="H25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P25" s="8"/>
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="4">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="D26" s="4">
+        <f ca="1"/>
+        <v>34</v>
+      </c>
+      <c r="E26" s="5">
+        <f ca="1"/>
+        <v>34</v>
+      </c>
+      <c r="F26" s="4">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="H26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P26" s="8"/>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="4">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="D27" s="4">
+        <f ca="1"/>
+        <v>78</v>
+      </c>
+      <c r="E27" s="4">
+        <f ca="1"/>
+        <v>50</v>
+      </c>
+      <c r="F27" s="4">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="H27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P27" s="8"/>
+      <c r="S27" s="9"/>
+    </row>
+    <row r="28" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="4">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="D28" s="4">
+        <f ca="1"/>
+        <v>94</v>
+      </c>
+      <c r="E28" s="4">
+        <f ca="1"/>
+        <v>84</v>
+      </c>
+      <c r="F28" s="4">
+        <f ca="1"/>
+        <v>82</v>
+      </c>
+      <c r="H28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="P29" s="8"/>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="P30" s="8"/>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="P31" s="9"/>
+      <c r="S31" s="9"/>
+    </row>
+    <row r="32" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="P32" s="9"/>
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="P33" s="9"/>
+      <c r="S33" s="9"/>
+    </row>
+    <row r="34" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="P34" s="9"/>
+      <c r="S34" s="9"/>
+    </row>
+    <row r="35" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="P35" s="9"/>
+      <c r="S35" s="9"/>
+    </row>
+    <row r="36" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="P36" s="9"/>
+      <c r="S36" s="9"/>
+    </row>
+    <row r="37" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="P37" s="9"/>
+      <c r="S37" s="9"/>
+    </row>
+    <row r="38" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="P38" s="9"/>
+      <c r="S38" s="9"/>
+    </row>
+    <row r="39" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="P39" s="9"/>
+      <c r="S39" s="9"/>
+    </row>
+    <row r="40" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="P40" s="9"/>
+      <c r="S40" s="9"/>
+    </row>
+    <row r="41" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="S41" s="9"/>
+    </row>
+    <row r="42" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="S42" s="9"/>
+    </row>
+    <row r="43" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="S43" s="9"/>
+    </row>
+    <row r="44" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="S44" s="9"/>
+    </row>
+    <row r="45" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="S45" s="9"/>
+    </row>
+    <row r="46" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="S46" s="9"/>
+    </row>
+    <row r="47" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="S47" s="9"/>
+    </row>
+    <row r="48" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="S48" s="9"/>
+    </row>
+    <row r="49" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="S49" s="9"/>
+    </row>
+    <row r="50" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="S50" s="9"/>
+    </row>
+    <row r="51" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="S51" s="9"/>
+    </row>
+    <row r="52" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="S52" s="9"/>
+    </row>
+    <row r="53" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="S53" s="9"/>
+    </row>
+    <row r="54" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="S54" s="9"/>
+    </row>
+    <row r="55" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="S55" s="9"/>
+    </row>
+    <row r="56" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="S56" s="9"/>
+    </row>
+    <row r="57" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="S57" s="9"/>
+    </row>
+    <row r="58" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="S58" s="9"/>
+    </row>
+    <row r="59" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="S59" s="9"/>
+    </row>
+    <row r="60" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="S60" s="9"/>
+    </row>
+    <row r="61" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="S61" s="9"/>
+    </row>
+    <row r="62" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="S62" s="9"/>
+    </row>
+    <row r="63" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="S63" s="9"/>
+    </row>
+    <row r="64" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="S64" s="9"/>
+    </row>
+    <row r="65" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="S65" s="9"/>
+    </row>
+    <row r="66" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="S66" s="9"/>
+    </row>
+    <row r="67" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="S67" s="9"/>
+    </row>
+    <row r="68" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="S68" s="9"/>
+    </row>
+    <row r="69" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="S69" s="9"/>
+    </row>
+    <row r="70" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="S70" s="9"/>
+    </row>
+    <row r="71" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="S71" s="9"/>
+    </row>
+    <row r="72" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="S72" s="9"/>
+    </row>
+    <row r="73" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="S73" s="9"/>
+    </row>
+    <row r="74" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="S74" s="9"/>
+    </row>
+    <row r="75" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="S75" s="9"/>
+    </row>
+    <row r="76" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+    </row>
+    <row r="128" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+    </row>
+    <row r="130" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+    </row>
+    <row r="131" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+    </row>
+    <row r="141" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+    </row>
+    <row r="142" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+    </row>
+    <row r="143" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+    </row>
+    <row r="145" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+    </row>
+    <row r="146" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+    </row>
+    <row r="147" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+    </row>
+    <row r="148" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+    </row>
+    <row r="149" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+    </row>
+    <row r="150" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+    </row>
+    <row r="151" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+    </row>
+    <row r="152" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+    </row>
+    <row r="153" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+    </row>
+    <row r="154" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+    </row>
+    <row r="155" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+    </row>
+    <row r="156" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+    </row>
+    <row r="157" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+    </row>
+    <row r="158" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+    </row>
+    <row r="159" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+    </row>
+    <row r="160" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+    </row>
+    <row r="161" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+    </row>
+    <row r="162" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+    </row>
+    <row r="163" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+    </row>
+    <row r="164" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+    </row>
+    <row r="165" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+    </row>
+    <row r="166" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+    </row>
+    <row r="167" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+    </row>
+    <row r="168" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+    </row>
+    <row r="169" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+    </row>
+    <row r="170" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+    </row>
+    <row r="171" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+    </row>
+    <row r="172" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+    </row>
+    <row r="173" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+    </row>
+    <row r="174" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+    </row>
+    <row r="175" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+    </row>
+    <row r="176" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+    </row>
+    <row r="177" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+    </row>
+    <row r="178" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+    </row>
+    <row r="179" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+    </row>
+    <row r="180" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+    </row>
+    <row r="181" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+    </row>
+    <row r="182" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+    </row>
+    <row r="183" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+    </row>
+    <row r="184" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+    </row>
+    <row r="185" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+    </row>
+    <row r="186" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+    </row>
+    <row r="187" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+    </row>
+    <row r="188" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+    </row>
+    <row r="189" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+    </row>
+    <row r="190" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+    </row>
+    <row r="191" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+    </row>
+    <row r="192" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+    </row>
+    <row r="193" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+    </row>
+    <row r="194" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+    </row>
+    <row r="195" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+    </row>
+    <row r="196" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+    </row>
+    <row r="197" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+    </row>
+    <row r="198" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+    </row>
+    <row r="199" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+    </row>
+    <row r="200" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+    </row>
+    <row r="201" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+    </row>
+    <row r="202" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+    </row>
+    <row r="203" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+    </row>
+    <row r="204" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+    </row>
+    <row r="205" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+    </row>
+    <row r="206" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+    </row>
+    <row r="207" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+    </row>
+    <row r="208" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+    </row>
+    <row r="209" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+    </row>
+    <row r="210" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+    </row>
+    <row r="211" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+    </row>
+    <row r="212" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
+    </row>
+    <row r="213" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+    </row>
+    <row r="214" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
+    </row>
+    <row r="215" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+    </row>
+    <row r="216" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+    </row>
+    <row r="217" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
+    </row>
+    <row r="218" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+    </row>
+    <row r="219" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C219" s="7"/>
+      <c r="D219" s="7"/>
+    </row>
+    <row r="220" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
+    </row>
+    <row r="221" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
+    </row>
+    <row r="222" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
+    </row>
+    <row r="223" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C223" s="7"/>
+      <c r="D223" s="7"/>
+    </row>
+    <row r="224" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C224" s="7"/>
+      <c r="D224" s="7"/>
+    </row>
+    <row r="225" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C225" s="7"/>
+      <c r="D225" s="7"/>
+    </row>
+    <row r="226" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C226" s="7"/>
+      <c r="D226" s="7"/>
+    </row>
+    <row r="227" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C227" s="7"/>
+      <c r="D227" s="7"/>
+    </row>
+    <row r="228" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C228" s="7"/>
+      <c r="D228" s="7"/>
+    </row>
+    <row r="229" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C229" s="7"/>
+      <c r="D229" s="7"/>
+    </row>
+    <row r="230" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C230" s="7"/>
+      <c r="D230" s="7"/>
+    </row>
+    <row r="231" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
+    </row>
+    <row r="232" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
+    </row>
+    <row r="233" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+    </row>
+    <row r="234" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C234" s="7"/>
+      <c r="D234" s="7"/>
+    </row>
+    <row r="235" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C235" s="7"/>
+      <c r="D235" s="7"/>
+    </row>
+    <row r="236" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
+    </row>
+    <row r="237" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C237" s="7"/>
+      <c r="D237" s="7"/>
+    </row>
+    <row r="238" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C238" s="7"/>
+      <c r="D238" s="7"/>
+    </row>
+    <row r="239" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C239" s="7"/>
+      <c r="D239" s="7"/>
+    </row>
+    <row r="240" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C240" s="7"/>
+      <c r="D240" s="7"/>
+    </row>
+    <row r="241" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+    </row>
+    <row r="242" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+    </row>
+    <row r="243" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+    </row>
+    <row r="244" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+    </row>
+    <row r="245" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+    </row>
+    <row r="246" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
+    </row>
+    <row r="247" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+    </row>
+    <row r="248" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+    </row>
+    <row r="249" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+    </row>
+    <row r="250" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+    </row>
+    <row r="251" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+    </row>
+    <row r="252" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C252" s="7"/>
+      <c r="D252" s="7"/>
+    </row>
+    <row r="253" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+    </row>
+    <row r="254" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+    </row>
+    <row r="255" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
+    </row>
+    <row r="256" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C256" s="7"/>
+      <c r="D256" s="7"/>
+    </row>
+    <row r="257" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C257" s="7"/>
+      <c r="D257" s="7"/>
+    </row>
+    <row r="258" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C258" s="7"/>
+      <c r="D258" s="7"/>
+    </row>
+    <row r="259" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C259" s="7"/>
+      <c r="D259" s="7"/>
+    </row>
+    <row r="260" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C260" s="7"/>
+      <c r="D260" s="7"/>
+    </row>
+    <row r="261" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C261" s="7"/>
+      <c r="D261" s="7"/>
+    </row>
+    <row r="262" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C262" s="7"/>
+      <c r="D262" s="7"/>
+    </row>
+    <row r="263" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C263" s="7"/>
+      <c r="D263" s="7"/>
+    </row>
+    <row r="264" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C264" s="7"/>
+      <c r="D264" s="7"/>
+    </row>
+    <row r="265" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C265" s="7"/>
+      <c r="D265" s="7"/>
+    </row>
+    <row r="266" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C266" s="7"/>
+      <c r="D266" s="7"/>
+    </row>
+    <row r="267" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C267" s="7"/>
+      <c r="D267" s="7"/>
+    </row>
+    <row r="268" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C268" s="7"/>
+      <c r="D268" s="7"/>
+    </row>
+    <row r="269" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C269" s="7"/>
+      <c r="D269" s="7"/>
+    </row>
+    <row r="270" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C270" s="7"/>
+      <c r="D270" s="7"/>
+    </row>
+    <row r="271" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C271" s="7"/>
+      <c r="D271" s="7"/>
+    </row>
+    <row r="272" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C272" s="7"/>
+      <c r="D272" s="7"/>
+    </row>
+    <row r="273" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C273" s="7"/>
+      <c r="D273" s="7"/>
+    </row>
+    <row r="274" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C274" s="7"/>
+      <c r="D274" s="7"/>
+    </row>
+    <row r="275" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C275" s="7"/>
+      <c r="D275" s="7"/>
+    </row>
+    <row r="276" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C276" s="7"/>
+      <c r="D276" s="7"/>
+    </row>
+    <row r="277" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C277" s="7"/>
+      <c r="D277" s="7"/>
+    </row>
+    <row r="278" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C278" s="7"/>
+      <c r="D278" s="7"/>
+    </row>
+    <row r="279" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C279" s="7"/>
+      <c r="D279" s="7"/>
+    </row>
+    <row r="280" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C280" s="7"/>
+      <c r="D280" s="7"/>
+    </row>
+    <row r="281" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C281" s="7"/>
+      <c r="D281" s="7"/>
+    </row>
+    <row r="282" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C282" s="7"/>
+      <c r="D282" s="7"/>
+    </row>
+    <row r="283" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C283" s="7"/>
+      <c r="D283" s="7"/>
+    </row>
+    <row r="284" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C284" s="7"/>
+      <c r="D284" s="7"/>
+    </row>
+    <row r="285" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C285" s="7"/>
+      <c r="D285" s="7"/>
+    </row>
+    <row r="286" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C286" s="7"/>
+      <c r="D286" s="7"/>
+    </row>
+    <row r="287" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C287" s="7"/>
+      <c r="D287" s="7"/>
+    </row>
+    <row r="288" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C288" s="7"/>
+      <c r="D288" s="7"/>
+    </row>
+    <row r="289" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C289" s="7"/>
+      <c r="D289" s="7"/>
+    </row>
+    <row r="290" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C290" s="7"/>
+      <c r="D290" s="7"/>
+    </row>
+    <row r="291" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C291" s="7"/>
+      <c r="D291" s="7"/>
+    </row>
+    <row r="292" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C292" s="7"/>
+      <c r="D292" s="7"/>
+    </row>
+    <row r="293" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C293" s="7"/>
+      <c r="D293" s="7"/>
+    </row>
+    <row r="294" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C294" s="7"/>
+      <c r="D294" s="7"/>
+    </row>
+    <row r="295" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C295" s="7"/>
+      <c r="D295" s="7"/>
+    </row>
+    <row r="296" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C296" s="7"/>
+      <c r="D296" s="7"/>
+    </row>
+    <row r="297" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C297" s="7"/>
+      <c r="D297" s="7"/>
+    </row>
+    <row r="298" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C298" s="7"/>
+      <c r="D298" s="7"/>
+    </row>
+    <row r="299" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C299" s="7"/>
+      <c r="D299" s="7"/>
+    </row>
+    <row r="300" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C300" s="7"/>
+      <c r="D300" s="7"/>
+    </row>
+    <row r="301" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C301" s="7"/>
+      <c r="D301" s="7"/>
+    </row>
+    <row r="302" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C302" s="7"/>
+      <c r="D302" s="7"/>
+    </row>
+    <row r="303" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C303" s="7"/>
+      <c r="D303" s="7"/>
+    </row>
+    <row r="304" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C304" s="7"/>
+      <c r="D304" s="7"/>
+    </row>
+    <row r="305" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C305" s="7"/>
+      <c r="D305" s="7"/>
+    </row>
+    <row r="306" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C306" s="7"/>
+      <c r="D306" s="7"/>
+    </row>
+    <row r="307" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C307" s="7"/>
+      <c r="D307" s="7"/>
+    </row>
+    <row r="308" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C308" s="7"/>
+      <c r="D308" s="7"/>
+    </row>
+    <row r="309" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C309" s="7"/>
+      <c r="D309" s="7"/>
+    </row>
+    <row r="310" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C310" s="7"/>
+      <c r="D310" s="7"/>
+    </row>
+    <row r="311" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C311" s="7"/>
+      <c r="D311" s="7"/>
+    </row>
+    <row r="312" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C312" s="7"/>
+      <c r="D312" s="7"/>
+    </row>
+    <row r="313" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C313" s="7"/>
+      <c r="D313" s="7"/>
+    </row>
+    <row r="314" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C314" s="7"/>
+      <c r="D314" s="7"/>
+    </row>
+    <row r="315" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C315" s="7"/>
+      <c r="D315" s="7"/>
+    </row>
+    <row r="316" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C316" s="7"/>
+      <c r="D316" s="7"/>
+    </row>
+    <row r="317" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C317" s="7"/>
+      <c r="D317" s="7"/>
+    </row>
+    <row r="318" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C318" s="7"/>
+      <c r="D318" s="7"/>
+    </row>
+    <row r="319" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C319" s="7"/>
+      <c r="D319" s="7"/>
+    </row>
+    <row r="320" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C320" s="7"/>
+      <c r="D320" s="7"/>
+    </row>
+    <row r="321" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C321" s="7"/>
+      <c r="D321" s="7"/>
+    </row>
+    <row r="322" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C322" s="7"/>
+      <c r="D322" s="7"/>
+    </row>
+    <row r="323" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C323" s="7"/>
+      <c r="D323" s="7"/>
+    </row>
+    <row r="324" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C324" s="7"/>
+      <c r="D324" s="7"/>
+    </row>
+    <row r="325" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C325" s="7"/>
+      <c r="D325" s="7"/>
+    </row>
+    <row r="326" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C326" s="7"/>
+      <c r="D326" s="7"/>
+    </row>
+    <row r="327" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C327" s="7"/>
+      <c r="D327" s="7"/>
+    </row>
+    <row r="328" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C328" s="7"/>
+      <c r="D328" s="7"/>
+    </row>
+    <row r="329" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C329" s="7"/>
+      <c r="D329" s="7"/>
+    </row>
+    <row r="330" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C330" s="7"/>
+      <c r="D330" s="7"/>
+    </row>
+    <row r="331" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C331" s="7"/>
+      <c r="D331" s="7"/>
+    </row>
+    <row r="332" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C332" s="7"/>
+      <c r="D332" s="7"/>
+    </row>
+    <row r="333" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C333" s="7"/>
+      <c r="D333" s="7"/>
+    </row>
+    <row r="334" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C334" s="7"/>
+      <c r="D334" s="7"/>
+    </row>
+    <row r="335" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C335" s="7"/>
+      <c r="D335" s="7"/>
+    </row>
+    <row r="336" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C336" s="7"/>
+      <c r="D336" s="7"/>
+    </row>
+    <row r="337" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C337" s="7"/>
+      <c r="D337" s="7"/>
+    </row>
+    <row r="338" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C338" s="7"/>
+      <c r="D338" s="7"/>
+    </row>
+    <row r="339" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C339" s="7"/>
+      <c r="D339" s="7"/>
+    </row>
+    <row r="340" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C340" s="7"/>
+      <c r="D340" s="7"/>
+    </row>
+    <row r="341" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C341" s="7"/>
+      <c r="D341" s="7"/>
+    </row>
+    <row r="342" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C342" s="7"/>
+      <c r="D342" s="7"/>
+    </row>
+    <row r="343" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C343" s="7"/>
+      <c r="D343" s="7"/>
+    </row>
+    <row r="344" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C344" s="7"/>
+      <c r="D344" s="7"/>
+    </row>
+    <row r="345" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C345" s="7"/>
+      <c r="D345" s="7"/>
+    </row>
+    <row r="346" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C346" s="7"/>
+      <c r="D346" s="7"/>
+    </row>
+    <row r="347" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C347" s="7"/>
+      <c r="D347" s="7"/>
+    </row>
+    <row r="348" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C348" s="7"/>
+      <c r="D348" s="7"/>
+    </row>
+    <row r="349" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C349" s="7"/>
+      <c r="D349" s="7"/>
+    </row>
+    <row r="350" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C350" s="7"/>
+      <c r="D350" s="7"/>
+    </row>
+    <row r="351" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C351" s="7"/>
+      <c r="D351" s="7"/>
+    </row>
+    <row r="352" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C352" s="7"/>
+      <c r="D352" s="7"/>
+    </row>
+    <row r="353" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C353" s="7"/>
+      <c r="D353" s="7"/>
+    </row>
+    <row r="354" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C354" s="7"/>
+      <c r="D354" s="7"/>
+    </row>
+    <row r="355" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C355" s="7"/>
+      <c r="D355" s="7"/>
+    </row>
+    <row r="356" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C356" s="7"/>
+      <c r="D356" s="7"/>
+    </row>
+    <row r="357" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C357" s="7"/>
+      <c r="D357" s="7"/>
+    </row>
+    <row r="358" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C358" s="7"/>
+      <c r="D358" s="7"/>
+    </row>
+    <row r="359" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C359" s="7"/>
+      <c r="D359" s="7"/>
+    </row>
+    <row r="360" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C360" s="7"/>
+      <c r="D360" s="7"/>
+    </row>
+    <row r="361" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C361" s="7"/>
+      <c r="D361" s="7"/>
+    </row>
+    <row r="362" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C362" s="7"/>
+      <c r="D362" s="7"/>
+    </row>
+    <row r="363" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C363" s="7"/>
+      <c r="D363" s="7"/>
+    </row>
+    <row r="364" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C364" s="7"/>
+      <c r="D364" s="7"/>
+    </row>
+    <row r="365" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C365" s="7"/>
+      <c r="D365" s="7"/>
+    </row>
+    <row r="366" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C366" s="7"/>
+      <c r="D366" s="7"/>
+    </row>
+    <row r="367" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C367" s="7"/>
+      <c r="D367" s="7"/>
+    </row>
+    <row r="368" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C368" s="7"/>
+      <c r="D368" s="7"/>
+    </row>
+    <row r="369" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C369" s="7"/>
+      <c r="D369" s="7"/>
+    </row>
+    <row r="370" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C370" s="7"/>
+      <c r="D370" s="7"/>
+    </row>
+    <row r="371" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C371" s="7"/>
+      <c r="D371" s="7"/>
+    </row>
+    <row r="372" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C372" s="7"/>
+      <c r="D372" s="7"/>
+    </row>
+    <row r="373" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C373" s="7"/>
+      <c r="D373" s="7"/>
+    </row>
+    <row r="374" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C374" s="7"/>
+      <c r="D374" s="7"/>
+    </row>
+    <row r="375" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C375" s="7"/>
+      <c r="D375" s="7"/>
+    </row>
+    <row r="376" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C376" s="7"/>
+      <c r="D376" s="7"/>
+    </row>
+    <row r="377" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C377" s="7"/>
+      <c r="D377" s="7"/>
+    </row>
+    <row r="378" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C378" s="7"/>
+      <c r="D378" s="7"/>
+    </row>
+    <row r="379" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C379" s="7"/>
+      <c r="D379" s="7"/>
+    </row>
+    <row r="380" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C380" s="7"/>
+      <c r="D380" s="7"/>
+    </row>
+    <row r="381" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C381" s="7"/>
+      <c r="D381" s="7"/>
+    </row>
+    <row r="382" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C382" s="7"/>
+      <c r="D382" s="7"/>
+    </row>
+    <row r="383" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C383" s="7"/>
+      <c r="D383" s="7"/>
+    </row>
+    <row r="384" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C384" s="7"/>
+      <c r="D384" s="7"/>
+    </row>
+    <row r="385" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C385" s="7"/>
+      <c r="D385" s="7"/>
+    </row>
+    <row r="386" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C386" s="7"/>
+      <c r="D386" s="7"/>
+    </row>
+    <row r="387" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C387" s="7"/>
+      <c r="D387" s="7"/>
+    </row>
+    <row r="388" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C388" s="7"/>
+      <c r="D388" s="7"/>
+    </row>
+    <row r="389" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C389" s="7"/>
+      <c r="D389" s="7"/>
+    </row>
+    <row r="390" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C390" s="7"/>
+      <c r="D390" s="7"/>
+    </row>
+    <row r="391" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C391" s="7"/>
+      <c r="D391" s="7"/>
+    </row>
+    <row r="392" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C392" s="7"/>
+      <c r="D392" s="7"/>
+    </row>
+    <row r="393" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C393" s="7"/>
+      <c r="D393" s="7"/>
+    </row>
+    <row r="394" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C394" s="7"/>
+      <c r="D394" s="7"/>
+    </row>
+    <row r="395" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C395" s="7"/>
+      <c r="D395" s="7"/>
+    </row>
+    <row r="396" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C396" s="7"/>
+      <c r="D396" s="7"/>
+    </row>
+    <row r="397" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C397" s="7"/>
+      <c r="D397" s="7"/>
+    </row>
+    <row r="398" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C398" s="7"/>
+      <c r="D398" s="7"/>
+    </row>
+    <row r="399" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C399" s="7"/>
+      <c r="D399" s="7"/>
+    </row>
+    <row r="400" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C400" s="7"/>
+      <c r="D400" s="7"/>
+    </row>
+    <row r="401" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C401" s="7"/>
+      <c r="D401" s="7"/>
+    </row>
+    <row r="402" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C402" s="7"/>
+      <c r="D402" s="7"/>
+    </row>
+    <row r="403" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C403" s="7"/>
+      <c r="D403" s="7"/>
+    </row>
+    <row r="404" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C404" s="7"/>
+      <c r="D404" s="7"/>
+    </row>
+    <row r="405" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C405" s="7"/>
+      <c r="D405" s="7"/>
+    </row>
+    <row r="406" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C406" s="7"/>
+      <c r="D406" s="7"/>
+    </row>
+    <row r="407" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C407" s="7"/>
+      <c r="D407" s="7"/>
+    </row>
+    <row r="408" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C408" s="7"/>
+      <c r="D408" s="7"/>
+    </row>
+    <row r="409" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C409" s="7"/>
+      <c r="D409" s="7"/>
+    </row>
+    <row r="410" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C410" s="7"/>
+      <c r="D410" s="7"/>
+    </row>
+    <row r="411" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C411" s="7"/>
+      <c r="D411" s="7"/>
+    </row>
+    <row r="412" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C412" s="7"/>
+      <c r="D412" s="7"/>
+    </row>
+    <row r="413" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C413" s="7"/>
+      <c r="D413" s="7"/>
+    </row>
+    <row r="414" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C414" s="7"/>
+      <c r="D414" s="7"/>
+    </row>
+    <row r="415" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C415" s="7"/>
+      <c r="D415" s="7"/>
+    </row>
+    <row r="416" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C416" s="7"/>
+      <c r="D416" s="7"/>
+    </row>
+    <row r="417" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C417" s="7"/>
+      <c r="D417" s="7"/>
+    </row>
+    <row r="418" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C418" s="7"/>
+      <c r="D418" s="7"/>
+    </row>
+    <row r="419" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C419" s="7"/>
+      <c r="D419" s="7"/>
+    </row>
+    <row r="420" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C420" s="7"/>
+      <c r="D420" s="7"/>
+    </row>
+    <row r="421" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C421" s="7"/>
+      <c r="D421" s="7"/>
+    </row>
+    <row r="422" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C422" s="7"/>
+      <c r="D422" s="7"/>
+    </row>
+    <row r="423" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C423" s="7"/>
+      <c r="D423" s="7"/>
+    </row>
+    <row r="424" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C424" s="7"/>
+      <c r="D424" s="7"/>
+    </row>
+    <row r="425" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C425" s="7"/>
+      <c r="D425" s="7"/>
+    </row>
+    <row r="426" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C426" s="7"/>
+      <c r="D426" s="7"/>
+    </row>
+    <row r="427" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C427" s="7"/>
+      <c r="D427" s="7"/>
+    </row>
+    <row r="428" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C428" s="7"/>
+      <c r="D428" s="7"/>
+    </row>
+    <row r="429" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C429" s="7"/>
+      <c r="D429" s="7"/>
+    </row>
+    <row r="430" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C430" s="7"/>
+      <c r="D430" s="7"/>
+    </row>
+    <row r="431" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C431" s="7"/>
+      <c r="D431" s="7"/>
+    </row>
+    <row r="432" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C432" s="7"/>
+      <c r="D432" s="7"/>
+    </row>
+    <row r="433" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C433" s="7"/>
+      <c r="D433" s="7"/>
+    </row>
+    <row r="434" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C434" s="7"/>
+      <c r="D434" s="7"/>
+    </row>
+    <row r="435" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C435" s="7"/>
+      <c r="D435" s="7"/>
+    </row>
+    <row r="436" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C436" s="7"/>
+      <c r="D436" s="7"/>
+    </row>
+    <row r="437" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C437" s="7"/>
+      <c r="D437" s="7"/>
+    </row>
+    <row r="438" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C438" s="7"/>
+      <c r="D438" s="7"/>
+    </row>
+    <row r="439" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C439" s="7"/>
+      <c r="D439" s="7"/>
+    </row>
+    <row r="440" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C440" s="7"/>
+      <c r="D440" s="7"/>
+    </row>
+    <row r="441" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C441" s="7"/>
+      <c r="D441" s="7"/>
+    </row>
+    <row r="442" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C442" s="7"/>
+      <c r="D442" s="7"/>
+    </row>
+    <row r="443" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C443" s="7"/>
+      <c r="D443" s="7"/>
+    </row>
+    <row r="444" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C444" s="7"/>
+      <c r="D444" s="7"/>
+    </row>
+    <row r="445" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C445" s="7"/>
+      <c r="D445" s="7"/>
+    </row>
+    <row r="446" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C446" s="7"/>
+      <c r="D446" s="7"/>
+    </row>
+    <row r="447" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C447" s="7"/>
+      <c r="D447" s="7"/>
+    </row>
+    <row r="448" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C448" s="7"/>
+      <c r="D448" s="7"/>
+    </row>
+    <row r="449" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C449" s="7"/>
+      <c r="D449" s="7"/>
+    </row>
+    <row r="450" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C450" s="7"/>
+      <c r="D450" s="7"/>
+    </row>
+    <row r="451" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C451" s="7"/>
+      <c r="D451" s="7"/>
+    </row>
+    <row r="452" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C452" s="7"/>
+      <c r="D452" s="7"/>
+    </row>
+    <row r="453" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C453" s="7"/>
+      <c r="D453" s="7"/>
+    </row>
+    <row r="454" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C454" s="7"/>
+      <c r="D454" s="7"/>
+    </row>
+    <row r="455" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C455" s="7"/>
+      <c r="D455" s="7"/>
+    </row>
+    <row r="456" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C456" s="7"/>
+      <c r="D456" s="7"/>
+    </row>
+    <row r="457" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C457" s="7"/>
+      <c r="D457" s="7"/>
+    </row>
+    <row r="458" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C458" s="7"/>
+      <c r="D458" s="7"/>
+    </row>
+    <row r="459" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C459" s="7"/>
+      <c r="D459" s="7"/>
+    </row>
+    <row r="460" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C460" s="7"/>
+      <c r="D460" s="7"/>
+    </row>
+    <row r="461" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C461" s="7"/>
+      <c r="D461" s="7"/>
+    </row>
+    <row r="462" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C462" s="7"/>
+      <c r="D462" s="7"/>
+    </row>
+    <row r="463" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C463" s="7"/>
+      <c r="D463" s="7"/>
+    </row>
+    <row r="464" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C464" s="7"/>
+      <c r="D464" s="7"/>
+    </row>
+    <row r="465" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C465" s="7"/>
+      <c r="D465" s="7"/>
+    </row>
+    <row r="466" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C466" s="7"/>
+      <c r="D466" s="7"/>
+    </row>
+    <row r="467" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C467" s="7"/>
+      <c r="D467" s="7"/>
+    </row>
+    <row r="468" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C468" s="7"/>
+      <c r="D468" s="7"/>
+    </row>
+    <row r="469" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C469" s="7"/>
+      <c r="D469" s="7"/>
+    </row>
+    <row r="470" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C470" s="7"/>
+      <c r="D470" s="7"/>
+    </row>
+    <row r="471" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C471" s="7"/>
+      <c r="D471" s="7"/>
+    </row>
+    <row r="472" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C472" s="7"/>
+      <c r="D472" s="7"/>
+    </row>
+    <row r="473" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C473" s="7"/>
+      <c r="D473" s="7"/>
+    </row>
+    <row r="474" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C474" s="7"/>
+      <c r="D474" s="7"/>
+    </row>
+    <row r="475" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C475" s="7"/>
+      <c r="D475" s="7"/>
+    </row>
+    <row r="476" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C476" s="7"/>
+      <c r="D476" s="7"/>
+    </row>
+    <row r="477" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C477" s="7"/>
+      <c r="D477" s="7"/>
+    </row>
+    <row r="478" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C478" s="7"/>
+      <c r="D478" s="7"/>
+    </row>
+    <row r="479" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C479" s="7"/>
+      <c r="D479" s="7"/>
+    </row>
+    <row r="480" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C480" s="7"/>
+      <c r="D480" s="7"/>
+    </row>
+    <row r="481" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C481" s="7"/>
+      <c r="D481" s="7"/>
+    </row>
+    <row r="482" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C482" s="7"/>
+      <c r="D482" s="7"/>
+    </row>
+    <row r="483" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C483" s="7"/>
+      <c r="D483" s="7"/>
+    </row>
+    <row r="484" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C484" s="7"/>
+      <c r="D484" s="7"/>
+    </row>
+    <row r="485" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C485" s="7"/>
+      <c r="D485" s="7"/>
+    </row>
+    <row r="486" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C486" s="7"/>
+      <c r="D486" s="7"/>
+    </row>
+    <row r="487" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C487" s="7"/>
+      <c r="D487" s="7"/>
+    </row>
+    <row r="488" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C488" s="7"/>
+      <c r="D488" s="7"/>
+    </row>
+    <row r="489" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C489" s="7"/>
+      <c r="D489" s="7"/>
+    </row>
+    <row r="490" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C490" s="7"/>
+      <c r="D490" s="7"/>
+    </row>
+    <row r="491" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C491" s="7"/>
+      <c r="D491" s="7"/>
+    </row>
+    <row r="492" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C492" s="7"/>
+      <c r="D492" s="7"/>
+    </row>
+    <row r="493" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C493" s="7"/>
+      <c r="D493" s="7"/>
+    </row>
+    <row r="494" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C494" s="7"/>
+      <c r="D494" s="7"/>
+    </row>
+    <row r="495" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C495" s="7"/>
+      <c r="D495" s="7"/>
+    </row>
+    <row r="496" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C496" s="7"/>
+      <c r="D496" s="7"/>
+    </row>
+    <row r="497" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C497" s="7"/>
+      <c r="D497" s="7"/>
+    </row>
+    <row r="498" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C498" s="7"/>
+      <c r="D498" s="7"/>
+    </row>
+    <row r="499" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C499" s="7"/>
+      <c r="D499" s="7"/>
+    </row>
+    <row r="500" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C500" s="7"/>
+      <c r="D500" s="7"/>
+    </row>
+    <row r="501" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C501" s="7"/>
+      <c r="D501" s="7"/>
+    </row>
+    <row r="502" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C502" s="7"/>
+      <c r="D502" s="7"/>
+    </row>
+    <row r="503" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C503" s="7"/>
+      <c r="D503" s="7"/>
+    </row>
+    <row r="504" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C504" s="7"/>
+      <c r="D504" s="7"/>
+    </row>
+    <row r="505" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C505" s="7"/>
+      <c r="D505" s="7"/>
+    </row>
+    <row r="506" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C506" s="7"/>
+      <c r="D506" s="7"/>
+    </row>
+    <row r="507" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C507" s="7"/>
+      <c r="D507" s="7"/>
+    </row>
+    <row r="508" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C508" s="7"/>
+      <c r="D508" s="7"/>
+    </row>
+    <row r="509" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C509" s="7"/>
+      <c r="D509" s="7"/>
+    </row>
+    <row r="510" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C510" s="7"/>
+      <c r="D510" s="7"/>
+    </row>
+    <row r="511" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C511" s="7"/>
+      <c r="D511" s="7"/>
+    </row>
+    <row r="512" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C512" s="7"/>
+      <c r="D512" s="7"/>
+    </row>
+    <row r="513" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C513" s="7"/>
+      <c r="D513" s="7"/>
+    </row>
+    <row r="514" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C514" s="7"/>
+      <c r="D514" s="7"/>
+    </row>
+    <row r="515" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C515" s="7"/>
+      <c r="D515" s="7"/>
+    </row>
+    <row r="516" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C516" s="7"/>
+      <c r="D516" s="7"/>
+    </row>
+    <row r="517" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C517" s="7"/>
+      <c r="D517" s="7"/>
+    </row>
+    <row r="518" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C518" s="7"/>
+      <c r="D518" s="7"/>
+    </row>
+    <row r="519" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C519" s="7"/>
+      <c r="D519" s="7"/>
+    </row>
+    <row r="520" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C520" s="7"/>
+      <c r="D520" s="7"/>
+    </row>
+    <row r="521" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C521" s="7"/>
+      <c r="D521" s="7"/>
+    </row>
+    <row r="522" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C522" s="7"/>
+      <c r="D522" s="7"/>
+    </row>
+    <row r="523" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C523" s="7"/>
+      <c r="D523" s="7"/>
+    </row>
+    <row r="524" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C524" s="7"/>
+      <c r="D524" s="7"/>
+    </row>
+    <row r="525" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C525" s="7"/>
+      <c r="D525" s="7"/>
+    </row>
+    <row r="526" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C526" s="7"/>
+      <c r="D526" s="7"/>
+    </row>
+    <row r="527" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C527" s="7"/>
+      <c r="D527" s="7"/>
+    </row>
+    <row r="528" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C528" s="7"/>
+      <c r="D528" s="7"/>
+    </row>
+    <row r="529" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C529" s="7"/>
+      <c r="D529" s="7"/>
+    </row>
+    <row r="530" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C530" s="7"/>
+      <c r="D530" s="7"/>
+    </row>
+    <row r="531" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C531" s="7"/>
+      <c r="D531" s="7"/>
+    </row>
+    <row r="532" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C532" s="7"/>
+      <c r="D532" s="7"/>
+    </row>
+    <row r="533" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C533" s="7"/>
+      <c r="D533" s="7"/>
+    </row>
+    <row r="534" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C534" s="7"/>
+      <c r="D534" s="7"/>
+    </row>
+    <row r="535" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C535" s="7"/>
+      <c r="D535" s="7"/>
+    </row>
+    <row r="536" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C536" s="7"/>
+      <c r="D536" s="7"/>
+    </row>
+    <row r="537" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C537" s="7"/>
+      <c r="D537" s="7"/>
+    </row>
+    <row r="538" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C538" s="7"/>
+      <c r="D538" s="7"/>
+    </row>
+    <row r="539" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C539" s="7"/>
+      <c r="D539" s="7"/>
+    </row>
+    <row r="540" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C540" s="7"/>
+      <c r="D540" s="7"/>
+    </row>
+    <row r="541" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C541" s="7"/>
+      <c r="D541" s="7"/>
+    </row>
+    <row r="542" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C542" s="7"/>
+      <c r="D542" s="7"/>
+    </row>
+    <row r="543" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C543" s="7"/>
+      <c r="D543" s="7"/>
+    </row>
+    <row r="544" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C544" s="7"/>
+      <c r="D544" s="7"/>
+    </row>
+    <row r="545" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C545" s="7"/>
+      <c r="D545" s="7"/>
+    </row>
+    <row r="546" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C546" s="7"/>
+      <c r="D546" s="7"/>
+    </row>
+    <row r="547" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C547" s="7"/>
+      <c r="D547" s="7"/>
+    </row>
+    <row r="548" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C548" s="7"/>
+      <c r="D548" s="7"/>
+    </row>
+    <row r="549" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C549" s="7"/>
+      <c r="D549" s="7"/>
+    </row>
+    <row r="550" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C550" s="7"/>
+      <c r="D550" s="7"/>
+    </row>
+    <row r="551" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C551" s="7"/>
+      <c r="D551" s="7"/>
+    </row>
+    <row r="552" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C552" s="7"/>
+      <c r="D552" s="7"/>
+    </row>
+    <row r="553" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C553" s="7"/>
+      <c r="D553" s="7"/>
+    </row>
+    <row r="554" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C554" s="7"/>
+      <c r="D554" s="7"/>
+    </row>
+    <row r="555" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C555" s="7"/>
+      <c r="D555" s="7"/>
+    </row>
+    <row r="556" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C556" s="7"/>
+      <c r="D556" s="7"/>
+    </row>
+    <row r="557" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C557" s="7"/>
+      <c r="D557" s="7"/>
+    </row>
+    <row r="558" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C558" s="7"/>
+      <c r="D558" s="7"/>
+    </row>
+    <row r="559" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C559" s="7"/>
+      <c r="D559" s="7"/>
+    </row>
+    <row r="560" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C560" s="7"/>
+      <c r="D560" s="7"/>
+    </row>
+    <row r="561" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C561" s="7"/>
+      <c r="D561" s="7"/>
+    </row>
+    <row r="562" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C562" s="7"/>
+      <c r="D562" s="7"/>
+    </row>
+    <row r="563" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C563" s="7"/>
+      <c r="D563" s="7"/>
+    </row>
+    <row r="564" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C564" s="7"/>
+      <c r="D564" s="7"/>
+    </row>
+    <row r="565" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C565" s="7"/>
+      <c r="D565" s="7"/>
+    </row>
+    <row r="566" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C566" s="7"/>
+      <c r="D566" s="7"/>
+    </row>
+    <row r="567" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C567" s="7"/>
+      <c r="D567" s="7"/>
+    </row>
+    <row r="568" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C568" s="7"/>
+      <c r="D568" s="7"/>
+    </row>
+    <row r="569" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C569" s="7"/>
+      <c r="D569" s="7"/>
+    </row>
+    <row r="570" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C570" s="7"/>
+      <c r="D570" s="7"/>
+    </row>
+    <row r="571" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C571" s="7"/>
+      <c r="D571" s="7"/>
+    </row>
+    <row r="572" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C572" s="7"/>
+      <c r="D572" s="7"/>
+    </row>
+    <row r="573" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C573" s="7"/>
+      <c r="D573" s="7"/>
+    </row>
+    <row r="574" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C574" s="7"/>
+      <c r="D574" s="7"/>
+    </row>
+    <row r="575" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C575" s="7"/>
+      <c r="D575" s="7"/>
+    </row>
+    <row r="576" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C576" s="7"/>
+      <c r="D576" s="7"/>
+    </row>
+    <row r="577" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C577" s="7"/>
+      <c r="D577" s="7"/>
+    </row>
+    <row r="578" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C578" s="7"/>
+      <c r="D578" s="7"/>
+    </row>
+    <row r="579" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C579" s="7"/>
+      <c r="D579" s="7"/>
+    </row>
+    <row r="580" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C580" s="7"/>
+      <c r="D580" s="7"/>
+    </row>
+    <row r="581" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C581" s="7"/>
+      <c r="D581" s="7"/>
+    </row>
+    <row r="582" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C582" s="7"/>
+      <c r="D582" s="7"/>
+    </row>
+    <row r="583" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C583" s="7"/>
+      <c r="D583" s="7"/>
+    </row>
+    <row r="584" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C584" s="7"/>
+      <c r="D584" s="7"/>
+    </row>
+    <row r="585" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C585" s="7"/>
+      <c r="D585" s="7"/>
+    </row>
+    <row r="586" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C586" s="7"/>
+      <c r="D586" s="7"/>
+    </row>
+    <row r="587" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C587" s="7"/>
+      <c r="D587" s="7"/>
+    </row>
+    <row r="588" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C588" s="7"/>
+      <c r="D588" s="7"/>
+    </row>
+    <row r="589" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C589" s="7"/>
+      <c r="D589" s="7"/>
+    </row>
+    <row r="590" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C590" s="7"/>
+      <c r="D590" s="7"/>
+    </row>
+    <row r="591" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C591" s="7"/>
+      <c r="D591" s="7"/>
+    </row>
+    <row r="592" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C592" s="7"/>
+      <c r="D592" s="7"/>
+    </row>
+    <row r="593" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C593" s="7"/>
+      <c r="D593" s="7"/>
+    </row>
+    <row r="594" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C594" s="7"/>
+      <c r="D594" s="7"/>
+    </row>
+    <row r="595" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C595" s="7"/>
+      <c r="D595" s="7"/>
+    </row>
+    <row r="596" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C596" s="7"/>
+      <c r="D596" s="7"/>
+    </row>
+    <row r="597" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C597" s="7"/>
+      <c r="D597" s="7"/>
+    </row>
+    <row r="598" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C598" s="7"/>
+      <c r="D598" s="7"/>
+    </row>
+    <row r="599" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C599" s="7"/>
+      <c r="D599" s="7"/>
+    </row>
+    <row r="600" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C600" s="7"/>
+      <c r="D600" s="7"/>
+    </row>
+    <row r="601" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C601" s="7"/>
+      <c r="D601" s="7"/>
+    </row>
+    <row r="602" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C602" s="7"/>
+      <c r="D602" s="7"/>
+    </row>
+    <row r="603" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C603" s="7"/>
+      <c r="D603" s="7"/>
+    </row>
+    <row r="604" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C604" s="7"/>
+      <c r="D604" s="7"/>
+    </row>
+    <row r="605" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C605" s="7"/>
+      <c r="D605" s="7"/>
+    </row>
+    <row r="606" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C606" s="7"/>
+      <c r="D606" s="7"/>
+    </row>
+    <row r="607" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C607" s="7"/>
+      <c r="D607" s="7"/>
+    </row>
+    <row r="608" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C608" s="7"/>
+      <c r="D608" s="7"/>
+    </row>
+    <row r="609" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C609" s="7"/>
+      <c r="D609" s="7"/>
+    </row>
+    <row r="610" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C610" s="7"/>
+      <c r="D610" s="7"/>
+    </row>
+    <row r="611" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C611" s="7"/>
+      <c r="D611" s="7"/>
+    </row>
+    <row r="612" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C612" s="7"/>
+      <c r="D612" s="7"/>
+    </row>
+    <row r="613" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C613" s="7"/>
+      <c r="D613" s="7"/>
+    </row>
+    <row r="614" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C614" s="7"/>
+      <c r="D614" s="7"/>
+    </row>
+    <row r="615" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C615" s="7"/>
+      <c r="D615" s="7"/>
+    </row>
+    <row r="616" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C616" s="7"/>
+      <c r="D616" s="7"/>
+    </row>
+    <row r="617" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C617" s="7"/>
+      <c r="D617" s="7"/>
+    </row>
+    <row r="618" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C618" s="7"/>
+      <c r="D618" s="7"/>
+    </row>
+    <row r="619" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C619" s="7"/>
+      <c r="D619" s="7"/>
+    </row>
+    <row r="620" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C620" s="7"/>
+      <c r="D620" s="7"/>
+    </row>
+    <row r="621" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C621" s="7"/>
+      <c r="D621" s="7"/>
+    </row>
+    <row r="622" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C622" s="7"/>
+      <c r="D622" s="7"/>
+    </row>
+    <row r="623" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C623" s="7"/>
+      <c r="D623" s="7"/>
+    </row>
+    <row r="624" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C624" s="7"/>
+      <c r="D624" s="7"/>
+    </row>
+    <row r="625" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C625" s="7"/>
+      <c r="D625" s="7"/>
+    </row>
+    <row r="626" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C626" s="7"/>
+      <c r="D626" s="7"/>
+    </row>
+    <row r="627" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C627" s="7"/>
+      <c r="D627" s="7"/>
+    </row>
+    <row r="628" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C628" s="7"/>
+      <c r="D628" s="7"/>
+    </row>
+    <row r="629" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C629" s="7"/>
+      <c r="D629" s="7"/>
+    </row>
+    <row r="630" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C630" s="7"/>
+      <c r="D630" s="7"/>
+    </row>
+    <row r="631" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C631" s="7"/>
+      <c r="D631" s="7"/>
+    </row>
+    <row r="632" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C632" s="7"/>
+      <c r="D632" s="7"/>
+    </row>
+    <row r="633" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C633" s="7"/>
+      <c r="D633" s="7"/>
+    </row>
+    <row r="634" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C634" s="7"/>
+      <c r="D634" s="7"/>
+    </row>
+    <row r="635" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C635" s="7"/>
+      <c r="D635" s="7"/>
+    </row>
+    <row r="636" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C636" s="7"/>
+      <c r="D636" s="7"/>
+    </row>
+    <row r="637" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C637" s="7"/>
+      <c r="D637" s="7"/>
+    </row>
+    <row r="638" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C638" s="7"/>
+      <c r="D638" s="7"/>
+    </row>
+    <row r="639" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C639" s="7"/>
+      <c r="D639" s="7"/>
+    </row>
+    <row r="640" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C640" s="7"/>
+      <c r="D640" s="7"/>
+    </row>
+    <row r="641" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C641" s="7"/>
+      <c r="D641" s="7"/>
+    </row>
+    <row r="642" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C642" s="7"/>
+      <c r="D642" s="7"/>
+    </row>
+    <row r="643" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C643" s="7"/>
+      <c r="D643" s="7"/>
+    </row>
+    <row r="644" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C644" s="7"/>
+      <c r="D644" s="7"/>
+    </row>
+    <row r="645" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C645" s="7"/>
+      <c r="D645" s="7"/>
+    </row>
+    <row r="646" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C646" s="7"/>
+      <c r="D646" s="7"/>
+    </row>
+    <row r="647" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C647" s="7"/>
+      <c r="D647" s="7"/>
+    </row>
+    <row r="648" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C648" s="7"/>
+      <c r="D648" s="7"/>
+    </row>
+    <row r="649" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C649" s="7"/>
+      <c r="D649" s="7"/>
+    </row>
+    <row r="650" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C650" s="7"/>
+      <c r="D650" s="7"/>
+    </row>
+    <row r="651" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C651" s="7"/>
+      <c r="D651" s="7"/>
+    </row>
+    <row r="652" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C652" s="7"/>
+      <c r="D652" s="7"/>
+    </row>
+    <row r="653" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C653" s="7"/>
+      <c r="D653" s="7"/>
+    </row>
+    <row r="654" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C654" s="7"/>
+      <c r="D654" s="7"/>
+    </row>
+    <row r="655" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C655" s="7"/>
+      <c r="D655" s="7"/>
+    </row>
+    <row r="656" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C656" s="7"/>
+      <c r="D656" s="7"/>
+    </row>
+    <row r="657" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C657" s="7"/>
+      <c r="D657" s="7"/>
+    </row>
+    <row r="658" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C658" s="7"/>
+      <c r="D658" s="7"/>
+    </row>
+    <row r="659" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C659" s="7"/>
+      <c r="D659" s="7"/>
+    </row>
+    <row r="660" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C660" s="7"/>
+      <c r="D660" s="7"/>
+    </row>
+    <row r="661" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C661" s="7"/>
+      <c r="D661" s="7"/>
+    </row>
+    <row r="662" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C662" s="7"/>
+      <c r="D662" s="7"/>
+    </row>
+    <row r="663" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C663" s="7"/>
+      <c r="D663" s="7"/>
+    </row>
+    <row r="664" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C664" s="7"/>
+      <c r="D664" s="7"/>
+    </row>
+    <row r="665" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C665" s="7"/>
+      <c r="D665" s="7"/>
+    </row>
+    <row r="666" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C666" s="7"/>
+      <c r="D666" s="7"/>
+    </row>
+    <row r="667" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C667" s="7"/>
+      <c r="D667" s="7"/>
+    </row>
+    <row r="668" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C668" s="7"/>
+      <c r="D668" s="7"/>
+    </row>
+    <row r="669" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C669" s="7"/>
+      <c r="D669" s="7"/>
+    </row>
+    <row r="670" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C670" s="7"/>
+      <c r="D670" s="7"/>
+    </row>
+    <row r="671" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C671" s="7"/>
+      <c r="D671" s="7"/>
+    </row>
+    <row r="672" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C672" s="7"/>
+      <c r="D672" s="7"/>
+    </row>
+    <row r="673" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C673" s="7"/>
+      <c r="D673" s="7"/>
+    </row>
+    <row r="674" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C674" s="7"/>
+      <c r="D674" s="7"/>
+    </row>
+    <row r="675" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C675" s="7"/>
+      <c r="D675" s="7"/>
+    </row>
+    <row r="676" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C676" s="7"/>
+      <c r="D676" s="7"/>
+    </row>
+    <row r="677" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C677" s="7"/>
+      <c r="D677" s="7"/>
+    </row>
+    <row r="678" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C678" s="7"/>
+      <c r="D678" s="7"/>
+    </row>
+    <row r="679" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C679" s="7"/>
+      <c r="D679" s="7"/>
+    </row>
+    <row r="680" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C680" s="7"/>
+      <c r="D680" s="7"/>
+    </row>
+    <row r="681" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C681" s="7"/>
+      <c r="D681" s="7"/>
+    </row>
+    <row r="682" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C682" s="7"/>
+      <c r="D682" s="7"/>
+    </row>
+    <row r="683" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C683" s="7"/>
+      <c r="D683" s="7"/>
+    </row>
+    <row r="684" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C684" s="7"/>
+      <c r="D684" s="7"/>
+    </row>
+    <row r="685" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C685" s="7"/>
+      <c r="D685" s="7"/>
+    </row>
+    <row r="686" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C686" s="7"/>
+      <c r="D686" s="7"/>
+    </row>
+    <row r="687" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C687" s="7"/>
+      <c r="D687" s="7"/>
+    </row>
+    <row r="688" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C688" s="7"/>
+      <c r="D688" s="7"/>
+    </row>
+    <row r="689" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C689" s="7"/>
+      <c r="D689" s="7"/>
+    </row>
+    <row r="690" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C690" s="7"/>
+      <c r="D690" s="7"/>
+    </row>
+    <row r="691" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C691" s="7"/>
+      <c r="D691" s="7"/>
+    </row>
+    <row r="692" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C692" s="7"/>
+      <c r="D692" s="7"/>
+    </row>
+    <row r="693" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C693" s="7"/>
+      <c r="D693" s="7"/>
+    </row>
+    <row r="694" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C694" s="7"/>
+      <c r="D694" s="7"/>
+    </row>
+    <row r="695" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C695" s="7"/>
+      <c r="D695" s="7"/>
+    </row>
+    <row r="696" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C696" s="7"/>
+      <c r="D696" s="7"/>
+    </row>
+    <row r="697" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C697" s="7"/>
+      <c r="D697" s="7"/>
+    </row>
+    <row r="698" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C698" s="7"/>
+      <c r="D698" s="7"/>
+    </row>
+    <row r="699" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C699" s="7"/>
+      <c r="D699" s="7"/>
+    </row>
+    <row r="700" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C700" s="7"/>
+      <c r="D700" s="7"/>
+    </row>
+    <row r="701" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C701" s="7"/>
+      <c r="D701" s="7"/>
+    </row>
+    <row r="702" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C702" s="7"/>
+      <c r="D702" s="7"/>
+    </row>
+    <row r="703" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C703" s="7"/>
+      <c r="D703" s="7"/>
+    </row>
+    <row r="704" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C704" s="7"/>
+      <c r="D704" s="7"/>
+    </row>
+    <row r="705" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C705" s="7"/>
+      <c r="D705" s="7"/>
+    </row>
+    <row r="706" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C706" s="7"/>
+      <c r="D706" s="7"/>
+    </row>
+    <row r="707" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C707" s="7"/>
+      <c r="D707" s="7"/>
+    </row>
+    <row r="708" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C708" s="7"/>
+      <c r="D708" s="7"/>
+    </row>
+    <row r="709" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C709" s="7"/>
+      <c r="D709" s="7"/>
+    </row>
+    <row r="710" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C710" s="7"/>
+      <c r="D710" s="7"/>
+    </row>
+    <row r="711" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C711" s="7"/>
+      <c r="D711" s="7"/>
+    </row>
+    <row r="712" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C712" s="7"/>
+      <c r="D712" s="7"/>
+    </row>
+    <row r="713" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C713" s="7"/>
+      <c r="D713" s="7"/>
+    </row>
+    <row r="714" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C714" s="7"/>
+      <c r="D714" s="7"/>
+    </row>
+    <row r="715" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C715" s="7"/>
+      <c r="D715" s="7"/>
+    </row>
+    <row r="716" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C716" s="7"/>
+      <c r="D716" s="7"/>
+    </row>
+    <row r="717" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C717" s="7"/>
+      <c r="D717" s="7"/>
+    </row>
+    <row r="718" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C718" s="7"/>
+      <c r="D718" s="7"/>
+    </row>
+    <row r="719" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C719" s="7"/>
+      <c r="D719" s="7"/>
+    </row>
+    <row r="720" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C720" s="7"/>
+      <c r="D720" s="7"/>
+    </row>
+    <row r="721" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C721" s="7"/>
+      <c r="D721" s="7"/>
+    </row>
+    <row r="722" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C722" s="7"/>
+      <c r="D722" s="7"/>
+    </row>
+    <row r="723" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C723" s="7"/>
+      <c r="D723" s="7"/>
+    </row>
+    <row r="724" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C724" s="7"/>
+      <c r="D724" s="7"/>
+    </row>
+    <row r="725" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C725" s="7"/>
+      <c r="D725" s="7"/>
+    </row>
+    <row r="726" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C726" s="7"/>
+      <c r="D726" s="7"/>
+    </row>
+    <row r="727" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C727" s="7"/>
+      <c r="D727" s="7"/>
+    </row>
+    <row r="728" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C728" s="7"/>
+      <c r="D728" s="7"/>
+    </row>
+    <row r="729" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C729" s="7"/>
+      <c r="D729" s="7"/>
+    </row>
+    <row r="730" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C730" s="7"/>
+      <c r="D730" s="7"/>
+    </row>
+    <row r="731" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C731" s="7"/>
+      <c r="D731" s="7"/>
+    </row>
+    <row r="732" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C732" s="7"/>
+      <c r="D732" s="7"/>
+    </row>
+    <row r="733" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C733" s="7"/>
+      <c r="D733" s="7"/>
+    </row>
+    <row r="734" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C734" s="7"/>
+      <c r="D734" s="7"/>
+    </row>
+    <row r="735" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C735" s="7"/>
+      <c r="D735" s="7"/>
+    </row>
+    <row r="736" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C736" s="7"/>
+      <c r="D736" s="7"/>
+    </row>
+    <row r="737" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C737" s="7"/>
+      <c r="D737" s="7"/>
+    </row>
+    <row r="738" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C738" s="7"/>
+      <c r="D738" s="7"/>
+    </row>
+    <row r="739" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C739" s="7"/>
+      <c r="D739" s="7"/>
+    </row>
+    <row r="740" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C740" s="7"/>
+      <c r="D740" s="7"/>
+    </row>
+    <row r="741" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C741" s="7"/>
+      <c r="D741" s="7"/>
+    </row>
+    <row r="742" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C742" s="7"/>
+      <c r="D742" s="7"/>
+    </row>
+    <row r="743" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C743" s="7"/>
+      <c r="D743" s="7"/>
+    </row>
+    <row r="744" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C744" s="7"/>
+      <c r="D744" s="7"/>
+    </row>
+    <row r="745" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C745" s="7"/>
+      <c r="D745" s="7"/>
+    </row>
+    <row r="746" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C746" s="7"/>
+      <c r="D746" s="7"/>
+    </row>
+    <row r="747" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C747" s="7"/>
+      <c r="D747" s="7"/>
+    </row>
+    <row r="748" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C748" s="7"/>
+      <c r="D748" s="7"/>
+    </row>
+    <row r="749" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C749" s="7"/>
+      <c r="D749" s="7"/>
+    </row>
+    <row r="750" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C750" s="7"/>
+      <c r="D750" s="7"/>
+    </row>
+    <row r="751" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C751" s="7"/>
+      <c r="D751" s="7"/>
+    </row>
+    <row r="752" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C752" s="7"/>
+      <c r="D752" s="7"/>
+    </row>
+    <row r="753" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C753" s="7"/>
+      <c r="D753" s="7"/>
+    </row>
+    <row r="754" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C754" s="7"/>
+      <c r="D754" s="7"/>
+    </row>
+    <row r="755" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C755" s="7"/>
+      <c r="D755" s="7"/>
+    </row>
+    <row r="756" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C756" s="7"/>
+      <c r="D756" s="7"/>
+    </row>
+    <row r="757" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C757" s="7"/>
+      <c r="D757" s="7"/>
+    </row>
+    <row r="758" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C758" s="7"/>
+      <c r="D758" s="7"/>
+    </row>
+    <row r="759" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C759" s="7"/>
+      <c r="D759" s="7"/>
+    </row>
+    <row r="760" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C760" s="7"/>
+      <c r="D760" s="7"/>
+    </row>
+    <row r="761" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C761" s="7"/>
+      <c r="D761" s="7"/>
+    </row>
+    <row r="762" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C762" s="7"/>
+      <c r="D762" s="7"/>
+    </row>
+    <row r="763" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C763" s="7"/>
+      <c r="D763" s="7"/>
+    </row>
+    <row r="764" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C764" s="7"/>
+      <c r="D764" s="7"/>
+    </row>
+    <row r="765" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C765" s="7"/>
+      <c r="D765" s="7"/>
+    </row>
+    <row r="766" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C766" s="7"/>
+      <c r="D766" s="7"/>
+    </row>
+    <row r="767" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C767" s="7"/>
+      <c r="D767" s="7"/>
+    </row>
+    <row r="768" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C768" s="7"/>
+      <c r="D768" s="7"/>
+    </row>
+    <row r="769" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C769" s="7"/>
+      <c r="D769" s="7"/>
+    </row>
+    <row r="770" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C770" s="7"/>
+      <c r="D770" s="7"/>
+    </row>
+    <row r="771" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C771" s="7"/>
+      <c r="D771" s="7"/>
+    </row>
+    <row r="772" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C772" s="7"/>
+      <c r="D772" s="7"/>
+    </row>
+    <row r="773" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C773" s="7"/>
+      <c r="D773" s="7"/>
+    </row>
+    <row r="774" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C774" s="7"/>
+      <c r="D774" s="7"/>
+    </row>
+    <row r="775" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C775" s="7"/>
+      <c r="D775" s="7"/>
+    </row>
+    <row r="776" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C776" s="7"/>
+      <c r="D776" s="7"/>
+    </row>
+    <row r="777" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C777" s="7"/>
+      <c r="D777" s="7"/>
+    </row>
+    <row r="778" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C778" s="7"/>
+      <c r="D778" s="7"/>
+    </row>
+    <row r="779" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C779" s="7"/>
+      <c r="D779" s="7"/>
+    </row>
+    <row r="780" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C780" s="7"/>
+      <c r="D780" s="7"/>
+    </row>
+    <row r="781" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C781" s="7"/>
+      <c r="D781" s="7"/>
+    </row>
+    <row r="782" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C782" s="7"/>
+      <c r="D782" s="7"/>
+    </row>
+    <row r="783" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C783" s="7"/>
+      <c r="D783" s="7"/>
+    </row>
+    <row r="784" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C784" s="7"/>
+      <c r="D784" s="7"/>
+    </row>
+    <row r="785" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C785" s="7"/>
+      <c r="D785" s="7"/>
+    </row>
+    <row r="786" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C786" s="7"/>
+      <c r="D786" s="7"/>
+    </row>
+    <row r="787" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C787" s="7"/>
+      <c r="D787" s="7"/>
+    </row>
+    <row r="788" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C788" s="7"/>
+      <c r="D788" s="7"/>
+    </row>
+    <row r="789" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C789" s="7"/>
+      <c r="D789" s="7"/>
+    </row>
+    <row r="790" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C790" s="7"/>
+      <c r="D790" s="7"/>
+    </row>
+    <row r="791" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C791" s="7"/>
+      <c r="D791" s="7"/>
+    </row>
+    <row r="792" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C792" s="7"/>
+      <c r="D792" s="7"/>
+    </row>
+    <row r="793" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C793" s="7"/>
+      <c r="D793" s="7"/>
+    </row>
+    <row r="794" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C794" s="7"/>
+      <c r="D794" s="7"/>
+    </row>
+    <row r="795" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C795" s="7"/>
+      <c r="D795" s="7"/>
+    </row>
+    <row r="796" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C796" s="7"/>
+      <c r="D796" s="7"/>
+    </row>
+    <row r="797" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C797" s="7"/>
+      <c r="D797" s="7"/>
+    </row>
+    <row r="798" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C798" s="7"/>
+      <c r="D798" s="7"/>
+    </row>
+    <row r="799" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C799" s="7"/>
+      <c r="D799" s="7"/>
+    </row>
+    <row r="800" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C800" s="7"/>
+      <c r="D800" s="7"/>
+    </row>
+    <row r="801" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C801" s="7"/>
+      <c r="D801" s="7"/>
+    </row>
+    <row r="802" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C802" s="7"/>
+      <c r="D802" s="7"/>
+    </row>
+    <row r="803" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C803" s="7"/>
+      <c r="D803" s="7"/>
+    </row>
+    <row r="804" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C804" s="7"/>
+      <c r="D804" s="7"/>
+    </row>
+    <row r="805" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C805" s="7"/>
+      <c r="D805" s="7"/>
+    </row>
+    <row r="806" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C806" s="7"/>
+      <c r="D806" s="7"/>
+    </row>
+    <row r="807" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C807" s="7"/>
+      <c r="D807" s="7"/>
+    </row>
+    <row r="808" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C808" s="7"/>
+      <c r="D808" s="7"/>
+    </row>
+    <row r="809" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C809" s="7"/>
+      <c r="D809" s="7"/>
+    </row>
+    <row r="810" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C810" s="7"/>
+      <c r="D810" s="7"/>
+    </row>
+    <row r="811" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C811" s="7"/>
+      <c r="D811" s="7"/>
+    </row>
+    <row r="812" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C812" s="7"/>
+      <c r="D812" s="7"/>
+    </row>
+    <row r="813" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C813" s="7"/>
+      <c r="D813" s="7"/>
+    </row>
+    <row r="814" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C814" s="7"/>
+      <c r="D814" s="7"/>
+    </row>
+    <row r="815" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C815" s="7"/>
+      <c r="D815" s="7"/>
+    </row>
+    <row r="816" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C816" s="7"/>
+      <c r="D816" s="7"/>
+    </row>
+    <row r="817" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C817" s="7"/>
+      <c r="D817" s="7"/>
+    </row>
+    <row r="818" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C818" s="7"/>
+      <c r="D818" s="7"/>
+    </row>
+    <row r="819" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C819" s="7"/>
+      <c r="D819" s="7"/>
+    </row>
+    <row r="820" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C820" s="7"/>
+      <c r="D820" s="7"/>
+    </row>
+    <row r="821" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C821" s="7"/>
+      <c r="D821" s="7"/>
+    </row>
+    <row r="822" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C822" s="7"/>
+      <c r="D822" s="7"/>
+    </row>
+    <row r="823" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C823" s="7"/>
+      <c r="D823" s="7"/>
+    </row>
+    <row r="824" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C824" s="7"/>
+      <c r="D824" s="7"/>
+    </row>
+    <row r="825" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C825" s="7"/>
+      <c r="D825" s="7"/>
+    </row>
+    <row r="826" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C826" s="7"/>
+      <c r="D826" s="7"/>
+    </row>
+    <row r="827" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C827" s="7"/>
+      <c r="D827" s="7"/>
+    </row>
+    <row r="828" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C828" s="7"/>
+      <c r="D828" s="7"/>
+    </row>
+    <row r="829" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C829" s="7"/>
+      <c r="D829" s="7"/>
+    </row>
+    <row r="830" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C830" s="7"/>
+      <c r="D830" s="7"/>
+    </row>
+    <row r="831" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C831" s="7"/>
+      <c r="D831" s="7"/>
+    </row>
+    <row r="832" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C832" s="7"/>
+      <c r="D832" s="7"/>
+    </row>
+    <row r="833" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C833" s="7"/>
+      <c r="D833" s="7"/>
+    </row>
+    <row r="834" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C834" s="7"/>
+      <c r="D834" s="7"/>
+    </row>
+    <row r="835" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C835" s="7"/>
+      <c r="D835" s="7"/>
+    </row>
+    <row r="836" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C836" s="7"/>
+      <c r="D836" s="7"/>
+    </row>
+    <row r="837" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C837" s="7"/>
+      <c r="D837" s="7"/>
+    </row>
+    <row r="838" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C838" s="7"/>
+      <c r="D838" s="7"/>
+    </row>
+    <row r="839" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C839" s="7"/>
+      <c r="D839" s="7"/>
+    </row>
+    <row r="840" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C840" s="7"/>
+      <c r="D840" s="7"/>
+    </row>
+    <row r="841" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C841" s="7"/>
+      <c r="D841" s="7"/>
+    </row>
+    <row r="842" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C842" s="7"/>
+      <c r="D842" s="7"/>
+    </row>
+    <row r="843" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C843" s="7"/>
+      <c r="D843" s="7"/>
+    </row>
+    <row r="844" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C844" s="7"/>
+      <c r="D844" s="7"/>
+    </row>
+    <row r="845" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C845" s="7"/>
+      <c r="D845" s="7"/>
+    </row>
+    <row r="846" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C846" s="7"/>
+      <c r="D846" s="7"/>
+    </row>
+    <row r="847" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C847" s="7"/>
+      <c r="D847" s="7"/>
+    </row>
+    <row r="848" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C848" s="7"/>
+      <c r="D848" s="7"/>
+    </row>
+    <row r="849" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C849" s="7"/>
+      <c r="D849" s="7"/>
+    </row>
+    <row r="850" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C850" s="7"/>
+      <c r="D850" s="7"/>
+    </row>
+    <row r="851" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C851" s="7"/>
+      <c r="D851" s="7"/>
+    </row>
+    <row r="852" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C852" s="7"/>
+      <c r="D852" s="7"/>
+    </row>
+    <row r="853" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C853" s="7"/>
+      <c r="D853" s="7"/>
+    </row>
+    <row r="854" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C854" s="7"/>
+      <c r="D854" s="7"/>
+    </row>
+    <row r="855" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C855" s="7"/>
+      <c r="D855" s="7"/>
+    </row>
+    <row r="856" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C856" s="7"/>
+      <c r="D856" s="7"/>
+    </row>
+    <row r="857" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C857" s="7"/>
+      <c r="D857" s="7"/>
+    </row>
+    <row r="858" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C858" s="7"/>
+      <c r="D858" s="7"/>
+    </row>
+    <row r="859" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C859" s="7"/>
+      <c r="D859" s="7"/>
+    </row>
+    <row r="860" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C860" s="7"/>
+      <c r="D860" s="7"/>
+    </row>
+    <row r="861" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C861" s="7"/>
+      <c r="D861" s="7"/>
+    </row>
+    <row r="862" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C862" s="7"/>
+      <c r="D862" s="7"/>
+    </row>
+    <row r="863" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C863" s="7"/>
+      <c r="D863" s="7"/>
+    </row>
+    <row r="864" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C864" s="7"/>
+      <c r="D864" s="7"/>
+    </row>
+    <row r="865" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C865" s="7"/>
+      <c r="D865" s="7"/>
+    </row>
+    <row r="866" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C866" s="7"/>
+      <c r="D866" s="7"/>
+    </row>
+    <row r="867" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C867" s="7"/>
+      <c r="D867" s="7"/>
+    </row>
+    <row r="868" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C868" s="7"/>
+      <c r="D868" s="7"/>
+    </row>
+    <row r="869" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C869" s="7"/>
+      <c r="D869" s="7"/>
+    </row>
+    <row r="870" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C870" s="7"/>
+      <c r="D870" s="7"/>
+    </row>
+    <row r="871" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C871" s="7"/>
+      <c r="D871" s="7"/>
+    </row>
+    <row r="872" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C872" s="7"/>
+      <c r="D872" s="7"/>
+    </row>
+    <row r="873" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C873" s="7"/>
+      <c r="D873" s="7"/>
+    </row>
+    <row r="874" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C874" s="7"/>
+      <c r="D874" s="7"/>
+    </row>
+    <row r="875" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C875" s="7"/>
+      <c r="D875" s="7"/>
+    </row>
+    <row r="876" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C876" s="7"/>
+      <c r="D876" s="7"/>
+    </row>
+    <row r="877" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C877" s="7"/>
+      <c r="D877" s="7"/>
+    </row>
+    <row r="878" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C878" s="7"/>
+      <c r="D878" s="7"/>
+    </row>
+    <row r="879" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C879" s="7"/>
+      <c r="D879" s="7"/>
+    </row>
+    <row r="880" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C880" s="7"/>
+      <c r="D880" s="7"/>
+    </row>
+    <row r="881" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C881" s="7"/>
+      <c r="D881" s="7"/>
+    </row>
+    <row r="882" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C882" s="7"/>
+      <c r="D882" s="7"/>
+    </row>
+    <row r="883" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C883" s="7"/>
+      <c r="D883" s="7"/>
+    </row>
+    <row r="884" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C884" s="7"/>
+      <c r="D884" s="7"/>
+    </row>
+    <row r="885" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C885" s="7"/>
+      <c r="D885" s="7"/>
+    </row>
+    <row r="886" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C886" s="7"/>
+      <c r="D886" s="7"/>
+    </row>
+    <row r="887" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C887" s="7"/>
+      <c r="D887" s="7"/>
+    </row>
+    <row r="888" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C888" s="7"/>
+      <c r="D888" s="7"/>
+    </row>
+    <row r="889" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C889" s="7"/>
+      <c r="D889" s="7"/>
+    </row>
+    <row r="890" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C890" s="7"/>
+      <c r="D890" s="7"/>
+    </row>
+    <row r="891" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C891" s="7"/>
+      <c r="D891" s="7"/>
+    </row>
+    <row r="892" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C892" s="7"/>
+      <c r="D892" s="7"/>
+    </row>
+    <row r="893" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C893" s="7"/>
+      <c r="D893" s="7"/>
+    </row>
+    <row r="894" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C894" s="7"/>
+      <c r="D894" s="7"/>
+    </row>
+    <row r="895" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C895" s="7"/>
+      <c r="D895" s="7"/>
+    </row>
+    <row r="896" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C896" s="7"/>
+      <c r="D896" s="7"/>
+    </row>
+    <row r="897" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C897" s="7"/>
+      <c r="D897" s="7"/>
+    </row>
+    <row r="898" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C898" s="7"/>
+      <c r="D898" s="7"/>
+    </row>
+    <row r="899" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C899" s="7"/>
+      <c r="D899" s="7"/>
+    </row>
+    <row r="900" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C900" s="7"/>
+      <c r="D900" s="7"/>
+    </row>
+    <row r="901" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C901" s="7"/>
+      <c r="D901" s="7"/>
+    </row>
+    <row r="902" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C902" s="7"/>
+      <c r="D902" s="7"/>
+    </row>
+    <row r="903" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C903" s="7"/>
+      <c r="D903" s="7"/>
+    </row>
+    <row r="904" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C904" s="7"/>
+      <c r="D904" s="7"/>
+    </row>
+    <row r="905" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C905" s="7"/>
+      <c r="D905" s="7"/>
+    </row>
+    <row r="906" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C906" s="7"/>
+      <c r="D906" s="7"/>
+    </row>
+    <row r="907" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C907" s="7"/>
+      <c r="D907" s="7"/>
+    </row>
+    <row r="908" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C908" s="7"/>
+      <c r="D908" s="7"/>
+    </row>
+    <row r="909" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C909" s="7"/>
+      <c r="D909" s="7"/>
+    </row>
+    <row r="910" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C910" s="7"/>
+      <c r="D910" s="7"/>
+    </row>
+    <row r="911" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C911" s="7"/>
+      <c r="D911" s="7"/>
+    </row>
+    <row r="912" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C912" s="7"/>
+      <c r="D912" s="7"/>
+    </row>
+    <row r="913" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C913" s="7"/>
+      <c r="D913" s="7"/>
+    </row>
+    <row r="914" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C914" s="7"/>
+      <c r="D914" s="7"/>
+    </row>
+    <row r="915" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C915" s="7"/>
+      <c r="D915" s="7"/>
+    </row>
+    <row r="916" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C916" s="7"/>
+      <c r="D916" s="7"/>
+    </row>
+    <row r="917" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C917" s="7"/>
+      <c r="D917" s="7"/>
+    </row>
+    <row r="918" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C918" s="7"/>
+      <c r="D918" s="7"/>
+    </row>
+    <row r="919" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C919" s="7"/>
+      <c r="D919" s="7"/>
+    </row>
+    <row r="920" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C920" s="7"/>
+      <c r="D920" s="7"/>
+    </row>
+    <row r="921" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C921" s="7"/>
+      <c r="D921" s="7"/>
+    </row>
+    <row r="922" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C922" s="7"/>
+      <c r="D922" s="7"/>
+    </row>
+    <row r="923" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C923" s="7"/>
+      <c r="D923" s="7"/>
+    </row>
+    <row r="924" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C924" s="7"/>
+      <c r="D924" s="7"/>
+    </row>
+    <row r="925" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C925" s="7"/>
+      <c r="D925" s="7"/>
+    </row>
+    <row r="926" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C926" s="7"/>
+      <c r="D926" s="7"/>
+    </row>
+    <row r="927" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C927" s="7"/>
+      <c r="D927" s="7"/>
+    </row>
+    <row r="928" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C928" s="7"/>
+      <c r="D928" s="7"/>
+    </row>
+    <row r="929" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C929" s="7"/>
+      <c r="D929" s="7"/>
+    </row>
+    <row r="930" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C930" s="7"/>
+      <c r="D930" s="7"/>
+    </row>
+    <row r="931" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C931" s="7"/>
+      <c r="D931" s="7"/>
+    </row>
+    <row r="932" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C932" s="7"/>
+      <c r="D932" s="7"/>
+    </row>
+    <row r="933" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C933" s="7"/>
+      <c r="D933" s="7"/>
+    </row>
+    <row r="934" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C934" s="7"/>
+      <c r="D934" s="7"/>
+    </row>
+    <row r="935" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C935" s="7"/>
+      <c r="D935" s="7"/>
+    </row>
+    <row r="936" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C936" s="7"/>
+      <c r="D936" s="7"/>
+    </row>
+    <row r="937" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C937" s="7"/>
+      <c r="D937" s="7"/>
+    </row>
+    <row r="938" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C938" s="7"/>
+      <c r="D938" s="7"/>
+    </row>
+    <row r="939" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C939" s="7"/>
+      <c r="D939" s="7"/>
+    </row>
+    <row r="940" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C940" s="7"/>
+      <c r="D940" s="7"/>
+    </row>
+    <row r="941" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C941" s="7"/>
+      <c r="D941" s="7"/>
+    </row>
+    <row r="942" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C942" s="7"/>
+      <c r="D942" s="7"/>
+    </row>
+    <row r="943" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C943" s="7"/>
+      <c r="D943" s="7"/>
+    </row>
+    <row r="944" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C944" s="7"/>
+      <c r="D944" s="7"/>
+    </row>
+    <row r="945" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C945" s="7"/>
+      <c r="D945" s="7"/>
+    </row>
+    <row r="946" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C946" s="7"/>
+      <c r="D946" s="7"/>
+    </row>
+    <row r="947" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C947" s="7"/>
+      <c r="D947" s="7"/>
+    </row>
+    <row r="948" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C948" s="7"/>
+      <c r="D948" s="7"/>
+    </row>
+    <row r="949" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C949" s="7"/>
+      <c r="D949" s="7"/>
+    </row>
+    <row r="950" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C950" s="7"/>
+      <c r="D950" s="7"/>
+    </row>
+    <row r="951" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C951" s="7"/>
+      <c r="D951" s="7"/>
+    </row>
+    <row r="952" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C952" s="7"/>
+      <c r="D952" s="7"/>
+    </row>
+    <row r="953" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C953" s="7"/>
+      <c r="D953" s="7"/>
+    </row>
+    <row r="954" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C954" s="7"/>
+      <c r="D954" s="7"/>
+    </row>
+    <row r="955" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C955" s="7"/>
+      <c r="D955" s="7"/>
+    </row>
+    <row r="956" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C956" s="7"/>
+      <c r="D956" s="7"/>
+    </row>
+    <row r="957" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C957" s="7"/>
+      <c r="D957" s="7"/>
+    </row>
+    <row r="958" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C958" s="7"/>
+      <c r="D958" s="7"/>
+    </row>
+    <row r="959" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C959" s="7"/>
+      <c r="D959" s="7"/>
+    </row>
+    <row r="960" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C960" s="7"/>
+      <c r="D960" s="7"/>
+    </row>
+    <row r="961" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C961" s="7"/>
+      <c r="D961" s="7"/>
+    </row>
+    <row r="962" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C962" s="7"/>
+      <c r="D962" s="7"/>
+    </row>
+    <row r="963" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C963" s="7"/>
+      <c r="D963" s="7"/>
+    </row>
+    <row r="964" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C964" s="7"/>
+      <c r="D964" s="7"/>
+    </row>
+    <row r="965" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C965" s="7"/>
+      <c r="D965" s="7"/>
+    </row>
+    <row r="966" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C966" s="7"/>
+      <c r="D966" s="7"/>
+    </row>
+    <row r="967" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C967" s="7"/>
+      <c r="D967" s="7"/>
+    </row>
+    <row r="968" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C968" s="7"/>
+      <c r="D968" s="7"/>
+    </row>
+    <row r="969" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C969" s="7"/>
+      <c r="D969" s="7"/>
+    </row>
+    <row r="970" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C970" s="7"/>
+      <c r="D970" s="7"/>
+    </row>
+    <row r="971" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C971" s="7"/>
+      <c r="D971" s="7"/>
+    </row>
+    <row r="972" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C972" s="7"/>
+      <c r="D972" s="7"/>
+    </row>
+    <row r="973" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C973" s="7"/>
+      <c r="D973" s="7"/>
+    </row>
+    <row r="974" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C974" s="7"/>
+      <c r="D974" s="7"/>
+    </row>
+    <row r="975" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C975" s="7"/>
+      <c r="D975" s="7"/>
+    </row>
+    <row r="976" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C976" s="7"/>
+      <c r="D976" s="7"/>
+    </row>
+    <row r="977" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C977" s="7"/>
+      <c r="D977" s="7"/>
+    </row>
+    <row r="978" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C978" s="7"/>
+      <c r="D978" s="7"/>
+    </row>
+    <row r="979" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C979" s="7"/>
+      <c r="D979" s="7"/>
+    </row>
+    <row r="980" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C980" s="7"/>
+      <c r="D980" s="7"/>
+    </row>
+    <row r="981" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C981" s="7"/>
+      <c r="D981" s="7"/>
+    </row>
+    <row r="982" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C982" s="7"/>
+      <c r="D982" s="7"/>
+    </row>
+    <row r="983" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C983" s="7"/>
+      <c r="D983" s="7"/>
+    </row>
+    <row r="984" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C984" s="7"/>
+      <c r="D984" s="7"/>
+    </row>
+    <row r="985" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C985" s="7"/>
+      <c r="D985" s="7"/>
+    </row>
+    <row r="986" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C986" s="7"/>
+      <c r="D986" s="7"/>
+    </row>
+    <row r="987" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C987" s="7"/>
+      <c r="D987" s="7"/>
+    </row>
+    <row r="988" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C988" s="7"/>
+      <c r="D988" s="7"/>
+    </row>
+    <row r="989" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C989" s="7"/>
+      <c r="D989" s="7"/>
+    </row>
+    <row r="990" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C990" s="7"/>
+      <c r="D990" s="7"/>
+    </row>
+    <row r="991" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C991" s="7"/>
+      <c r="D991" s="7"/>
+    </row>
+    <row r="992" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C992" s="7"/>
+      <c r="D992" s="7"/>
+    </row>
+    <row r="993" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C993" s="7"/>
+      <c r="D993" s="7"/>
+    </row>
+    <row r="994" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C994" s="7"/>
+      <c r="D994" s="7"/>
+    </row>
+    <row r="995" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C995" s="7"/>
+      <c r="D995" s="7"/>
+    </row>
+    <row r="996" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C996" s="7"/>
+      <c r="D996" s="7"/>
+    </row>
+    <row r="997" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C997" s="7"/>
+      <c r="D997" s="7"/>
+    </row>
+    <row r="998" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C998" s="7"/>
+      <c r="D998" s="7"/>
+    </row>
+    <row r="999" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C999" s="7"/>
+      <c r="D999" s="7"/>
+    </row>
+    <row r="1000" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1000" s="7"/>
+      <c r="D1000" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-92 Missing value.xlsx
+++ b/CH-92 Missing value.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4FCCF9-D00B-431D-8CAC-CF1AF3C524E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A052171-80AA-4ECC-BD7F-67010FFCD0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="14">
   <si>
     <t>Question</t>
   </si>
@@ -98,6 +98,15 @@
   <si>
     <t>I like the offset approach for its obvious approach.</t>
   </si>
+  <si>
+    <t>Switch is not a bad approach for this.</t>
+  </si>
+  <si>
+    <t>Not much different than IFS. Just different, not better.</t>
+  </si>
+  <si>
+    <t>One issue with offset is that it is volatile. This means it recomputes on every change, which is not necessary.</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +156,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Corbel"/>
       <family val="2"/>
@@ -245,7 +261,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -266,14 +282,15 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Intro_Hd" xfId="2" xr:uid="{939452B0-992F-464A-8BB9-90FACA3DA973}"/>
@@ -897,22 +914,22 @@
     <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -5485,22 +5502,22 @@
     <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -10218,7 +10235,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I19:I20"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10235,22 +10252,22 @@
     <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -14906,8 +14923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04079D5C-BDC8-4765-B8EC-A1D20E64C238}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14924,22 +14941,22 @@
     <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -15455,7 +15472,7 @@
       <c r="S15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="7"/>
@@ -15508,6 +15525,9 @@
         <f ca="1"/>
         <v>1</v>
       </c>
+      <c r="M18" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="P18" s="8"/>
       <c r="S18" s="9"/>
     </row>
@@ -15544,6 +15564,9 @@
         <f ca="1"/>
         <v>1</v>
       </c>
+      <c r="M19" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="P19" s="8"/>
       <c r="S19" s="9"/>
     </row>
@@ -15615,6 +15638,9 @@
       <c r="K21" t="b">
         <f ca="1"/>
         <v>1</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="P21" s="8"/>
       <c r="S21" s="9"/>

--- a/CH-92 Missing value.xlsx
+++ b/CH-92 Missing value.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A052171-80AA-4ECC-BD7F-67010FFCD0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B09CD5B-7940-4F91-89BB-7F863363DDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt1" sheetId="3" r:id="rId2"/>
     <sheet name="Alt2" sheetId="4" r:id="rId3"/>
     <sheet name="EDA" sheetId="5" r:id="rId4"/>
+    <sheet name="My_Single_Function" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
@@ -35,7 +36,7 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="XHIE6UXJSq8MV2Ar0xW51Xd084K+jXPOuB+HemXMy+c="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="XHIE6UXJSq8MV2Ar0xW51Xd084K+jXPOuB+HemXMy+c="/>
     </ext>
   </extLst>
 </workbook>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="17">
   <si>
     <t>Question</t>
   </si>
@@ -106,6 +107,15 @@
   </si>
   <si>
     <t>One issue with offset is that it is volatile. This means it recomputes on every change, which is not necessary.</t>
+  </si>
+  <si>
+    <t>I want to remove the volatile function. Let's try INDEX.</t>
+  </si>
+  <si>
+    <t>First, lets see how well IFS does for the "offsets".</t>
+  </si>
+  <si>
+    <t>A19</t>
   </si>
 </sst>
 </file>
@@ -10235,7 +10245,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14923,8 +14933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04079D5C-BDC8-4765-B8EC-A1D20E64C238}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19852,4 +19862,4819 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A932BE-8E3C-470C-A0EC-77638493AE59}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="2.88671875" customWidth="1"/>
+    <col min="3" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" customWidth="1"/>
+    <col min="17" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.21875" customWidth="1"/>
+    <col min="20" max="26" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>70</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4">
+        <v>70</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4">
+        <v>78</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>32</v>
+      </c>
+      <c r="M4" s="4">
+        <v>36</v>
+      </c>
+      <c r="N4" s="4">
+        <v>78</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>65</v>
+      </c>
+      <c r="E5" s="4">
+        <v>67</v>
+      </c>
+      <c r="F5" s="4">
+        <v>94</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="4">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>65</v>
+      </c>
+      <c r="M5" s="4">
+        <v>67</v>
+      </c>
+      <c r="N5" s="4">
+        <v>94</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="4">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>40</v>
+      </c>
+      <c r="M6" s="5">
+        <v>68</v>
+      </c>
+      <c r="N6" s="4">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>57</v>
+      </c>
+      <c r="E7" s="4">
+        <v>68</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>57</v>
+      </c>
+      <c r="M7" s="4">
+        <v>68</v>
+      </c>
+      <c r="N7" s="5">
+        <v>68</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="4">
+        <v>6</v>
+      </c>
+      <c r="L8" s="5">
+        <v>30</v>
+      </c>
+      <c r="M8" s="4">
+        <v>30</v>
+      </c>
+      <c r="N8" s="4">
+        <v>12</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4">
+        <v>89</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4">
+        <v>7</v>
+      </c>
+      <c r="L9" s="4">
+        <v>11</v>
+      </c>
+      <c r="M9" s="4">
+        <v>12</v>
+      </c>
+      <c r="N9" s="4">
+        <v>89</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4">
+        <v>8</v>
+      </c>
+      <c r="L10" s="4">
+        <v>34</v>
+      </c>
+      <c r="M10" s="5">
+        <v>34</v>
+      </c>
+      <c r="N10" s="4">
+        <v>10</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>78</v>
+      </c>
+      <c r="E11" s="4">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4">
+        <v>9</v>
+      </c>
+      <c r="L11" s="4">
+        <v>78</v>
+      </c>
+      <c r="M11" s="4">
+        <v>50</v>
+      </c>
+      <c r="N11" s="4">
+        <v>10</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
+        <v>94</v>
+      </c>
+      <c r="E12" s="4">
+        <v>84</v>
+      </c>
+      <c r="F12" s="4">
+        <v>82</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4">
+        <v>94</v>
+      </c>
+      <c r="M12" s="4">
+        <v>84</v>
+      </c>
+      <c r="N12" s="4">
+        <v>82</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" cm="1">
+        <f t="array" aca="1" ref="C18" ca="1">_xlfn.VSTACK(K2:N2,_xlfn.MAP(
+C3:F12,
+_xlfn.LAMBDA(_xlpm.v,  _xlfn.LET(_xlpm.r, _xlfn.IFS(_xlpm.v="U",-1,_xlpm.v="D",1,1,0),
+               _xlpm.c, _xlfn.IFS(_xlpm.v="L",-1,_xlpm.v="R",1,1,0),
+               _xlpm.z, INDEX(_xlfn.ANCHORARRAY($C$18),ROW(_xlpm.v)+_xlpm.r-ROW($C$18)+1,COLUMN(_xlpm.v)+_xlpm.c-COLUMN($C$18)+1),
+               _xlpm.z)
+      )
+))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18" t="b" cm="1">
+        <f t="array" aca="1" ref="H18:K28" ca="1">_xlfn.ANCHORARRAY(C18)=K2:N12</f>
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="H19" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="P19" s="8"/>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="H20" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="H21" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="P21" s="8"/>
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="H22" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="8"/>
+      <c r="S22" s="9"/>
+    </row>
+    <row r="23" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="H23" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="H24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="11" t="str" cm="1">
+        <f t="array" ref="N24">INDEX(C2:F12,ROW(C24)+2-ROW(C18)+1,COLUMN(C24)+2-COLUMN(C18)+1)</f>
+        <v>L</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="S24" s="9"/>
+    </row>
+    <row r="25" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="H25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <f>COLUMN(N23)</f>
+        <v>14</v>
+      </c>
+      <c r="P25" s="8"/>
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="H26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P26" s="8"/>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="H27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P27" s="8"/>
+      <c r="S27" s="9"/>
+    </row>
+    <row r="28" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="H28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="P29" s="8"/>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="P30" s="8"/>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="P31" s="9"/>
+      <c r="S31" s="9"/>
+    </row>
+    <row r="32" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="P32" s="9"/>
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="P33" s="9"/>
+      <c r="S33" s="9"/>
+    </row>
+    <row r="34" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="P34" s="9"/>
+      <c r="S34" s="9"/>
+    </row>
+    <row r="35" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="P35" s="9"/>
+      <c r="S35" s="9"/>
+    </row>
+    <row r="36" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="P36" s="9"/>
+      <c r="S36" s="9"/>
+    </row>
+    <row r="37" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="P37" s="9"/>
+      <c r="S37" s="9"/>
+    </row>
+    <row r="38" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="P38" s="9"/>
+      <c r="S38" s="9"/>
+    </row>
+    <row r="39" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="P39" s="9"/>
+      <c r="S39" s="9"/>
+    </row>
+    <row r="40" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="P40" s="9"/>
+      <c r="S40" s="9"/>
+    </row>
+    <row r="41" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="S41" s="9"/>
+    </row>
+    <row r="42" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="S42" s="9"/>
+    </row>
+    <row r="43" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="S43" s="9"/>
+    </row>
+    <row r="44" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="S44" s="9"/>
+    </row>
+    <row r="45" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="S45" s="9"/>
+    </row>
+    <row r="46" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="S46" s="9"/>
+    </row>
+    <row r="47" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="S47" s="9"/>
+    </row>
+    <row r="48" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="S48" s="9"/>
+    </row>
+    <row r="49" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="S49" s="9"/>
+    </row>
+    <row r="50" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="S50" s="9"/>
+    </row>
+    <row r="51" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="S51" s="9"/>
+    </row>
+    <row r="52" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="S52" s="9"/>
+    </row>
+    <row r="53" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="S53" s="9"/>
+    </row>
+    <row r="54" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="S54" s="9"/>
+    </row>
+    <row r="55" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="S55" s="9"/>
+    </row>
+    <row r="56" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="S56" s="9"/>
+    </row>
+    <row r="57" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="S57" s="9"/>
+    </row>
+    <row r="58" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="S58" s="9"/>
+    </row>
+    <row r="59" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="S59" s="9"/>
+    </row>
+    <row r="60" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="S60" s="9"/>
+    </row>
+    <row r="61" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="S61" s="9"/>
+    </row>
+    <row r="62" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="S62" s="9"/>
+    </row>
+    <row r="63" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="S63" s="9"/>
+    </row>
+    <row r="64" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="S64" s="9"/>
+    </row>
+    <row r="65" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="S65" s="9"/>
+    </row>
+    <row r="66" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="S66" s="9"/>
+    </row>
+    <row r="67" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="S67" s="9"/>
+    </row>
+    <row r="68" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="S68" s="9"/>
+    </row>
+    <row r="69" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="S69" s="9"/>
+    </row>
+    <row r="70" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="S70" s="9"/>
+    </row>
+    <row r="71" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="S71" s="9"/>
+    </row>
+    <row r="72" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="S72" s="9"/>
+    </row>
+    <row r="73" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="S73" s="9"/>
+    </row>
+    <row r="74" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="S74" s="9"/>
+    </row>
+    <row r="75" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="S75" s="9"/>
+    </row>
+    <row r="76" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+    </row>
+    <row r="128" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+    </row>
+    <row r="130" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+    </row>
+    <row r="131" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+    </row>
+    <row r="141" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+    </row>
+    <row r="142" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+    </row>
+    <row r="143" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+    </row>
+    <row r="145" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+    </row>
+    <row r="146" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+    </row>
+    <row r="147" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+    </row>
+    <row r="148" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+    </row>
+    <row r="149" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+    </row>
+    <row r="150" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+    </row>
+    <row r="151" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+    </row>
+    <row r="152" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+    </row>
+    <row r="153" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+    </row>
+    <row r="154" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+    </row>
+    <row r="155" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+    </row>
+    <row r="156" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+    </row>
+    <row r="157" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+    </row>
+    <row r="158" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+    </row>
+    <row r="159" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+    </row>
+    <row r="160" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+    </row>
+    <row r="161" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+    </row>
+    <row r="162" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+    </row>
+    <row r="163" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+    </row>
+    <row r="164" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+    </row>
+    <row r="165" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+    </row>
+    <row r="166" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+    </row>
+    <row r="167" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+    </row>
+    <row r="168" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+    </row>
+    <row r="169" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+    </row>
+    <row r="170" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+    </row>
+    <row r="171" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+    </row>
+    <row r="172" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+    </row>
+    <row r="173" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+    </row>
+    <row r="174" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+    </row>
+    <row r="175" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+    </row>
+    <row r="176" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+    </row>
+    <row r="177" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+    </row>
+    <row r="178" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+    </row>
+    <row r="179" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+    </row>
+    <row r="180" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+    </row>
+    <row r="181" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+    </row>
+    <row r="182" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+    </row>
+    <row r="183" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+    </row>
+    <row r="184" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+    </row>
+    <row r="185" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+    </row>
+    <row r="186" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+    </row>
+    <row r="187" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+    </row>
+    <row r="188" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+    </row>
+    <row r="189" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+    </row>
+    <row r="190" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+    </row>
+    <row r="191" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+    </row>
+    <row r="192" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+    </row>
+    <row r="193" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+    </row>
+    <row r="194" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+    </row>
+    <row r="195" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+    </row>
+    <row r="196" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+    </row>
+    <row r="197" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+    </row>
+    <row r="198" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+    </row>
+    <row r="199" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+    </row>
+    <row r="200" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+    </row>
+    <row r="201" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+    </row>
+    <row r="202" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+    </row>
+    <row r="203" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+    </row>
+    <row r="204" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+    </row>
+    <row r="205" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+    </row>
+    <row r="206" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+    </row>
+    <row r="207" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+    </row>
+    <row r="208" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+    </row>
+    <row r="209" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+    </row>
+    <row r="210" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+    </row>
+    <row r="211" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+    </row>
+    <row r="212" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
+    </row>
+    <row r="213" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+    </row>
+    <row r="214" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
+    </row>
+    <row r="215" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+    </row>
+    <row r="216" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+    </row>
+    <row r="217" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
+    </row>
+    <row r="218" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+    </row>
+    <row r="219" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C219" s="7"/>
+      <c r="D219" s="7"/>
+    </row>
+    <row r="220" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
+    </row>
+    <row r="221" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
+    </row>
+    <row r="222" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
+    </row>
+    <row r="223" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C223" s="7"/>
+      <c r="D223" s="7"/>
+    </row>
+    <row r="224" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C224" s="7"/>
+      <c r="D224" s="7"/>
+    </row>
+    <row r="225" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C225" s="7"/>
+      <c r="D225" s="7"/>
+    </row>
+    <row r="226" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C226" s="7"/>
+      <c r="D226" s="7"/>
+    </row>
+    <row r="227" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C227" s="7"/>
+      <c r="D227" s="7"/>
+    </row>
+    <row r="228" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C228" s="7"/>
+      <c r="D228" s="7"/>
+    </row>
+    <row r="229" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C229" s="7"/>
+      <c r="D229" s="7"/>
+    </row>
+    <row r="230" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C230" s="7"/>
+      <c r="D230" s="7"/>
+    </row>
+    <row r="231" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
+    </row>
+    <row r="232" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
+    </row>
+    <row r="233" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+    </row>
+    <row r="234" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C234" s="7"/>
+      <c r="D234" s="7"/>
+    </row>
+    <row r="235" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C235" s="7"/>
+      <c r="D235" s="7"/>
+    </row>
+    <row r="236" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
+    </row>
+    <row r="237" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C237" s="7"/>
+      <c r="D237" s="7"/>
+    </row>
+    <row r="238" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C238" s="7"/>
+      <c r="D238" s="7"/>
+    </row>
+    <row r="239" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C239" s="7"/>
+      <c r="D239" s="7"/>
+    </row>
+    <row r="240" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C240" s="7"/>
+      <c r="D240" s="7"/>
+    </row>
+    <row r="241" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+    </row>
+    <row r="242" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+    </row>
+    <row r="243" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+    </row>
+    <row r="244" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+    </row>
+    <row r="245" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+    </row>
+    <row r="246" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
+    </row>
+    <row r="247" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+    </row>
+    <row r="248" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+    </row>
+    <row r="249" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+    </row>
+    <row r="250" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+    </row>
+    <row r="251" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+    </row>
+    <row r="252" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C252" s="7"/>
+      <c r="D252" s="7"/>
+    </row>
+    <row r="253" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+    </row>
+    <row r="254" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+    </row>
+    <row r="255" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
+    </row>
+    <row r="256" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C256" s="7"/>
+      <c r="D256" s="7"/>
+    </row>
+    <row r="257" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C257" s="7"/>
+      <c r="D257" s="7"/>
+    </row>
+    <row r="258" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C258" s="7"/>
+      <c r="D258" s="7"/>
+    </row>
+    <row r="259" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C259" s="7"/>
+      <c r="D259" s="7"/>
+    </row>
+    <row r="260" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C260" s="7"/>
+      <c r="D260" s="7"/>
+    </row>
+    <row r="261" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C261" s="7"/>
+      <c r="D261" s="7"/>
+    </row>
+    <row r="262" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C262" s="7"/>
+      <c r="D262" s="7"/>
+    </row>
+    <row r="263" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C263" s="7"/>
+      <c r="D263" s="7"/>
+    </row>
+    <row r="264" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C264" s="7"/>
+      <c r="D264" s="7"/>
+    </row>
+    <row r="265" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C265" s="7"/>
+      <c r="D265" s="7"/>
+    </row>
+    <row r="266" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C266" s="7"/>
+      <c r="D266" s="7"/>
+    </row>
+    <row r="267" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C267" s="7"/>
+      <c r="D267" s="7"/>
+    </row>
+    <row r="268" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C268" s="7"/>
+      <c r="D268" s="7"/>
+    </row>
+    <row r="269" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C269" s="7"/>
+      <c r="D269" s="7"/>
+    </row>
+    <row r="270" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C270" s="7"/>
+      <c r="D270" s="7"/>
+    </row>
+    <row r="271" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C271" s="7"/>
+      <c r="D271" s="7"/>
+    </row>
+    <row r="272" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C272" s="7"/>
+      <c r="D272" s="7"/>
+    </row>
+    <row r="273" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C273" s="7"/>
+      <c r="D273" s="7"/>
+    </row>
+    <row r="274" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C274" s="7"/>
+      <c r="D274" s="7"/>
+    </row>
+    <row r="275" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C275" s="7"/>
+      <c r="D275" s="7"/>
+    </row>
+    <row r="276" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C276" s="7"/>
+      <c r="D276" s="7"/>
+    </row>
+    <row r="277" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C277" s="7"/>
+      <c r="D277" s="7"/>
+    </row>
+    <row r="278" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C278" s="7"/>
+      <c r="D278" s="7"/>
+    </row>
+    <row r="279" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C279" s="7"/>
+      <c r="D279" s="7"/>
+    </row>
+    <row r="280" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C280" s="7"/>
+      <c r="D280" s="7"/>
+    </row>
+    <row r="281" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C281" s="7"/>
+      <c r="D281" s="7"/>
+    </row>
+    <row r="282" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C282" s="7"/>
+      <c r="D282" s="7"/>
+    </row>
+    <row r="283" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C283" s="7"/>
+      <c r="D283" s="7"/>
+    </row>
+    <row r="284" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C284" s="7"/>
+      <c r="D284" s="7"/>
+    </row>
+    <row r="285" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C285" s="7"/>
+      <c r="D285" s="7"/>
+    </row>
+    <row r="286" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C286" s="7"/>
+      <c r="D286" s="7"/>
+    </row>
+    <row r="287" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C287" s="7"/>
+      <c r="D287" s="7"/>
+    </row>
+    <row r="288" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C288" s="7"/>
+      <c r="D288" s="7"/>
+    </row>
+    <row r="289" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C289" s="7"/>
+      <c r="D289" s="7"/>
+    </row>
+    <row r="290" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C290" s="7"/>
+      <c r="D290" s="7"/>
+    </row>
+    <row r="291" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C291" s="7"/>
+      <c r="D291" s="7"/>
+    </row>
+    <row r="292" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C292" s="7"/>
+      <c r="D292" s="7"/>
+    </row>
+    <row r="293" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C293" s="7"/>
+      <c r="D293" s="7"/>
+    </row>
+    <row r="294" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C294" s="7"/>
+      <c r="D294" s="7"/>
+    </row>
+    <row r="295" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C295" s="7"/>
+      <c r="D295" s="7"/>
+    </row>
+    <row r="296" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C296" s="7"/>
+      <c r="D296" s="7"/>
+    </row>
+    <row r="297" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C297" s="7"/>
+      <c r="D297" s="7"/>
+    </row>
+    <row r="298" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C298" s="7"/>
+      <c r="D298" s="7"/>
+    </row>
+    <row r="299" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C299" s="7"/>
+      <c r="D299" s="7"/>
+    </row>
+    <row r="300" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C300" s="7"/>
+      <c r="D300" s="7"/>
+    </row>
+    <row r="301" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C301" s="7"/>
+      <c r="D301" s="7"/>
+    </row>
+    <row r="302" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C302" s="7"/>
+      <c r="D302" s="7"/>
+    </row>
+    <row r="303" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C303" s="7"/>
+      <c r="D303" s="7"/>
+    </row>
+    <row r="304" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C304" s="7"/>
+      <c r="D304" s="7"/>
+    </row>
+    <row r="305" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C305" s="7"/>
+      <c r="D305" s="7"/>
+    </row>
+    <row r="306" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C306" s="7"/>
+      <c r="D306" s="7"/>
+    </row>
+    <row r="307" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C307" s="7"/>
+      <c r="D307" s="7"/>
+    </row>
+    <row r="308" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C308" s="7"/>
+      <c r="D308" s="7"/>
+    </row>
+    <row r="309" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C309" s="7"/>
+      <c r="D309" s="7"/>
+    </row>
+    <row r="310" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C310" s="7"/>
+      <c r="D310" s="7"/>
+    </row>
+    <row r="311" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C311" s="7"/>
+      <c r="D311" s="7"/>
+    </row>
+    <row r="312" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C312" s="7"/>
+      <c r="D312" s="7"/>
+    </row>
+    <row r="313" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C313" s="7"/>
+      <c r="D313" s="7"/>
+    </row>
+    <row r="314" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C314" s="7"/>
+      <c r="D314" s="7"/>
+    </row>
+    <row r="315" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C315" s="7"/>
+      <c r="D315" s="7"/>
+    </row>
+    <row r="316" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C316" s="7"/>
+      <c r="D316" s="7"/>
+    </row>
+    <row r="317" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C317" s="7"/>
+      <c r="D317" s="7"/>
+    </row>
+    <row r="318" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C318" s="7"/>
+      <c r="D318" s="7"/>
+    </row>
+    <row r="319" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C319" s="7"/>
+      <c r="D319" s="7"/>
+    </row>
+    <row r="320" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C320" s="7"/>
+      <c r="D320" s="7"/>
+    </row>
+    <row r="321" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C321" s="7"/>
+      <c r="D321" s="7"/>
+    </row>
+    <row r="322" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C322" s="7"/>
+      <c r="D322" s="7"/>
+    </row>
+    <row r="323" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C323" s="7"/>
+      <c r="D323" s="7"/>
+    </row>
+    <row r="324" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C324" s="7"/>
+      <c r="D324" s="7"/>
+    </row>
+    <row r="325" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C325" s="7"/>
+      <c r="D325" s="7"/>
+    </row>
+    <row r="326" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C326" s="7"/>
+      <c r="D326" s="7"/>
+    </row>
+    <row r="327" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C327" s="7"/>
+      <c r="D327" s="7"/>
+    </row>
+    <row r="328" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C328" s="7"/>
+      <c r="D328" s="7"/>
+    </row>
+    <row r="329" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C329" s="7"/>
+      <c r="D329" s="7"/>
+    </row>
+    <row r="330" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C330" s="7"/>
+      <c r="D330" s="7"/>
+    </row>
+    <row r="331" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C331" s="7"/>
+      <c r="D331" s="7"/>
+    </row>
+    <row r="332" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C332" s="7"/>
+      <c r="D332" s="7"/>
+    </row>
+    <row r="333" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C333" s="7"/>
+      <c r="D333" s="7"/>
+    </row>
+    <row r="334" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C334" s="7"/>
+      <c r="D334" s="7"/>
+    </row>
+    <row r="335" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C335" s="7"/>
+      <c r="D335" s="7"/>
+    </row>
+    <row r="336" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C336" s="7"/>
+      <c r="D336" s="7"/>
+    </row>
+    <row r="337" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C337" s="7"/>
+      <c r="D337" s="7"/>
+    </row>
+    <row r="338" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C338" s="7"/>
+      <c r="D338" s="7"/>
+    </row>
+    <row r="339" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C339" s="7"/>
+      <c r="D339" s="7"/>
+    </row>
+    <row r="340" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C340" s="7"/>
+      <c r="D340" s="7"/>
+    </row>
+    <row r="341" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C341" s="7"/>
+      <c r="D341" s="7"/>
+    </row>
+    <row r="342" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C342" s="7"/>
+      <c r="D342" s="7"/>
+    </row>
+    <row r="343" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C343" s="7"/>
+      <c r="D343" s="7"/>
+    </row>
+    <row r="344" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C344" s="7"/>
+      <c r="D344" s="7"/>
+    </row>
+    <row r="345" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C345" s="7"/>
+      <c r="D345" s="7"/>
+    </row>
+    <row r="346" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C346" s="7"/>
+      <c r="D346" s="7"/>
+    </row>
+    <row r="347" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C347" s="7"/>
+      <c r="D347" s="7"/>
+    </row>
+    <row r="348" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C348" s="7"/>
+      <c r="D348" s="7"/>
+    </row>
+    <row r="349" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C349" s="7"/>
+      <c r="D349" s="7"/>
+    </row>
+    <row r="350" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C350" s="7"/>
+      <c r="D350" s="7"/>
+    </row>
+    <row r="351" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C351" s="7"/>
+      <c r="D351" s="7"/>
+    </row>
+    <row r="352" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C352" s="7"/>
+      <c r="D352" s="7"/>
+    </row>
+    <row r="353" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C353" s="7"/>
+      <c r="D353" s="7"/>
+    </row>
+    <row r="354" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C354" s="7"/>
+      <c r="D354" s="7"/>
+    </row>
+    <row r="355" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C355" s="7"/>
+      <c r="D355" s="7"/>
+    </row>
+    <row r="356" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C356" s="7"/>
+      <c r="D356" s="7"/>
+    </row>
+    <row r="357" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C357" s="7"/>
+      <c r="D357" s="7"/>
+    </row>
+    <row r="358" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C358" s="7"/>
+      <c r="D358" s="7"/>
+    </row>
+    <row r="359" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C359" s="7"/>
+      <c r="D359" s="7"/>
+    </row>
+    <row r="360" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C360" s="7"/>
+      <c r="D360" s="7"/>
+    </row>
+    <row r="361" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C361" s="7"/>
+      <c r="D361" s="7"/>
+    </row>
+    <row r="362" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C362" s="7"/>
+      <c r="D362" s="7"/>
+    </row>
+    <row r="363" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C363" s="7"/>
+      <c r="D363" s="7"/>
+    </row>
+    <row r="364" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C364" s="7"/>
+      <c r="D364" s="7"/>
+    </row>
+    <row r="365" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C365" s="7"/>
+      <c r="D365" s="7"/>
+    </row>
+    <row r="366" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C366" s="7"/>
+      <c r="D366" s="7"/>
+    </row>
+    <row r="367" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C367" s="7"/>
+      <c r="D367" s="7"/>
+    </row>
+    <row r="368" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C368" s="7"/>
+      <c r="D368" s="7"/>
+    </row>
+    <row r="369" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C369" s="7"/>
+      <c r="D369" s="7"/>
+    </row>
+    <row r="370" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C370" s="7"/>
+      <c r="D370" s="7"/>
+    </row>
+    <row r="371" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C371" s="7"/>
+      <c r="D371" s="7"/>
+    </row>
+    <row r="372" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C372" s="7"/>
+      <c r="D372" s="7"/>
+    </row>
+    <row r="373" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C373" s="7"/>
+      <c r="D373" s="7"/>
+    </row>
+    <row r="374" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C374" s="7"/>
+      <c r="D374" s="7"/>
+    </row>
+    <row r="375" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C375" s="7"/>
+      <c r="D375" s="7"/>
+    </row>
+    <row r="376" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C376" s="7"/>
+      <c r="D376" s="7"/>
+    </row>
+    <row r="377" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C377" s="7"/>
+      <c r="D377" s="7"/>
+    </row>
+    <row r="378" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C378" s="7"/>
+      <c r="D378" s="7"/>
+    </row>
+    <row r="379" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C379" s="7"/>
+      <c r="D379" s="7"/>
+    </row>
+    <row r="380" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C380" s="7"/>
+      <c r="D380" s="7"/>
+    </row>
+    <row r="381" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C381" s="7"/>
+      <c r="D381" s="7"/>
+    </row>
+    <row r="382" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C382" s="7"/>
+      <c r="D382" s="7"/>
+    </row>
+    <row r="383" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C383" s="7"/>
+      <c r="D383" s="7"/>
+    </row>
+    <row r="384" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C384" s="7"/>
+      <c r="D384" s="7"/>
+    </row>
+    <row r="385" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C385" s="7"/>
+      <c r="D385" s="7"/>
+    </row>
+    <row r="386" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C386" s="7"/>
+      <c r="D386" s="7"/>
+    </row>
+    <row r="387" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C387" s="7"/>
+      <c r="D387" s="7"/>
+    </row>
+    <row r="388" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C388" s="7"/>
+      <c r="D388" s="7"/>
+    </row>
+    <row r="389" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C389" s="7"/>
+      <c r="D389" s="7"/>
+    </row>
+    <row r="390" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C390" s="7"/>
+      <c r="D390" s="7"/>
+    </row>
+    <row r="391" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C391" s="7"/>
+      <c r="D391" s="7"/>
+    </row>
+    <row r="392" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C392" s="7"/>
+      <c r="D392" s="7"/>
+    </row>
+    <row r="393" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C393" s="7"/>
+      <c r="D393" s="7"/>
+    </row>
+    <row r="394" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C394" s="7"/>
+      <c r="D394" s="7"/>
+    </row>
+    <row r="395" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C395" s="7"/>
+      <c r="D395" s="7"/>
+    </row>
+    <row r="396" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C396" s="7"/>
+      <c r="D396" s="7"/>
+    </row>
+    <row r="397" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C397" s="7"/>
+      <c r="D397" s="7"/>
+    </row>
+    <row r="398" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C398" s="7"/>
+      <c r="D398" s="7"/>
+    </row>
+    <row r="399" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C399" s="7"/>
+      <c r="D399" s="7"/>
+    </row>
+    <row r="400" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C400" s="7"/>
+      <c r="D400" s="7"/>
+    </row>
+    <row r="401" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C401" s="7"/>
+      <c r="D401" s="7"/>
+    </row>
+    <row r="402" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C402" s="7"/>
+      <c r="D402" s="7"/>
+    </row>
+    <row r="403" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C403" s="7"/>
+      <c r="D403" s="7"/>
+    </row>
+    <row r="404" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C404" s="7"/>
+      <c r="D404" s="7"/>
+    </row>
+    <row r="405" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C405" s="7"/>
+      <c r="D405" s="7"/>
+    </row>
+    <row r="406" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C406" s="7"/>
+      <c r="D406" s="7"/>
+    </row>
+    <row r="407" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C407" s="7"/>
+      <c r="D407" s="7"/>
+    </row>
+    <row r="408" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C408" s="7"/>
+      <c r="D408" s="7"/>
+    </row>
+    <row r="409" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C409" s="7"/>
+      <c r="D409" s="7"/>
+    </row>
+    <row r="410" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C410" s="7"/>
+      <c r="D410" s="7"/>
+    </row>
+    <row r="411" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C411" s="7"/>
+      <c r="D411" s="7"/>
+    </row>
+    <row r="412" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C412" s="7"/>
+      <c r="D412" s="7"/>
+    </row>
+    <row r="413" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C413" s="7"/>
+      <c r="D413" s="7"/>
+    </row>
+    <row r="414" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C414" s="7"/>
+      <c r="D414" s="7"/>
+    </row>
+    <row r="415" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C415" s="7"/>
+      <c r="D415" s="7"/>
+    </row>
+    <row r="416" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C416" s="7"/>
+      <c r="D416" s="7"/>
+    </row>
+    <row r="417" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C417" s="7"/>
+      <c r="D417" s="7"/>
+    </row>
+    <row r="418" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C418" s="7"/>
+      <c r="D418" s="7"/>
+    </row>
+    <row r="419" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C419" s="7"/>
+      <c r="D419" s="7"/>
+    </row>
+    <row r="420" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C420" s="7"/>
+      <c r="D420" s="7"/>
+    </row>
+    <row r="421" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C421" s="7"/>
+      <c r="D421" s="7"/>
+    </row>
+    <row r="422" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C422" s="7"/>
+      <c r="D422" s="7"/>
+    </row>
+    <row r="423" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C423" s="7"/>
+      <c r="D423" s="7"/>
+    </row>
+    <row r="424" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C424" s="7"/>
+      <c r="D424" s="7"/>
+    </row>
+    <row r="425" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C425" s="7"/>
+      <c r="D425" s="7"/>
+    </row>
+    <row r="426" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C426" s="7"/>
+      <c r="D426" s="7"/>
+    </row>
+    <row r="427" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C427" s="7"/>
+      <c r="D427" s="7"/>
+    </row>
+    <row r="428" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C428" s="7"/>
+      <c r="D428" s="7"/>
+    </row>
+    <row r="429" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C429" s="7"/>
+      <c r="D429" s="7"/>
+    </row>
+    <row r="430" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C430" s="7"/>
+      <c r="D430" s="7"/>
+    </row>
+    <row r="431" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C431" s="7"/>
+      <c r="D431" s="7"/>
+    </row>
+    <row r="432" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C432" s="7"/>
+      <c r="D432" s="7"/>
+    </row>
+    <row r="433" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C433" s="7"/>
+      <c r="D433" s="7"/>
+    </row>
+    <row r="434" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C434" s="7"/>
+      <c r="D434" s="7"/>
+    </row>
+    <row r="435" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C435" s="7"/>
+      <c r="D435" s="7"/>
+    </row>
+    <row r="436" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C436" s="7"/>
+      <c r="D436" s="7"/>
+    </row>
+    <row r="437" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C437" s="7"/>
+      <c r="D437" s="7"/>
+    </row>
+    <row r="438" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C438" s="7"/>
+      <c r="D438" s="7"/>
+    </row>
+    <row r="439" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C439" s="7"/>
+      <c r="D439" s="7"/>
+    </row>
+    <row r="440" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C440" s="7"/>
+      <c r="D440" s="7"/>
+    </row>
+    <row r="441" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C441" s="7"/>
+      <c r="D441" s="7"/>
+    </row>
+    <row r="442" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C442" s="7"/>
+      <c r="D442" s="7"/>
+    </row>
+    <row r="443" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C443" s="7"/>
+      <c r="D443" s="7"/>
+    </row>
+    <row r="444" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C444" s="7"/>
+      <c r="D444" s="7"/>
+    </row>
+    <row r="445" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C445" s="7"/>
+      <c r="D445" s="7"/>
+    </row>
+    <row r="446" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C446" s="7"/>
+      <c r="D446" s="7"/>
+    </row>
+    <row r="447" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C447" s="7"/>
+      <c r="D447" s="7"/>
+    </row>
+    <row r="448" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C448" s="7"/>
+      <c r="D448" s="7"/>
+    </row>
+    <row r="449" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C449" s="7"/>
+      <c r="D449" s="7"/>
+    </row>
+    <row r="450" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C450" s="7"/>
+      <c r="D450" s="7"/>
+    </row>
+    <row r="451" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C451" s="7"/>
+      <c r="D451" s="7"/>
+    </row>
+    <row r="452" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C452" s="7"/>
+      <c r="D452" s="7"/>
+    </row>
+    <row r="453" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C453" s="7"/>
+      <c r="D453" s="7"/>
+    </row>
+    <row r="454" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C454" s="7"/>
+      <c r="D454" s="7"/>
+    </row>
+    <row r="455" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C455" s="7"/>
+      <c r="D455" s="7"/>
+    </row>
+    <row r="456" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C456" s="7"/>
+      <c r="D456" s="7"/>
+    </row>
+    <row r="457" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C457" s="7"/>
+      <c r="D457" s="7"/>
+    </row>
+    <row r="458" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C458" s="7"/>
+      <c r="D458" s="7"/>
+    </row>
+    <row r="459" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C459" s="7"/>
+      <c r="D459" s="7"/>
+    </row>
+    <row r="460" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C460" s="7"/>
+      <c r="D460" s="7"/>
+    </row>
+    <row r="461" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C461" s="7"/>
+      <c r="D461" s="7"/>
+    </row>
+    <row r="462" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C462" s="7"/>
+      <c r="D462" s="7"/>
+    </row>
+    <row r="463" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C463" s="7"/>
+      <c r="D463" s="7"/>
+    </row>
+    <row r="464" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C464" s="7"/>
+      <c r="D464" s="7"/>
+    </row>
+    <row r="465" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C465" s="7"/>
+      <c r="D465" s="7"/>
+    </row>
+    <row r="466" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C466" s="7"/>
+      <c r="D466" s="7"/>
+    </row>
+    <row r="467" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C467" s="7"/>
+      <c r="D467" s="7"/>
+    </row>
+    <row r="468" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C468" s="7"/>
+      <c r="D468" s="7"/>
+    </row>
+    <row r="469" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C469" s="7"/>
+      <c r="D469" s="7"/>
+    </row>
+    <row r="470" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C470" s="7"/>
+      <c r="D470" s="7"/>
+    </row>
+    <row r="471" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C471" s="7"/>
+      <c r="D471" s="7"/>
+    </row>
+    <row r="472" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C472" s="7"/>
+      <c r="D472" s="7"/>
+    </row>
+    <row r="473" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C473" s="7"/>
+      <c r="D473" s="7"/>
+    </row>
+    <row r="474" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C474" s="7"/>
+      <c r="D474" s="7"/>
+    </row>
+    <row r="475" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C475" s="7"/>
+      <c r="D475" s="7"/>
+    </row>
+    <row r="476" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C476" s="7"/>
+      <c r="D476" s="7"/>
+    </row>
+    <row r="477" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C477" s="7"/>
+      <c r="D477" s="7"/>
+    </row>
+    <row r="478" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C478" s="7"/>
+      <c r="D478" s="7"/>
+    </row>
+    <row r="479" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C479" s="7"/>
+      <c r="D479" s="7"/>
+    </row>
+    <row r="480" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C480" s="7"/>
+      <c r="D480" s="7"/>
+    </row>
+    <row r="481" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C481" s="7"/>
+      <c r="D481" s="7"/>
+    </row>
+    <row r="482" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C482" s="7"/>
+      <c r="D482" s="7"/>
+    </row>
+    <row r="483" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C483" s="7"/>
+      <c r="D483" s="7"/>
+    </row>
+    <row r="484" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C484" s="7"/>
+      <c r="D484" s="7"/>
+    </row>
+    <row r="485" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C485" s="7"/>
+      <c r="D485" s="7"/>
+    </row>
+    <row r="486" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C486" s="7"/>
+      <c r="D486" s="7"/>
+    </row>
+    <row r="487" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C487" s="7"/>
+      <c r="D487" s="7"/>
+    </row>
+    <row r="488" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C488" s="7"/>
+      <c r="D488" s="7"/>
+    </row>
+    <row r="489" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C489" s="7"/>
+      <c r="D489" s="7"/>
+    </row>
+    <row r="490" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C490" s="7"/>
+      <c r="D490" s="7"/>
+    </row>
+    <row r="491" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C491" s="7"/>
+      <c r="D491" s="7"/>
+    </row>
+    <row r="492" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C492" s="7"/>
+      <c r="D492" s="7"/>
+    </row>
+    <row r="493" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C493" s="7"/>
+      <c r="D493" s="7"/>
+    </row>
+    <row r="494" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C494" s="7"/>
+      <c r="D494" s="7"/>
+    </row>
+    <row r="495" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C495" s="7"/>
+      <c r="D495" s="7"/>
+    </row>
+    <row r="496" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C496" s="7"/>
+      <c r="D496" s="7"/>
+    </row>
+    <row r="497" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C497" s="7"/>
+      <c r="D497" s="7"/>
+    </row>
+    <row r="498" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C498" s="7"/>
+      <c r="D498" s="7"/>
+    </row>
+    <row r="499" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C499" s="7"/>
+      <c r="D499" s="7"/>
+    </row>
+    <row r="500" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C500" s="7"/>
+      <c r="D500" s="7"/>
+    </row>
+    <row r="501" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C501" s="7"/>
+      <c r="D501" s="7"/>
+    </row>
+    <row r="502" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C502" s="7"/>
+      <c r="D502" s="7"/>
+    </row>
+    <row r="503" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C503" s="7"/>
+      <c r="D503" s="7"/>
+    </row>
+    <row r="504" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C504" s="7"/>
+      <c r="D504" s="7"/>
+    </row>
+    <row r="505" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C505" s="7"/>
+      <c r="D505" s="7"/>
+    </row>
+    <row r="506" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C506" s="7"/>
+      <c r="D506" s="7"/>
+    </row>
+    <row r="507" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C507" s="7"/>
+      <c r="D507" s="7"/>
+    </row>
+    <row r="508" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C508" s="7"/>
+      <c r="D508" s="7"/>
+    </row>
+    <row r="509" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C509" s="7"/>
+      <c r="D509" s="7"/>
+    </row>
+    <row r="510" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C510" s="7"/>
+      <c r="D510" s="7"/>
+    </row>
+    <row r="511" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C511" s="7"/>
+      <c r="D511" s="7"/>
+    </row>
+    <row r="512" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C512" s="7"/>
+      <c r="D512" s="7"/>
+    </row>
+    <row r="513" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C513" s="7"/>
+      <c r="D513" s="7"/>
+    </row>
+    <row r="514" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C514" s="7"/>
+      <c r="D514" s="7"/>
+    </row>
+    <row r="515" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C515" s="7"/>
+      <c r="D515" s="7"/>
+    </row>
+    <row r="516" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C516" s="7"/>
+      <c r="D516" s="7"/>
+    </row>
+    <row r="517" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C517" s="7"/>
+      <c r="D517" s="7"/>
+    </row>
+    <row r="518" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C518" s="7"/>
+      <c r="D518" s="7"/>
+    </row>
+    <row r="519" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C519" s="7"/>
+      <c r="D519" s="7"/>
+    </row>
+    <row r="520" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C520" s="7"/>
+      <c r="D520" s="7"/>
+    </row>
+    <row r="521" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C521" s="7"/>
+      <c r="D521" s="7"/>
+    </row>
+    <row r="522" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C522" s="7"/>
+      <c r="D522" s="7"/>
+    </row>
+    <row r="523" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C523" s="7"/>
+      <c r="D523" s="7"/>
+    </row>
+    <row r="524" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C524" s="7"/>
+      <c r="D524" s="7"/>
+    </row>
+    <row r="525" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C525" s="7"/>
+      <c r="D525" s="7"/>
+    </row>
+    <row r="526" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C526" s="7"/>
+      <c r="D526" s="7"/>
+    </row>
+    <row r="527" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C527" s="7"/>
+      <c r="D527" s="7"/>
+    </row>
+    <row r="528" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C528" s="7"/>
+      <c r="D528" s="7"/>
+    </row>
+    <row r="529" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C529" s="7"/>
+      <c r="D529" s="7"/>
+    </row>
+    <row r="530" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C530" s="7"/>
+      <c r="D530" s="7"/>
+    </row>
+    <row r="531" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C531" s="7"/>
+      <c r="D531" s="7"/>
+    </row>
+    <row r="532" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C532" s="7"/>
+      <c r="D532" s="7"/>
+    </row>
+    <row r="533" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C533" s="7"/>
+      <c r="D533" s="7"/>
+    </row>
+    <row r="534" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C534" s="7"/>
+      <c r="D534" s="7"/>
+    </row>
+    <row r="535" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C535" s="7"/>
+      <c r="D535" s="7"/>
+    </row>
+    <row r="536" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C536" s="7"/>
+      <c r="D536" s="7"/>
+    </row>
+    <row r="537" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C537" s="7"/>
+      <c r="D537" s="7"/>
+    </row>
+    <row r="538" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C538" s="7"/>
+      <c r="D538" s="7"/>
+    </row>
+    <row r="539" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C539" s="7"/>
+      <c r="D539" s="7"/>
+    </row>
+    <row r="540" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C540" s="7"/>
+      <c r="D540" s="7"/>
+    </row>
+    <row r="541" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C541" s="7"/>
+      <c r="D541" s="7"/>
+    </row>
+    <row r="542" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C542" s="7"/>
+      <c r="D542" s="7"/>
+    </row>
+    <row r="543" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C543" s="7"/>
+      <c r="D543" s="7"/>
+    </row>
+    <row r="544" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C544" s="7"/>
+      <c r="D544" s="7"/>
+    </row>
+    <row r="545" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C545" s="7"/>
+      <c r="D545" s="7"/>
+    </row>
+    <row r="546" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C546" s="7"/>
+      <c r="D546" s="7"/>
+    </row>
+    <row r="547" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C547" s="7"/>
+      <c r="D547" s="7"/>
+    </row>
+    <row r="548" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C548" s="7"/>
+      <c r="D548" s="7"/>
+    </row>
+    <row r="549" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C549" s="7"/>
+      <c r="D549" s="7"/>
+    </row>
+    <row r="550" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C550" s="7"/>
+      <c r="D550" s="7"/>
+    </row>
+    <row r="551" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C551" s="7"/>
+      <c r="D551" s="7"/>
+    </row>
+    <row r="552" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C552" s="7"/>
+      <c r="D552" s="7"/>
+    </row>
+    <row r="553" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C553" s="7"/>
+      <c r="D553" s="7"/>
+    </row>
+    <row r="554" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C554" s="7"/>
+      <c r="D554" s="7"/>
+    </row>
+    <row r="555" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C555" s="7"/>
+      <c r="D555" s="7"/>
+    </row>
+    <row r="556" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C556" s="7"/>
+      <c r="D556" s="7"/>
+    </row>
+    <row r="557" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C557" s="7"/>
+      <c r="D557" s="7"/>
+    </row>
+    <row r="558" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C558" s="7"/>
+      <c r="D558" s="7"/>
+    </row>
+    <row r="559" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C559" s="7"/>
+      <c r="D559" s="7"/>
+    </row>
+    <row r="560" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C560" s="7"/>
+      <c r="D560" s="7"/>
+    </row>
+    <row r="561" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C561" s="7"/>
+      <c r="D561" s="7"/>
+    </row>
+    <row r="562" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C562" s="7"/>
+      <c r="D562" s="7"/>
+    </row>
+    <row r="563" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C563" s="7"/>
+      <c r="D563" s="7"/>
+    </row>
+    <row r="564" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C564" s="7"/>
+      <c r="D564" s="7"/>
+    </row>
+    <row r="565" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C565" s="7"/>
+      <c r="D565" s="7"/>
+    </row>
+    <row r="566" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C566" s="7"/>
+      <c r="D566" s="7"/>
+    </row>
+    <row r="567" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C567" s="7"/>
+      <c r="D567" s="7"/>
+    </row>
+    <row r="568" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C568" s="7"/>
+      <c r="D568" s="7"/>
+    </row>
+    <row r="569" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C569" s="7"/>
+      <c r="D569" s="7"/>
+    </row>
+    <row r="570" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C570" s="7"/>
+      <c r="D570" s="7"/>
+    </row>
+    <row r="571" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C571" s="7"/>
+      <c r="D571" s="7"/>
+    </row>
+    <row r="572" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C572" s="7"/>
+      <c r="D572" s="7"/>
+    </row>
+    <row r="573" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C573" s="7"/>
+      <c r="D573" s="7"/>
+    </row>
+    <row r="574" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C574" s="7"/>
+      <c r="D574" s="7"/>
+    </row>
+    <row r="575" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C575" s="7"/>
+      <c r="D575" s="7"/>
+    </row>
+    <row r="576" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C576" s="7"/>
+      <c r="D576" s="7"/>
+    </row>
+    <row r="577" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C577" s="7"/>
+      <c r="D577" s="7"/>
+    </row>
+    <row r="578" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C578" s="7"/>
+      <c r="D578" s="7"/>
+    </row>
+    <row r="579" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C579" s="7"/>
+      <c r="D579" s="7"/>
+    </row>
+    <row r="580" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C580" s="7"/>
+      <c r="D580" s="7"/>
+    </row>
+    <row r="581" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C581" s="7"/>
+      <c r="D581" s="7"/>
+    </row>
+    <row r="582" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C582" s="7"/>
+      <c r="D582" s="7"/>
+    </row>
+    <row r="583" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C583" s="7"/>
+      <c r="D583" s="7"/>
+    </row>
+    <row r="584" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C584" s="7"/>
+      <c r="D584" s="7"/>
+    </row>
+    <row r="585" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C585" s="7"/>
+      <c r="D585" s="7"/>
+    </row>
+    <row r="586" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C586" s="7"/>
+      <c r="D586" s="7"/>
+    </row>
+    <row r="587" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C587" s="7"/>
+      <c r="D587" s="7"/>
+    </row>
+    <row r="588" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C588" s="7"/>
+      <c r="D588" s="7"/>
+    </row>
+    <row r="589" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C589" s="7"/>
+      <c r="D589" s="7"/>
+    </row>
+    <row r="590" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C590" s="7"/>
+      <c r="D590" s="7"/>
+    </row>
+    <row r="591" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C591" s="7"/>
+      <c r="D591" s="7"/>
+    </row>
+    <row r="592" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C592" s="7"/>
+      <c r="D592" s="7"/>
+    </row>
+    <row r="593" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C593" s="7"/>
+      <c r="D593" s="7"/>
+    </row>
+    <row r="594" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C594" s="7"/>
+      <c r="D594" s="7"/>
+    </row>
+    <row r="595" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C595" s="7"/>
+      <c r="D595" s="7"/>
+    </row>
+    <row r="596" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C596" s="7"/>
+      <c r="D596" s="7"/>
+    </row>
+    <row r="597" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C597" s="7"/>
+      <c r="D597" s="7"/>
+    </row>
+    <row r="598" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C598" s="7"/>
+      <c r="D598" s="7"/>
+    </row>
+    <row r="599" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C599" s="7"/>
+      <c r="D599" s="7"/>
+    </row>
+    <row r="600" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C600" s="7"/>
+      <c r="D600" s="7"/>
+    </row>
+    <row r="601" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C601" s="7"/>
+      <c r="D601" s="7"/>
+    </row>
+    <row r="602" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C602" s="7"/>
+      <c r="D602" s="7"/>
+    </row>
+    <row r="603" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C603" s="7"/>
+      <c r="D603" s="7"/>
+    </row>
+    <row r="604" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C604" s="7"/>
+      <c r="D604" s="7"/>
+    </row>
+    <row r="605" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C605" s="7"/>
+      <c r="D605" s="7"/>
+    </row>
+    <row r="606" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C606" s="7"/>
+      <c r="D606" s="7"/>
+    </row>
+    <row r="607" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C607" s="7"/>
+      <c r="D607" s="7"/>
+    </row>
+    <row r="608" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C608" s="7"/>
+      <c r="D608" s="7"/>
+    </row>
+    <row r="609" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C609" s="7"/>
+      <c r="D609" s="7"/>
+    </row>
+    <row r="610" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C610" s="7"/>
+      <c r="D610" s="7"/>
+    </row>
+    <row r="611" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C611" s="7"/>
+      <c r="D611" s="7"/>
+    </row>
+    <row r="612" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C612" s="7"/>
+      <c r="D612" s="7"/>
+    </row>
+    <row r="613" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C613" s="7"/>
+      <c r="D613" s="7"/>
+    </row>
+    <row r="614" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C614" s="7"/>
+      <c r="D614" s="7"/>
+    </row>
+    <row r="615" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C615" s="7"/>
+      <c r="D615" s="7"/>
+    </row>
+    <row r="616" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C616" s="7"/>
+      <c r="D616" s="7"/>
+    </row>
+    <row r="617" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C617" s="7"/>
+      <c r="D617" s="7"/>
+    </row>
+    <row r="618" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C618" s="7"/>
+      <c r="D618" s="7"/>
+    </row>
+    <row r="619" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C619" s="7"/>
+      <c r="D619" s="7"/>
+    </row>
+    <row r="620" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C620" s="7"/>
+      <c r="D620" s="7"/>
+    </row>
+    <row r="621" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C621" s="7"/>
+      <c r="D621" s="7"/>
+    </row>
+    <row r="622" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C622" s="7"/>
+      <c r="D622" s="7"/>
+    </row>
+    <row r="623" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C623" s="7"/>
+      <c r="D623" s="7"/>
+    </row>
+    <row r="624" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C624" s="7"/>
+      <c r="D624" s="7"/>
+    </row>
+    <row r="625" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C625" s="7"/>
+      <c r="D625" s="7"/>
+    </row>
+    <row r="626" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C626" s="7"/>
+      <c r="D626" s="7"/>
+    </row>
+    <row r="627" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C627" s="7"/>
+      <c r="D627" s="7"/>
+    </row>
+    <row r="628" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C628" s="7"/>
+      <c r="D628" s="7"/>
+    </row>
+    <row r="629" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C629" s="7"/>
+      <c r="D629" s="7"/>
+    </row>
+    <row r="630" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C630" s="7"/>
+      <c r="D630" s="7"/>
+    </row>
+    <row r="631" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C631" s="7"/>
+      <c r="D631" s="7"/>
+    </row>
+    <row r="632" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C632" s="7"/>
+      <c r="D632" s="7"/>
+    </row>
+    <row r="633" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C633" s="7"/>
+      <c r="D633" s="7"/>
+    </row>
+    <row r="634" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C634" s="7"/>
+      <c r="D634" s="7"/>
+    </row>
+    <row r="635" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C635" s="7"/>
+      <c r="D635" s="7"/>
+    </row>
+    <row r="636" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C636" s="7"/>
+      <c r="D636" s="7"/>
+    </row>
+    <row r="637" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C637" s="7"/>
+      <c r="D637" s="7"/>
+    </row>
+    <row r="638" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C638" s="7"/>
+      <c r="D638" s="7"/>
+    </row>
+    <row r="639" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C639" s="7"/>
+      <c r="D639" s="7"/>
+    </row>
+    <row r="640" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C640" s="7"/>
+      <c r="D640" s="7"/>
+    </row>
+    <row r="641" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C641" s="7"/>
+      <c r="D641" s="7"/>
+    </row>
+    <row r="642" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C642" s="7"/>
+      <c r="D642" s="7"/>
+    </row>
+    <row r="643" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C643" s="7"/>
+      <c r="D643" s="7"/>
+    </row>
+    <row r="644" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C644" s="7"/>
+      <c r="D644" s="7"/>
+    </row>
+    <row r="645" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C645" s="7"/>
+      <c r="D645" s="7"/>
+    </row>
+    <row r="646" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C646" s="7"/>
+      <c r="D646" s="7"/>
+    </row>
+    <row r="647" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C647" s="7"/>
+      <c r="D647" s="7"/>
+    </row>
+    <row r="648" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C648" s="7"/>
+      <c r="D648" s="7"/>
+    </row>
+    <row r="649" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C649" s="7"/>
+      <c r="D649" s="7"/>
+    </row>
+    <row r="650" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C650" s="7"/>
+      <c r="D650" s="7"/>
+    </row>
+    <row r="651" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C651" s="7"/>
+      <c r="D651" s="7"/>
+    </row>
+    <row r="652" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C652" s="7"/>
+      <c r="D652" s="7"/>
+    </row>
+    <row r="653" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C653" s="7"/>
+      <c r="D653" s="7"/>
+    </row>
+    <row r="654" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C654" s="7"/>
+      <c r="D654" s="7"/>
+    </row>
+    <row r="655" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C655" s="7"/>
+      <c r="D655" s="7"/>
+    </row>
+    <row r="656" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C656" s="7"/>
+      <c r="D656" s="7"/>
+    </row>
+    <row r="657" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C657" s="7"/>
+      <c r="D657" s="7"/>
+    </row>
+    <row r="658" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C658" s="7"/>
+      <c r="D658" s="7"/>
+    </row>
+    <row r="659" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C659" s="7"/>
+      <c r="D659" s="7"/>
+    </row>
+    <row r="660" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C660" s="7"/>
+      <c r="D660" s="7"/>
+    </row>
+    <row r="661" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C661" s="7"/>
+      <c r="D661" s="7"/>
+    </row>
+    <row r="662" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C662" s="7"/>
+      <c r="D662" s="7"/>
+    </row>
+    <row r="663" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C663" s="7"/>
+      <c r="D663" s="7"/>
+    </row>
+    <row r="664" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C664" s="7"/>
+      <c r="D664" s="7"/>
+    </row>
+    <row r="665" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C665" s="7"/>
+      <c r="D665" s="7"/>
+    </row>
+    <row r="666" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C666" s="7"/>
+      <c r="D666" s="7"/>
+    </row>
+    <row r="667" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C667" s="7"/>
+      <c r="D667" s="7"/>
+    </row>
+    <row r="668" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C668" s="7"/>
+      <c r="D668" s="7"/>
+    </row>
+    <row r="669" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C669" s="7"/>
+      <c r="D669" s="7"/>
+    </row>
+    <row r="670" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C670" s="7"/>
+      <c r="D670" s="7"/>
+    </row>
+    <row r="671" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C671" s="7"/>
+      <c r="D671" s="7"/>
+    </row>
+    <row r="672" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C672" s="7"/>
+      <c r="D672" s="7"/>
+    </row>
+    <row r="673" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C673" s="7"/>
+      <c r="D673" s="7"/>
+    </row>
+    <row r="674" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C674" s="7"/>
+      <c r="D674" s="7"/>
+    </row>
+    <row r="675" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C675" s="7"/>
+      <c r="D675" s="7"/>
+    </row>
+    <row r="676" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C676" s="7"/>
+      <c r="D676" s="7"/>
+    </row>
+    <row r="677" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C677" s="7"/>
+      <c r="D677" s="7"/>
+    </row>
+    <row r="678" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C678" s="7"/>
+      <c r="D678" s="7"/>
+    </row>
+    <row r="679" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C679" s="7"/>
+      <c r="D679" s="7"/>
+    </row>
+    <row r="680" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C680" s="7"/>
+      <c r="D680" s="7"/>
+    </row>
+    <row r="681" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C681" s="7"/>
+      <c r="D681" s="7"/>
+    </row>
+    <row r="682" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C682" s="7"/>
+      <c r="D682" s="7"/>
+    </row>
+    <row r="683" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C683" s="7"/>
+      <c r="D683" s="7"/>
+    </row>
+    <row r="684" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C684" s="7"/>
+      <c r="D684" s="7"/>
+    </row>
+    <row r="685" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C685" s="7"/>
+      <c r="D685" s="7"/>
+    </row>
+    <row r="686" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C686" s="7"/>
+      <c r="D686" s="7"/>
+    </row>
+    <row r="687" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C687" s="7"/>
+      <c r="D687" s="7"/>
+    </row>
+    <row r="688" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C688" s="7"/>
+      <c r="D688" s="7"/>
+    </row>
+    <row r="689" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C689" s="7"/>
+      <c r="D689" s="7"/>
+    </row>
+    <row r="690" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C690" s="7"/>
+      <c r="D690" s="7"/>
+    </row>
+    <row r="691" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C691" s="7"/>
+      <c r="D691" s="7"/>
+    </row>
+    <row r="692" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C692" s="7"/>
+      <c r="D692" s="7"/>
+    </row>
+    <row r="693" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C693" s="7"/>
+      <c r="D693" s="7"/>
+    </row>
+    <row r="694" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C694" s="7"/>
+      <c r="D694" s="7"/>
+    </row>
+    <row r="695" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C695" s="7"/>
+      <c r="D695" s="7"/>
+    </row>
+    <row r="696" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C696" s="7"/>
+      <c r="D696" s="7"/>
+    </row>
+    <row r="697" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C697" s="7"/>
+      <c r="D697" s="7"/>
+    </row>
+    <row r="698" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C698" s="7"/>
+      <c r="D698" s="7"/>
+    </row>
+    <row r="699" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C699" s="7"/>
+      <c r="D699" s="7"/>
+    </row>
+    <row r="700" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C700" s="7"/>
+      <c r="D700" s="7"/>
+    </row>
+    <row r="701" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C701" s="7"/>
+      <c r="D701" s="7"/>
+    </row>
+    <row r="702" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C702" s="7"/>
+      <c r="D702" s="7"/>
+    </row>
+    <row r="703" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C703" s="7"/>
+      <c r="D703" s="7"/>
+    </row>
+    <row r="704" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C704" s="7"/>
+      <c r="D704" s="7"/>
+    </row>
+    <row r="705" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C705" s="7"/>
+      <c r="D705" s="7"/>
+    </row>
+    <row r="706" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C706" s="7"/>
+      <c r="D706" s="7"/>
+    </row>
+    <row r="707" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C707" s="7"/>
+      <c r="D707" s="7"/>
+    </row>
+    <row r="708" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C708" s="7"/>
+      <c r="D708" s="7"/>
+    </row>
+    <row r="709" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C709" s="7"/>
+      <c r="D709" s="7"/>
+    </row>
+    <row r="710" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C710" s="7"/>
+      <c r="D710" s="7"/>
+    </row>
+    <row r="711" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C711" s="7"/>
+      <c r="D711" s="7"/>
+    </row>
+    <row r="712" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C712" s="7"/>
+      <c r="D712" s="7"/>
+    </row>
+    <row r="713" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C713" s="7"/>
+      <c r="D713" s="7"/>
+    </row>
+    <row r="714" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C714" s="7"/>
+      <c r="D714" s="7"/>
+    </row>
+    <row r="715" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C715" s="7"/>
+      <c r="D715" s="7"/>
+    </row>
+    <row r="716" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C716" s="7"/>
+      <c r="D716" s="7"/>
+    </row>
+    <row r="717" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C717" s="7"/>
+      <c r="D717" s="7"/>
+    </row>
+    <row r="718" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C718" s="7"/>
+      <c r="D718" s="7"/>
+    </row>
+    <row r="719" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C719" s="7"/>
+      <c r="D719" s="7"/>
+    </row>
+    <row r="720" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C720" s="7"/>
+      <c r="D720" s="7"/>
+    </row>
+    <row r="721" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C721" s="7"/>
+      <c r="D721" s="7"/>
+    </row>
+    <row r="722" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C722" s="7"/>
+      <c r="D722" s="7"/>
+    </row>
+    <row r="723" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C723" s="7"/>
+      <c r="D723" s="7"/>
+    </row>
+    <row r="724" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C724" s="7"/>
+      <c r="D724" s="7"/>
+    </row>
+    <row r="725" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C725" s="7"/>
+      <c r="D725" s="7"/>
+    </row>
+    <row r="726" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C726" s="7"/>
+      <c r="D726" s="7"/>
+    </row>
+    <row r="727" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C727" s="7"/>
+      <c r="D727" s="7"/>
+    </row>
+    <row r="728" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C728" s="7"/>
+      <c r="D728" s="7"/>
+    </row>
+    <row r="729" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C729" s="7"/>
+      <c r="D729" s="7"/>
+    </row>
+    <row r="730" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C730" s="7"/>
+      <c r="D730" s="7"/>
+    </row>
+    <row r="731" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C731" s="7"/>
+      <c r="D731" s="7"/>
+    </row>
+    <row r="732" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C732" s="7"/>
+      <c r="D732" s="7"/>
+    </row>
+    <row r="733" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C733" s="7"/>
+      <c r="D733" s="7"/>
+    </row>
+    <row r="734" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C734" s="7"/>
+      <c r="D734" s="7"/>
+    </row>
+    <row r="735" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C735" s="7"/>
+      <c r="D735" s="7"/>
+    </row>
+    <row r="736" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C736" s="7"/>
+      <c r="D736" s="7"/>
+    </row>
+    <row r="737" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C737" s="7"/>
+      <c r="D737" s="7"/>
+    </row>
+    <row r="738" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C738" s="7"/>
+      <c r="D738" s="7"/>
+    </row>
+    <row r="739" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C739" s="7"/>
+      <c r="D739" s="7"/>
+    </row>
+    <row r="740" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C740" s="7"/>
+      <c r="D740" s="7"/>
+    </row>
+    <row r="741" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C741" s="7"/>
+      <c r="D741" s="7"/>
+    </row>
+    <row r="742" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C742" s="7"/>
+      <c r="D742" s="7"/>
+    </row>
+    <row r="743" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C743" s="7"/>
+      <c r="D743" s="7"/>
+    </row>
+    <row r="744" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C744" s="7"/>
+      <c r="D744" s="7"/>
+    </row>
+    <row r="745" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C745" s="7"/>
+      <c r="D745" s="7"/>
+    </row>
+    <row r="746" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C746" s="7"/>
+      <c r="D746" s="7"/>
+    </row>
+    <row r="747" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C747" s="7"/>
+      <c r="D747" s="7"/>
+    </row>
+    <row r="748" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C748" s="7"/>
+      <c r="D748" s="7"/>
+    </row>
+    <row r="749" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C749" s="7"/>
+      <c r="D749" s="7"/>
+    </row>
+    <row r="750" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C750" s="7"/>
+      <c r="D750" s="7"/>
+    </row>
+    <row r="751" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C751" s="7"/>
+      <c r="D751" s="7"/>
+    </row>
+    <row r="752" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C752" s="7"/>
+      <c r="D752" s="7"/>
+    </row>
+    <row r="753" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C753" s="7"/>
+      <c r="D753" s="7"/>
+    </row>
+    <row r="754" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C754" s="7"/>
+      <c r="D754" s="7"/>
+    </row>
+    <row r="755" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C755" s="7"/>
+      <c r="D755" s="7"/>
+    </row>
+    <row r="756" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C756" s="7"/>
+      <c r="D756" s="7"/>
+    </row>
+    <row r="757" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C757" s="7"/>
+      <c r="D757" s="7"/>
+    </row>
+    <row r="758" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C758" s="7"/>
+      <c r="D758" s="7"/>
+    </row>
+    <row r="759" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C759" s="7"/>
+      <c r="D759" s="7"/>
+    </row>
+    <row r="760" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C760" s="7"/>
+      <c r="D760" s="7"/>
+    </row>
+    <row r="761" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C761" s="7"/>
+      <c r="D761" s="7"/>
+    </row>
+    <row r="762" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C762" s="7"/>
+      <c r="D762" s="7"/>
+    </row>
+    <row r="763" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C763" s="7"/>
+      <c r="D763" s="7"/>
+    </row>
+    <row r="764" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C764" s="7"/>
+      <c r="D764" s="7"/>
+    </row>
+    <row r="765" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C765" s="7"/>
+      <c r="D765" s="7"/>
+    </row>
+    <row r="766" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C766" s="7"/>
+      <c r="D766" s="7"/>
+    </row>
+    <row r="767" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C767" s="7"/>
+      <c r="D767" s="7"/>
+    </row>
+    <row r="768" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C768" s="7"/>
+      <c r="D768" s="7"/>
+    </row>
+    <row r="769" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C769" s="7"/>
+      <c r="D769" s="7"/>
+    </row>
+    <row r="770" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C770" s="7"/>
+      <c r="D770" s="7"/>
+    </row>
+    <row r="771" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C771" s="7"/>
+      <c r="D771" s="7"/>
+    </row>
+    <row r="772" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C772" s="7"/>
+      <c r="D772" s="7"/>
+    </row>
+    <row r="773" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C773" s="7"/>
+      <c r="D773" s="7"/>
+    </row>
+    <row r="774" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C774" s="7"/>
+      <c r="D774" s="7"/>
+    </row>
+    <row r="775" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C775" s="7"/>
+      <c r="D775" s="7"/>
+    </row>
+    <row r="776" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C776" s="7"/>
+      <c r="D776" s="7"/>
+    </row>
+    <row r="777" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C777" s="7"/>
+      <c r="D777" s="7"/>
+    </row>
+    <row r="778" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C778" s="7"/>
+      <c r="D778" s="7"/>
+    </row>
+    <row r="779" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C779" s="7"/>
+      <c r="D779" s="7"/>
+    </row>
+    <row r="780" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C780" s="7"/>
+      <c r="D780" s="7"/>
+    </row>
+    <row r="781" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C781" s="7"/>
+      <c r="D781" s="7"/>
+    </row>
+    <row r="782" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C782" s="7"/>
+      <c r="D782" s="7"/>
+    </row>
+    <row r="783" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C783" s="7"/>
+      <c r="D783" s="7"/>
+    </row>
+    <row r="784" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C784" s="7"/>
+      <c r="D784" s="7"/>
+    </row>
+    <row r="785" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C785" s="7"/>
+      <c r="D785" s="7"/>
+    </row>
+    <row r="786" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C786" s="7"/>
+      <c r="D786" s="7"/>
+    </row>
+    <row r="787" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C787" s="7"/>
+      <c r="D787" s="7"/>
+    </row>
+    <row r="788" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C788" s="7"/>
+      <c r="D788" s="7"/>
+    </row>
+    <row r="789" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C789" s="7"/>
+      <c r="D789" s="7"/>
+    </row>
+    <row r="790" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C790" s="7"/>
+      <c r="D790" s="7"/>
+    </row>
+    <row r="791" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C791" s="7"/>
+      <c r="D791" s="7"/>
+    </row>
+    <row r="792" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C792" s="7"/>
+      <c r="D792" s="7"/>
+    </row>
+    <row r="793" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C793" s="7"/>
+      <c r="D793" s="7"/>
+    </row>
+    <row r="794" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C794" s="7"/>
+      <c r="D794" s="7"/>
+    </row>
+    <row r="795" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C795" s="7"/>
+      <c r="D795" s="7"/>
+    </row>
+    <row r="796" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C796" s="7"/>
+      <c r="D796" s="7"/>
+    </row>
+    <row r="797" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C797" s="7"/>
+      <c r="D797" s="7"/>
+    </row>
+    <row r="798" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C798" s="7"/>
+      <c r="D798" s="7"/>
+    </row>
+    <row r="799" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C799" s="7"/>
+      <c r="D799" s="7"/>
+    </row>
+    <row r="800" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C800" s="7"/>
+      <c r="D800" s="7"/>
+    </row>
+    <row r="801" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C801" s="7"/>
+      <c r="D801" s="7"/>
+    </row>
+    <row r="802" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C802" s="7"/>
+      <c r="D802" s="7"/>
+    </row>
+    <row r="803" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C803" s="7"/>
+      <c r="D803" s="7"/>
+    </row>
+    <row r="804" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C804" s="7"/>
+      <c r="D804" s="7"/>
+    </row>
+    <row r="805" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C805" s="7"/>
+      <c r="D805" s="7"/>
+    </row>
+    <row r="806" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C806" s="7"/>
+      <c r="D806" s="7"/>
+    </row>
+    <row r="807" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C807" s="7"/>
+      <c r="D807" s="7"/>
+    </row>
+    <row r="808" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C808" s="7"/>
+      <c r="D808" s="7"/>
+    </row>
+    <row r="809" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C809" s="7"/>
+      <c r="D809" s="7"/>
+    </row>
+    <row r="810" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C810" s="7"/>
+      <c r="D810" s="7"/>
+    </row>
+    <row r="811" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C811" s="7"/>
+      <c r="D811" s="7"/>
+    </row>
+    <row r="812" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C812" s="7"/>
+      <c r="D812" s="7"/>
+    </row>
+    <row r="813" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C813" s="7"/>
+      <c r="D813" s="7"/>
+    </row>
+    <row r="814" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C814" s="7"/>
+      <c r="D814" s="7"/>
+    </row>
+    <row r="815" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C815" s="7"/>
+      <c r="D815" s="7"/>
+    </row>
+    <row r="816" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C816" s="7"/>
+      <c r="D816" s="7"/>
+    </row>
+    <row r="817" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C817" s="7"/>
+      <c r="D817" s="7"/>
+    </row>
+    <row r="818" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C818" s="7"/>
+      <c r="D818" s="7"/>
+    </row>
+    <row r="819" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C819" s="7"/>
+      <c r="D819" s="7"/>
+    </row>
+    <row r="820" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C820" s="7"/>
+      <c r="D820" s="7"/>
+    </row>
+    <row r="821" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C821" s="7"/>
+      <c r="D821" s="7"/>
+    </row>
+    <row r="822" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C822" s="7"/>
+      <c r="D822" s="7"/>
+    </row>
+    <row r="823" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C823" s="7"/>
+      <c r="D823" s="7"/>
+    </row>
+    <row r="824" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C824" s="7"/>
+      <c r="D824" s="7"/>
+    </row>
+    <row r="825" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C825" s="7"/>
+      <c r="D825" s="7"/>
+    </row>
+    <row r="826" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C826" s="7"/>
+      <c r="D826" s="7"/>
+    </row>
+    <row r="827" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C827" s="7"/>
+      <c r="D827" s="7"/>
+    </row>
+    <row r="828" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C828" s="7"/>
+      <c r="D828" s="7"/>
+    </row>
+    <row r="829" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C829" s="7"/>
+      <c r="D829" s="7"/>
+    </row>
+    <row r="830" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C830" s="7"/>
+      <c r="D830" s="7"/>
+    </row>
+    <row r="831" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C831" s="7"/>
+      <c r="D831" s="7"/>
+    </row>
+    <row r="832" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C832" s="7"/>
+      <c r="D832" s="7"/>
+    </row>
+    <row r="833" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C833" s="7"/>
+      <c r="D833" s="7"/>
+    </row>
+    <row r="834" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C834" s="7"/>
+      <c r="D834" s="7"/>
+    </row>
+    <row r="835" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C835" s="7"/>
+      <c r="D835" s="7"/>
+    </row>
+    <row r="836" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C836" s="7"/>
+      <c r="D836" s="7"/>
+    </row>
+    <row r="837" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C837" s="7"/>
+      <c r="D837" s="7"/>
+    </row>
+    <row r="838" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C838" s="7"/>
+      <c r="D838" s="7"/>
+    </row>
+    <row r="839" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C839" s="7"/>
+      <c r="D839" s="7"/>
+    </row>
+    <row r="840" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C840" s="7"/>
+      <c r="D840" s="7"/>
+    </row>
+    <row r="841" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C841" s="7"/>
+      <c r="D841" s="7"/>
+    </row>
+    <row r="842" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C842" s="7"/>
+      <c r="D842" s="7"/>
+    </row>
+    <row r="843" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C843" s="7"/>
+      <c r="D843" s="7"/>
+    </row>
+    <row r="844" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C844" s="7"/>
+      <c r="D844" s="7"/>
+    </row>
+    <row r="845" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C845" s="7"/>
+      <c r="D845" s="7"/>
+    </row>
+    <row r="846" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C846" s="7"/>
+      <c r="D846" s="7"/>
+    </row>
+    <row r="847" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C847" s="7"/>
+      <c r="D847" s="7"/>
+    </row>
+    <row r="848" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C848" s="7"/>
+      <c r="D848" s="7"/>
+    </row>
+    <row r="849" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C849" s="7"/>
+      <c r="D849" s="7"/>
+    </row>
+    <row r="850" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C850" s="7"/>
+      <c r="D850" s="7"/>
+    </row>
+    <row r="851" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C851" s="7"/>
+      <c r="D851" s="7"/>
+    </row>
+    <row r="852" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C852" s="7"/>
+      <c r="D852" s="7"/>
+    </row>
+    <row r="853" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C853" s="7"/>
+      <c r="D853" s="7"/>
+    </row>
+    <row r="854" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C854" s="7"/>
+      <c r="D854" s="7"/>
+    </row>
+    <row r="855" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C855" s="7"/>
+      <c r="D855" s="7"/>
+    </row>
+    <row r="856" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C856" s="7"/>
+      <c r="D856" s="7"/>
+    </row>
+    <row r="857" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C857" s="7"/>
+      <c r="D857" s="7"/>
+    </row>
+    <row r="858" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C858" s="7"/>
+      <c r="D858" s="7"/>
+    </row>
+    <row r="859" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C859" s="7"/>
+      <c r="D859" s="7"/>
+    </row>
+    <row r="860" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C860" s="7"/>
+      <c r="D860" s="7"/>
+    </row>
+    <row r="861" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C861" s="7"/>
+      <c r="D861" s="7"/>
+    </row>
+    <row r="862" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C862" s="7"/>
+      <c r="D862" s="7"/>
+    </row>
+    <row r="863" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C863" s="7"/>
+      <c r="D863" s="7"/>
+    </row>
+    <row r="864" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C864" s="7"/>
+      <c r="D864" s="7"/>
+    </row>
+    <row r="865" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C865" s="7"/>
+      <c r="D865" s="7"/>
+    </row>
+    <row r="866" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C866" s="7"/>
+      <c r="D866" s="7"/>
+    </row>
+    <row r="867" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C867" s="7"/>
+      <c r="D867" s="7"/>
+    </row>
+    <row r="868" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C868" s="7"/>
+      <c r="D868" s="7"/>
+    </row>
+    <row r="869" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C869" s="7"/>
+      <c r="D869" s="7"/>
+    </row>
+    <row r="870" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C870" s="7"/>
+      <c r="D870" s="7"/>
+    </row>
+    <row r="871" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C871" s="7"/>
+      <c r="D871" s="7"/>
+    </row>
+    <row r="872" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C872" s="7"/>
+      <c r="D872" s="7"/>
+    </row>
+    <row r="873" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C873" s="7"/>
+      <c r="D873" s="7"/>
+    </row>
+    <row r="874" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C874" s="7"/>
+      <c r="D874" s="7"/>
+    </row>
+    <row r="875" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C875" s="7"/>
+      <c r="D875" s="7"/>
+    </row>
+    <row r="876" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C876" s="7"/>
+      <c r="D876" s="7"/>
+    </row>
+    <row r="877" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C877" s="7"/>
+      <c r="D877" s="7"/>
+    </row>
+    <row r="878" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C878" s="7"/>
+      <c r="D878" s="7"/>
+    </row>
+    <row r="879" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C879" s="7"/>
+      <c r="D879" s="7"/>
+    </row>
+    <row r="880" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C880" s="7"/>
+      <c r="D880" s="7"/>
+    </row>
+    <row r="881" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C881" s="7"/>
+      <c r="D881" s="7"/>
+    </row>
+    <row r="882" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C882" s="7"/>
+      <c r="D882" s="7"/>
+    </row>
+    <row r="883" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C883" s="7"/>
+      <c r="D883" s="7"/>
+    </row>
+    <row r="884" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C884" s="7"/>
+      <c r="D884" s="7"/>
+    </row>
+    <row r="885" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C885" s="7"/>
+      <c r="D885" s="7"/>
+    </row>
+    <row r="886" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C886" s="7"/>
+      <c r="D886" s="7"/>
+    </row>
+    <row r="887" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C887" s="7"/>
+      <c r="D887" s="7"/>
+    </row>
+    <row r="888" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C888" s="7"/>
+      <c r="D888" s="7"/>
+    </row>
+    <row r="889" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C889" s="7"/>
+      <c r="D889" s="7"/>
+    </row>
+    <row r="890" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C890" s="7"/>
+      <c r="D890" s="7"/>
+    </row>
+    <row r="891" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C891" s="7"/>
+      <c r="D891" s="7"/>
+    </row>
+    <row r="892" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C892" s="7"/>
+      <c r="D892" s="7"/>
+    </row>
+    <row r="893" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C893" s="7"/>
+      <c r="D893" s="7"/>
+    </row>
+    <row r="894" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C894" s="7"/>
+      <c r="D894" s="7"/>
+    </row>
+    <row r="895" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C895" s="7"/>
+      <c r="D895" s="7"/>
+    </row>
+    <row r="896" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C896" s="7"/>
+      <c r="D896" s="7"/>
+    </row>
+    <row r="897" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C897" s="7"/>
+      <c r="D897" s="7"/>
+    </row>
+    <row r="898" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C898" s="7"/>
+      <c r="D898" s="7"/>
+    </row>
+    <row r="899" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C899" s="7"/>
+      <c r="D899" s="7"/>
+    </row>
+    <row r="900" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C900" s="7"/>
+      <c r="D900" s="7"/>
+    </row>
+    <row r="901" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C901" s="7"/>
+      <c r="D901" s="7"/>
+    </row>
+    <row r="902" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C902" s="7"/>
+      <c r="D902" s="7"/>
+    </row>
+    <row r="903" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C903" s="7"/>
+      <c r="D903" s="7"/>
+    </row>
+    <row r="904" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C904" s="7"/>
+      <c r="D904" s="7"/>
+    </row>
+    <row r="905" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C905" s="7"/>
+      <c r="D905" s="7"/>
+    </row>
+    <row r="906" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C906" s="7"/>
+      <c r="D906" s="7"/>
+    </row>
+    <row r="907" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C907" s="7"/>
+      <c r="D907" s="7"/>
+    </row>
+    <row r="908" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C908" s="7"/>
+      <c r="D908" s="7"/>
+    </row>
+    <row r="909" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C909" s="7"/>
+      <c r="D909" s="7"/>
+    </row>
+    <row r="910" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C910" s="7"/>
+      <c r="D910" s="7"/>
+    </row>
+    <row r="911" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C911" s="7"/>
+      <c r="D911" s="7"/>
+    </row>
+    <row r="912" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C912" s="7"/>
+      <c r="D912" s="7"/>
+    </row>
+    <row r="913" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C913" s="7"/>
+      <c r="D913" s="7"/>
+    </row>
+    <row r="914" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C914" s="7"/>
+      <c r="D914" s="7"/>
+    </row>
+    <row r="915" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C915" s="7"/>
+      <c r="D915" s="7"/>
+    </row>
+    <row r="916" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C916" s="7"/>
+      <c r="D916" s="7"/>
+    </row>
+    <row r="917" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C917" s="7"/>
+      <c r="D917" s="7"/>
+    </row>
+    <row r="918" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C918" s="7"/>
+      <c r="D918" s="7"/>
+    </row>
+    <row r="919" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C919" s="7"/>
+      <c r="D919" s="7"/>
+    </row>
+    <row r="920" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C920" s="7"/>
+      <c r="D920" s="7"/>
+    </row>
+    <row r="921" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C921" s="7"/>
+      <c r="D921" s="7"/>
+    </row>
+    <row r="922" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C922" s="7"/>
+      <c r="D922" s="7"/>
+    </row>
+    <row r="923" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C923" s="7"/>
+      <c r="D923" s="7"/>
+    </row>
+    <row r="924" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C924" s="7"/>
+      <c r="D924" s="7"/>
+    </row>
+    <row r="925" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C925" s="7"/>
+      <c r="D925" s="7"/>
+    </row>
+    <row r="926" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C926" s="7"/>
+      <c r="D926" s="7"/>
+    </row>
+    <row r="927" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C927" s="7"/>
+      <c r="D927" s="7"/>
+    </row>
+    <row r="928" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C928" s="7"/>
+      <c r="D928" s="7"/>
+    </row>
+    <row r="929" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C929" s="7"/>
+      <c r="D929" s="7"/>
+    </row>
+    <row r="930" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C930" s="7"/>
+      <c r="D930" s="7"/>
+    </row>
+    <row r="931" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C931" s="7"/>
+      <c r="D931" s="7"/>
+    </row>
+    <row r="932" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C932" s="7"/>
+      <c r="D932" s="7"/>
+    </row>
+    <row r="933" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C933" s="7"/>
+      <c r="D933" s="7"/>
+    </row>
+    <row r="934" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C934" s="7"/>
+      <c r="D934" s="7"/>
+    </row>
+    <row r="935" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C935" s="7"/>
+      <c r="D935" s="7"/>
+    </row>
+    <row r="936" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C936" s="7"/>
+      <c r="D936" s="7"/>
+    </row>
+    <row r="937" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C937" s="7"/>
+      <c r="D937" s="7"/>
+    </row>
+    <row r="938" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C938" s="7"/>
+      <c r="D938" s="7"/>
+    </row>
+    <row r="939" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C939" s="7"/>
+      <c r="D939" s="7"/>
+    </row>
+    <row r="940" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C940" s="7"/>
+      <c r="D940" s="7"/>
+    </row>
+    <row r="941" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C941" s="7"/>
+      <c r="D941" s="7"/>
+    </row>
+    <row r="942" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C942" s="7"/>
+      <c r="D942" s="7"/>
+    </row>
+    <row r="943" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C943" s="7"/>
+      <c r="D943" s="7"/>
+    </row>
+    <row r="944" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C944" s="7"/>
+      <c r="D944" s="7"/>
+    </row>
+    <row r="945" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C945" s="7"/>
+      <c r="D945" s="7"/>
+    </row>
+    <row r="946" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C946" s="7"/>
+      <c r="D946" s="7"/>
+    </row>
+    <row r="947" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C947" s="7"/>
+      <c r="D947" s="7"/>
+    </row>
+    <row r="948" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C948" s="7"/>
+      <c r="D948" s="7"/>
+    </row>
+    <row r="949" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C949" s="7"/>
+      <c r="D949" s="7"/>
+    </row>
+    <row r="950" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C950" s="7"/>
+      <c r="D950" s="7"/>
+    </row>
+    <row r="951" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C951" s="7"/>
+      <c r="D951" s="7"/>
+    </row>
+    <row r="952" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C952" s="7"/>
+      <c r="D952" s="7"/>
+    </row>
+    <row r="953" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C953" s="7"/>
+      <c r="D953" s="7"/>
+    </row>
+    <row r="954" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C954" s="7"/>
+      <c r="D954" s="7"/>
+    </row>
+    <row r="955" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C955" s="7"/>
+      <c r="D955" s="7"/>
+    </row>
+    <row r="956" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C956" s="7"/>
+      <c r="D956" s="7"/>
+    </row>
+    <row r="957" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C957" s="7"/>
+      <c r="D957" s="7"/>
+    </row>
+    <row r="958" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C958" s="7"/>
+      <c r="D958" s="7"/>
+    </row>
+    <row r="959" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C959" s="7"/>
+      <c r="D959" s="7"/>
+    </row>
+    <row r="960" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C960" s="7"/>
+      <c r="D960" s="7"/>
+    </row>
+    <row r="961" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C961" s="7"/>
+      <c r="D961" s="7"/>
+    </row>
+    <row r="962" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C962" s="7"/>
+      <c r="D962" s="7"/>
+    </row>
+    <row r="963" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C963" s="7"/>
+      <c r="D963" s="7"/>
+    </row>
+    <row r="964" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C964" s="7"/>
+      <c r="D964" s="7"/>
+    </row>
+    <row r="965" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C965" s="7"/>
+      <c r="D965" s="7"/>
+    </row>
+    <row r="966" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C966" s="7"/>
+      <c r="D966" s="7"/>
+    </row>
+    <row r="967" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C967" s="7"/>
+      <c r="D967" s="7"/>
+    </row>
+    <row r="968" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C968" s="7"/>
+      <c r="D968" s="7"/>
+    </row>
+    <row r="969" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C969" s="7"/>
+      <c r="D969" s="7"/>
+    </row>
+    <row r="970" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C970" s="7"/>
+      <c r="D970" s="7"/>
+    </row>
+    <row r="971" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C971" s="7"/>
+      <c r="D971" s="7"/>
+    </row>
+    <row r="972" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C972" s="7"/>
+      <c r="D972" s="7"/>
+    </row>
+    <row r="973" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C973" s="7"/>
+      <c r="D973" s="7"/>
+    </row>
+    <row r="974" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C974" s="7"/>
+      <c r="D974" s="7"/>
+    </row>
+    <row r="975" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C975" s="7"/>
+      <c r="D975" s="7"/>
+    </row>
+    <row r="976" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C976" s="7"/>
+      <c r="D976" s="7"/>
+    </row>
+    <row r="977" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C977" s="7"/>
+      <c r="D977" s="7"/>
+    </row>
+    <row r="978" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C978" s="7"/>
+      <c r="D978" s="7"/>
+    </row>
+    <row r="979" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C979" s="7"/>
+      <c r="D979" s="7"/>
+    </row>
+    <row r="980" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C980" s="7"/>
+      <c r="D980" s="7"/>
+    </row>
+    <row r="981" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C981" s="7"/>
+      <c r="D981" s="7"/>
+    </row>
+    <row r="982" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C982" s="7"/>
+      <c r="D982" s="7"/>
+    </row>
+    <row r="983" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C983" s="7"/>
+      <c r="D983" s="7"/>
+    </row>
+    <row r="984" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C984" s="7"/>
+      <c r="D984" s="7"/>
+    </row>
+    <row r="985" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C985" s="7"/>
+      <c r="D985" s="7"/>
+    </row>
+    <row r="986" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C986" s="7"/>
+      <c r="D986" s="7"/>
+    </row>
+    <row r="987" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C987" s="7"/>
+      <c r="D987" s="7"/>
+    </row>
+    <row r="988" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C988" s="7"/>
+      <c r="D988" s="7"/>
+    </row>
+    <row r="989" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C989" s="7"/>
+      <c r="D989" s="7"/>
+    </row>
+    <row r="990" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C990" s="7"/>
+      <c r="D990" s="7"/>
+    </row>
+    <row r="991" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C991" s="7"/>
+      <c r="D991" s="7"/>
+    </row>
+    <row r="992" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C992" s="7"/>
+      <c r="D992" s="7"/>
+    </row>
+    <row r="993" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C993" s="7"/>
+      <c r="D993" s="7"/>
+    </row>
+    <row r="994" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C994" s="7"/>
+      <c r="D994" s="7"/>
+    </row>
+    <row r="995" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C995" s="7"/>
+      <c r="D995" s="7"/>
+    </row>
+    <row r="996" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C996" s="7"/>
+      <c r="D996" s="7"/>
+    </row>
+    <row r="997" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C997" s="7"/>
+      <c r="D997" s="7"/>
+    </row>
+    <row r="998" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C998" s="7"/>
+      <c r="D998" s="7"/>
+    </row>
+    <row r="999" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C999" s="7"/>
+      <c r="D999" s="7"/>
+    </row>
+    <row r="1000" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1000" s="7"/>
+      <c r="D1000" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-92 Missing value.xlsx
+++ b/CH-92 Missing value.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B09CD5B-7940-4F91-89BB-7F863363DDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D284A7E-211F-414D-979A-055A89E029FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,8 +44,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -56,11 +57,35 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
@@ -706,6 +731,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>13</v>
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>13</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
+</rvStructures>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -19868,8 +19959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A932BE-8E3C-470C-A0EC-77638493AE59}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20431,35 +20522,32 @@
       <c r="S17" s="9"/>
     </row>
     <row r="18" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C18" s="3" cm="1">
-        <f t="array" aca="1" ref="C18" ca="1">_xlfn.VSTACK(K2:N2,_xlfn.MAP(
+      <c r="C18" s="3" t="e" cm="1" vm="1">
+        <f t="array" ref="C18">_xlfn.VSTACK(K2:N2,_xlfn.MAP(
 C3:F12,
-_xlfn.LAMBDA(_xlpm.v,  _xlfn.LET(_xlpm.r, _xlfn.IFS(_xlpm.v="U",-1,_xlpm.v="D",1,1,0),
-               _xlpm.c, _xlfn.IFS(_xlpm.v="L",-1,_xlpm.v="R",1,1,0),
-               _xlpm.z, INDEX(_xlfn.ANCHORARRAY($C$18),ROW(_xlpm.v)+_xlpm.r-ROW($C$18)+1,COLUMN(_xlpm.v)+_xlpm.c-COLUMN($C$18)+1),
-               _xlpm.z)
-      )
-))</f>
-        <v>0</v>
+_xlfn.LAMBDA(_xlpm.v,_xlfn.LET(_xlpm.r,_xlfn.IFS(_xlpm.v="U",-1,_xlpm.v="D",1,1,0),
+_xlpm.c,_xlfn.IFS(_xlpm.v="L",-1,_xlpm.v="R",1,1,0),
+_xlpm.z,INDEX(_xlpm.v,1,1):INDEX(_xlpm.v,1,1),
+INDEX($C$3:$F$12,ROW(_xlpm.z)+_xlpm.r-3,COLUMN(_xlpm.z)+_xlpm.c-3)
+)
+)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="H18" t="b" cm="1">
-        <f t="array" aca="1" ref="H18:K28" ca="1">_xlfn.ANCHORARRAY(C18)=K2:N12</f>
-        <v>1</v>
-      </c>
-      <c r="I18" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J18" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K18" t="b">
-        <f ca="1"/>
-        <v>1</v>
+      <c r="H18" t="e" cm="1" vm="2">
+        <f t="array" ref="H18:K28">_xlfn.ANCHORARRAY(C18)=K2:N12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J18" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>15</v>
@@ -20471,21 +20559,17 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
-      <c r="H19" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I19" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J19" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K19" t="b">
-        <f ca="1"/>
-        <v>1</v>
+      <c r="H19" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I19" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J19" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K19" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="M19" s="11"/>
       <c r="P19" s="8"/>
@@ -20496,21 +20580,17 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="H20" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I20" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J20" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K20" t="b">
-        <f ca="1"/>
-        <v>1</v>
+      <c r="H20" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J20" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>14</v>
@@ -20523,21 +20603,17 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="H21" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I21" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J21" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K21" t="b">
-        <f ca="1"/>
-        <v>1</v>
+      <c r="H21" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J21" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K21" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="M21" s="11"/>
       <c r="P21" s="8"/>
@@ -20548,21 +20624,17 @@
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="4"/>
-      <c r="H22" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I22" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J22" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K22" t="b">
-        <f ca="1"/>
-        <v>1</v>
+      <c r="H22" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J22" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="P22" s="8"/>
       <c r="S22" s="9"/>
@@ -20572,21 +20644,17 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
-      <c r="H23" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I23" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J23" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K23" t="b">
-        <f ca="1"/>
-        <v>1</v>
+      <c r="H23" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I23" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J23" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K23" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>16</v>
@@ -20599,21 +20667,17 @@
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="H24" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I24" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J24" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K24" t="b">
-        <f ca="1"/>
-        <v>1</v>
+      <c r="H24" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I24" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J24" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K24" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="N24" s="11" t="str" cm="1">
         <f t="array" ref="N24">INDEX(C2:F12,ROW(C24)+2-ROW(C18)+1,COLUMN(C24)+2-COLUMN(C18)+1)</f>
@@ -20627,21 +20691,17 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="H25" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I25" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J25" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K25" t="b">
-        <f ca="1"/>
-        <v>1</v>
+      <c r="H25" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I25" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J25" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K25" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="O25">
         <f>COLUMN(N23)</f>
@@ -20655,21 +20715,17 @@
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
-      <c r="H26" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I26" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J26" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K26" t="b">
-        <f ca="1"/>
-        <v>1</v>
+      <c r="H26" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J26" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="P26" s="8"/>
       <c r="S26" s="9"/>
@@ -20679,21 +20735,17 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="H27" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I27" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J27" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K27" t="b">
-        <f ca="1"/>
-        <v>1</v>
+      <c r="H27" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I27" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J27" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K27" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="P27" s="8"/>
       <c r="S27" s="9"/>
@@ -20703,21 +20755,17 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="H28" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I28" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J28" t="b">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K28" t="b">
-        <f ca="1"/>
-        <v>1</v>
+      <c r="H28" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I28" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J28" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K28" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="P28" s="8"/>
       <c r="S28" s="9"/>

--- a/CH-92 Missing value.xlsx
+++ b/CH-92 Missing value.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D284A7E-211F-414D-979A-055A89E029FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5F5A09-AED1-4F51-B190-3832A6B51F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,8 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -57,35 +56,11 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-    <bk>
-      <rc t="2" v="1"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
@@ -731,72 +706,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <rv s="0">
-    <v>13</v>
-    <v>2</v>
-  </rv>
-  <rv s="1">
-    <v>13</v>
-    <v>1</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="propagated" t="b"/>
-  </s>
-</rvStructures>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -19959,8 +19868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A932BE-8E3C-470C-A0EC-77638493AE59}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20522,32 +20431,38 @@
       <c r="S17" s="9"/>
     </row>
     <row r="18" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C18" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="C18">_xlfn.VSTACK(K2:N2,_xlfn.MAP(
+      <c r="C18" s="3" t="str" cm="1">
+        <f t="array" ref="C18:F28">_xlfn.VSTACK(K2:N2,_xlfn.MAP(
 C3:F12,
 _xlfn.LAMBDA(_xlpm.v,_xlfn.LET(_xlpm.r,_xlfn.IFS(_xlpm.v="U",-1,_xlpm.v="D",1,1,0),
 _xlpm.c,_xlfn.IFS(_xlpm.v="L",-1,_xlpm.v="R",1,1,0),
 _xlpm.z,INDEX(_xlpm.v,1,1):INDEX(_xlpm.v,1,1),
-INDEX($C$3:$F$12,ROW(_xlpm.z)+_xlpm.r-3,COLUMN(_xlpm.z)+_xlpm.c-3)
+_xlfn.TEXTJOIN("|",,ROW(_xlpm.z)+_xlpm.r-3+1,COLUMN(_xlpm.z)+_xlpm.c-3+1)
 )
 )))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="H18" t="e" cm="1" vm="2">
+        <v>Row ID</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <v>X</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <v>Y</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <v>Z</v>
+      </c>
+      <c r="H18" t="b" cm="1">
         <f t="array" ref="H18:K28">_xlfn.ANCHORARRAY(C18)=K2:N12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I18" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J18" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K18" t="e" vm="2">
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>15</v>
@@ -20555,42 +20470,58 @@
       <c r="S18" s="9"/>
     </row>
     <row r="19" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="H19" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I19" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J19" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K19" t="e" vm="2">
-        <v>#VALUE!</v>
+      <c r="C19" s="4" t="str">
+        <v>1|1</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <v>1|2</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <v>1|3</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <v>0|4</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
       <c r="M19" s="11"/>
       <c r="P19" s="8"/>
       <c r="S19" s="9"/>
     </row>
     <row r="20" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="H20" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I20" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J20" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K20" t="e" vm="2">
-        <v>#VALUE!</v>
+      <c r="C20" s="4" t="str">
+        <v>2|1</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <v>2|2</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <v>2|3</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <v>2|4</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>14</v>
@@ -20599,62 +20530,86 @@
       <c r="S20" s="9"/>
     </row>
     <row r="21" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="H21" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I21" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J21" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K21" t="e" vm="2">
-        <v>#VALUE!</v>
+      <c r="C21" s="4" t="str">
+        <v>3|1</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <v>3|2</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <v>3|3</v>
+      </c>
+      <c r="F21" s="4" t="str">
+        <v>3|4</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
       <c r="M21" s="11"/>
       <c r="P21" s="8"/>
       <c r="S21" s="9"/>
     </row>
     <row r="22" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="H22" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I22" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J22" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K22" t="e" vm="2">
-        <v>#VALUE!</v>
+      <c r="C22" s="4" t="str">
+        <v>4|1</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <v>4|2</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <v>5|3</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <v>4|4</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
       </c>
       <c r="P22" s="8"/>
       <c r="S22" s="9"/>
     </row>
     <row r="23" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="H23" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I23" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J23" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K23" t="e" vm="2">
-        <v>#VALUE!</v>
+      <c r="C23" s="4" t="str">
+        <v>5|1</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <v>5|2</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <v>5|3</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <v>5|3</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>16</v>
@@ -20663,21 +20618,29 @@
       <c r="S23" s="9"/>
     </row>
     <row r="24" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="H24" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I24" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J24" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K24" t="e" vm="2">
-        <v>#VALUE!</v>
+      <c r="C24" s="4" t="str">
+        <v>6|1</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <v>6|3</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <v>6|3</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <v>6|4</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
       </c>
       <c r="N24" s="11" t="str" cm="1">
         <f t="array" ref="N24">INDEX(C2:F12,ROW(C24)+2-ROW(C18)+1,COLUMN(C24)+2-COLUMN(C18)+1)</f>
@@ -20687,21 +20650,29 @@
       <c r="S24" s="9"/>
     </row>
     <row r="25" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="H25" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I25" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J25" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K25" t="e" vm="2">
-        <v>#VALUE!</v>
+      <c r="C25" s="4" t="str">
+        <v>7|1</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <v>7|2</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <v>7|3</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <v>7|4</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
       </c>
       <c r="O25">
         <f>COLUMN(N23)</f>
@@ -20711,61 +20682,85 @@
       <c r="S25" s="9"/>
     </row>
     <row r="26" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="H26" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J26" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K26" t="e" vm="2">
-        <v>#VALUE!</v>
+      <c r="C26" s="4" t="str">
+        <v>8|1</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <v>8|2</v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <v>8|2</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <v>8|4</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
       </c>
       <c r="P26" s="8"/>
       <c r="S26" s="9"/>
     </row>
     <row r="27" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="H27" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I27" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J27" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K27" t="e" vm="2">
-        <v>#VALUE!</v>
+      <c r="C27" s="4" t="str">
+        <v>9|1</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <v>9|2</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <v>9|3</v>
+      </c>
+      <c r="F27" s="4" t="str">
+        <v>9|4</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
       </c>
       <c r="P27" s="8"/>
       <c r="S27" s="9"/>
     </row>
     <row r="28" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="H28" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I28" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J28" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K28" t="e" vm="2">
-        <v>#VALUE!</v>
+      <c r="C28" s="4" t="str">
+        <v>10|1</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <v>10|2</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <v>10|3</v>
+      </c>
+      <c r="F28" s="4" t="str">
+        <v>10|4</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
       </c>
       <c r="P28" s="8"/>
       <c r="S28" s="9"/>

--- a/CH-92 Missing value.xlsx
+++ b/CH-92 Missing value.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5F5A09-AED1-4F51-B190-3832A6B51F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9D31AC-7C9B-41F1-B2A5-28C236FABA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19868,7 +19868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A932BE-8E3C-470C-A0EC-77638493AE59}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -20437,9 +20437,9 @@
 _xlfn.LAMBDA(_xlpm.v,_xlfn.LET(_xlpm.r,_xlfn.IFS(_xlpm.v="U",-1,_xlpm.v="D",1,1,0),
 _xlpm.c,_xlfn.IFS(_xlpm.v="L",-1,_xlpm.v="R",1,1,0),
 _xlpm.z,INDEX(_xlpm.v,1,1):INDEX(_xlpm.v,1,1),
-_xlfn.TEXTJOIN("|",,ROW(_xlpm.z)+_xlpm.r-3+1,COLUMN(_xlpm.z)+_xlpm.c-3+1)
+INDEX(C2:F12,ROW(_xlpm.z)+_xlpm.r-3+2,COLUMN(_xlpm.z)+_xlpm.c-3+1))
 )
-)))</f>
+))</f>
         <v>Row ID</v>
       </c>
       <c r="D18" s="3" t="str">
@@ -20470,58 +20470,58 @@
       <c r="S18" s="9"/>
     </row>
     <row r="19" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="4" t="str">
-        <v>1|1</v>
-      </c>
-      <c r="D19" s="4" t="str">
-        <v>1|2</v>
-      </c>
-      <c r="E19" s="4" t="str">
-        <v>1|3</v>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4">
+        <v>70</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>0|4</v>
+        <v>Z</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="11"/>
       <c r="P19" s="8"/>
       <c r="S19" s="9"/>
     </row>
     <row r="20" spans="3:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C20" s="4" t="str">
-        <v>2|1</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <v>2|2</v>
-      </c>
-      <c r="E20" s="4" t="str">
-        <v>2|3</v>
-      </c>
-      <c r="F20" s="4" t="str">
-        <v>2|4</v>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4">
+        <v>36</v>
+      </c>
+      <c r="F20" s="4">
+        <v>78</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>14</v>
@@ -20530,86 +20530,86 @@
       <c r="S20" s="9"/>
     </row>
     <row r="21" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="4" t="str">
-        <v>3|1</v>
-      </c>
-      <c r="D21" s="4" t="str">
-        <v>3|2</v>
-      </c>
-      <c r="E21" s="4" t="str">
-        <v>3|3</v>
-      </c>
-      <c r="F21" s="4" t="str">
-        <v>3|4</v>
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>65</v>
+      </c>
+      <c r="E21" s="4">
+        <v>67</v>
+      </c>
+      <c r="F21" s="4">
+        <v>94</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="11"/>
       <c r="P21" s="8"/>
       <c r="S21" s="9"/>
     </row>
     <row r="22" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="4" t="str">
-        <v>4|1</v>
-      </c>
-      <c r="D22" s="4" t="str">
-        <v>4|2</v>
-      </c>
-      <c r="E22" s="5" t="str">
-        <v>5|3</v>
-      </c>
-      <c r="F22" s="4" t="str">
-        <v>4|4</v>
+      <c r="C22" s="4">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4">
+        <v>40</v>
+      </c>
+      <c r="E22" s="5">
+        <v>68</v>
+      </c>
+      <c r="F22" s="4">
+        <v>36</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="8"/>
       <c r="S22" s="9"/>
     </row>
     <row r="23" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="4" t="str">
-        <v>5|1</v>
-      </c>
-      <c r="D23" s="4" t="str">
-        <v>5|2</v>
-      </c>
-      <c r="E23" s="4" t="str">
-        <v>5|3</v>
-      </c>
-      <c r="F23" s="5" t="str">
-        <v>5|3</v>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>57</v>
+      </c>
+      <c r="E23" s="4">
+        <v>68</v>
+      </c>
+      <c r="F23" s="5">
+        <v>68</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>16</v>
@@ -20618,29 +20618,29 @@
       <c r="S23" s="9"/>
     </row>
     <row r="24" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="4" t="str">
-        <v>6|1</v>
-      </c>
-      <c r="D24" s="5" t="str">
-        <v>6|3</v>
-      </c>
-      <c r="E24" s="4" t="str">
-        <v>6|3</v>
-      </c>
-      <c r="F24" s="4" t="str">
-        <v>6|4</v>
+      <c r="C24" s="4">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5">
+        <v>30</v>
+      </c>
+      <c r="E24" s="4">
+        <v>30</v>
+      </c>
+      <c r="F24" s="4">
+        <v>12</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="11" t="str" cm="1">
         <f t="array" ref="N24">INDEX(C2:F12,ROW(C24)+2-ROW(C18)+1,COLUMN(C24)+2-COLUMN(C18)+1)</f>
@@ -20650,29 +20650,29 @@
       <c r="S24" s="9"/>
     </row>
     <row r="25" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="4" t="str">
-        <v>7|1</v>
-      </c>
-      <c r="D25" s="4" t="str">
-        <v>7|2</v>
-      </c>
-      <c r="E25" s="4" t="str">
-        <v>7|3</v>
-      </c>
-      <c r="F25" s="4" t="str">
-        <v>7|4</v>
+      <c r="C25" s="4">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4">
+        <v>89</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
         <f>COLUMN(N23)</f>
@@ -20682,85 +20682,85 @@
       <c r="S25" s="9"/>
     </row>
     <row r="26" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="4" t="str">
-        <v>8|1</v>
-      </c>
-      <c r="D26" s="4" t="str">
-        <v>8|2</v>
-      </c>
-      <c r="E26" s="5" t="str">
-        <v>8|2</v>
-      </c>
-      <c r="F26" s="4" t="str">
-        <v>8|4</v>
+      <c r="C26" s="4">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4">
+        <v>34</v>
+      </c>
+      <c r="E26" s="5">
+        <v>34</v>
+      </c>
+      <c r="F26" s="4">
+        <v>10</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="8"/>
       <c r="S26" s="9"/>
     </row>
     <row r="27" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="4" t="str">
-        <v>9|1</v>
-      </c>
-      <c r="D27" s="4" t="str">
-        <v>9|2</v>
-      </c>
-      <c r="E27" s="4" t="str">
-        <v>9|3</v>
-      </c>
-      <c r="F27" s="4" t="str">
-        <v>9|4</v>
+      <c r="C27" s="4">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4">
+        <v>78</v>
+      </c>
+      <c r="E27" s="4">
+        <v>50</v>
+      </c>
+      <c r="F27" s="4">
+        <v>10</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="8"/>
       <c r="S27" s="9"/>
     </row>
     <row r="28" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="4" t="str">
-        <v>10|1</v>
-      </c>
-      <c r="D28" s="4" t="str">
-        <v>10|2</v>
-      </c>
-      <c r="E28" s="4" t="str">
-        <v>10|3</v>
-      </c>
-      <c r="F28" s="4" t="str">
-        <v>10|4</v>
+      <c r="C28" s="4">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4">
+        <v>94</v>
+      </c>
+      <c r="E28" s="4">
+        <v>84</v>
+      </c>
+      <c r="F28" s="4">
+        <v>82</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="8"/>
       <c r="S28" s="9"/>
